--- a/user_posts_art_and_sport_only_sport_filter_min_diff.xlsx
+++ b/user_posts_art_and_sport_only_sport_filter_min_diff.xlsx
@@ -70,490 +70,558 @@
     <t>Sport Created UTC</t>
   </si>
   <si>
+    <t>Lvl100Magikarp</t>
+  </si>
+  <si>
+    <t>Grandemestizo</t>
+  </si>
+  <si>
+    <t>Diamondbacking</t>
+  </si>
+  <si>
+    <t>BlackFlame23</t>
+  </si>
+  <si>
+    <t>mikejandreau</t>
+  </si>
+  <si>
+    <t>bobismydog</t>
+  </si>
+  <si>
+    <t>bluebir6</t>
+  </si>
+  <si>
+    <t>Raider7oh7</t>
+  </si>
+  <si>
+    <t>reckless150681</t>
+  </si>
+  <si>
+    <t>Checkthescript</t>
+  </si>
+  <si>
+    <t>haneliza</t>
+  </si>
+  <si>
+    <t>musically_amelia</t>
+  </si>
+  <si>
+    <t>JoeinVA</t>
+  </si>
+  <si>
+    <t>paintnpolitics</t>
+  </si>
+  <si>
+    <t>ToomintheEllimist</t>
+  </si>
+  <si>
     <t>Locogooner</t>
   </si>
   <si>
+    <t>williaty</t>
+  </si>
+  <si>
+    <t>MidnitePixelated</t>
+  </si>
+  <si>
+    <t>fresasfrescasalfinal</t>
+  </si>
+  <si>
+    <t>mobiusmaples</t>
+  </si>
+  <si>
+    <t>xoemily</t>
+  </si>
+  <si>
+    <t>lookin03820</t>
+  </si>
+  <si>
+    <t>Dxcesare</t>
+  </si>
+  <si>
+    <t>GoldmanT</t>
+  </si>
+  <si>
+    <t>My_genx_life</t>
+  </si>
+  <si>
+    <t>Wizardshaft11215</t>
+  </si>
+  <si>
+    <t>whatsername25</t>
+  </si>
+  <si>
+    <t>edon581</t>
+  </si>
+  <si>
+    <t>longtimelistener17</t>
+  </si>
+  <si>
+    <t>TheLurkerSpeaks</t>
+  </si>
+  <si>
+    <t>ejsfsc07</t>
+  </si>
+  <si>
+    <t>carvedwoodtrout</t>
+  </si>
+  <si>
+    <t>Tallm</t>
+  </si>
+  <si>
+    <t>FarmNGardenGal</t>
+  </si>
+  <si>
+    <t>allthecoffeesDP</t>
+  </si>
+  <si>
+    <t>synerjay16</t>
+  </si>
+  <si>
+    <t>neotropic9</t>
+  </si>
+  <si>
+    <t>Neptune2284</t>
+  </si>
+  <si>
+    <t>situ139</t>
+  </si>
+  <si>
+    <t>gwh34t</t>
+  </si>
+  <si>
+    <t>rkarl7777</t>
+  </si>
+  <si>
+    <t>IaryBreko</t>
+  </si>
+  <si>
     <t>awsfhie2</t>
   </si>
   <si>
-    <t>mikejandreau</t>
+    <t>xtalaphextwin</t>
+  </si>
+  <si>
+    <t>Veetupeetu</t>
+  </si>
+  <si>
+    <t>QueueTee314</t>
+  </si>
+  <si>
+    <t>Saxy-Snark</t>
   </si>
   <si>
     <t>Jerswar</t>
   </si>
   <si>
-    <t>Raider7oh7</t>
-  </si>
-  <si>
-    <t>reckless150681</t>
-  </si>
-  <si>
-    <t>xoemily</t>
-  </si>
-  <si>
-    <t>Veetupeetu</t>
-  </si>
-  <si>
-    <t>Lvl100Magikarp</t>
-  </si>
-  <si>
     <t>KingFerdidad</t>
   </si>
   <si>
-    <t>neotropic9</t>
-  </si>
-  <si>
-    <t>My_genx_life</t>
-  </si>
-  <si>
-    <t>allthecoffeesDP</t>
-  </si>
-  <si>
-    <t>williaty</t>
-  </si>
-  <si>
-    <t>situ139</t>
+    <t>FormerFruit</t>
+  </si>
+  <si>
+    <t>speedy2686</t>
+  </si>
+  <si>
+    <t>xHey_All_You_Peoplex</t>
+  </si>
+  <si>
+    <t>royalblue1982</t>
   </si>
   <si>
     <t>a2lackey</t>
   </si>
   <si>
-    <t>IaryBreko</t>
-  </si>
-  <si>
-    <t>longtimelistener17</t>
-  </si>
-  <si>
-    <t>Saxy-Snark</t>
-  </si>
-  <si>
-    <t>musically_amelia</t>
-  </si>
-  <si>
-    <t>gwh34t</t>
-  </si>
-  <si>
-    <t>whatsername25</t>
-  </si>
-  <si>
-    <t>rkarl7777</t>
-  </si>
-  <si>
-    <t>royalblue1982</t>
-  </si>
-  <si>
-    <t>Neptune2284</t>
-  </si>
-  <si>
-    <t>carvedwoodtrout</t>
-  </si>
-  <si>
-    <t>speedy2686</t>
-  </si>
-  <si>
-    <t>TheLurkerSpeaks</t>
-  </si>
-  <si>
-    <t>Grandemestizo</t>
-  </si>
-  <si>
-    <t>JoeinVA</t>
-  </si>
-  <si>
-    <t>lookin03820</t>
-  </si>
-  <si>
-    <t>BlackFlame23</t>
-  </si>
-  <si>
-    <t>Diamondbacking</t>
-  </si>
-  <si>
-    <t>Wizardshaft11215</t>
-  </si>
-  <si>
-    <t>GoldmanT</t>
-  </si>
-  <si>
-    <t>xHey_All_You_Peoplex</t>
-  </si>
-  <si>
-    <t>edon581</t>
-  </si>
-  <si>
-    <t>paintnpolitics</t>
-  </si>
-  <si>
-    <t>xtalaphextwin</t>
-  </si>
-  <si>
-    <t>mobiusmaples</t>
-  </si>
-  <si>
-    <t>Checkthescript</t>
-  </si>
-  <si>
-    <t>synerjay16</t>
-  </si>
-  <si>
-    <t>FormerFruit</t>
-  </si>
-  <si>
-    <t>haneliza</t>
-  </si>
-  <si>
-    <t>ToomintheEllimist</t>
-  </si>
-  <si>
-    <t>bobismydog</t>
-  </si>
-  <si>
-    <t>MidnitePixelated</t>
-  </si>
-  <si>
-    <t>fresasfrescasalfinal</t>
-  </si>
-  <si>
-    <t>FarmNGardenGal</t>
-  </si>
-  <si>
-    <t>bluebir6</t>
-  </si>
-  <si>
-    <t>Tallm</t>
-  </si>
-  <si>
-    <t>Dxcesare</t>
-  </si>
-  <si>
-    <t>QueueTee314</t>
-  </si>
-  <si>
-    <t>ejsfsc07</t>
+    <t>189hesb</t>
+  </si>
+  <si>
+    <t>17ubj5d</t>
+  </si>
+  <si>
+    <t>12mzl6f</t>
+  </si>
+  <si>
+    <t>7px7kp</t>
+  </si>
+  <si>
+    <t>ac8pxu</t>
+  </si>
+  <si>
+    <t>gahvut</t>
+  </si>
+  <si>
+    <t>1aupxss</t>
+  </si>
+  <si>
+    <t>c0e0rx</t>
+  </si>
+  <si>
+    <t>83v8dl</t>
+  </si>
+  <si>
+    <t>krzj6k</t>
+  </si>
+  <si>
+    <t>g9wlfi</t>
+  </si>
+  <si>
+    <t>kgzptl</t>
+  </si>
+  <si>
+    <t>img5ht</t>
+  </si>
+  <si>
+    <t>ofzt8d</t>
+  </si>
+  <si>
+    <t>162pp8x</t>
   </si>
   <si>
     <t>os77tv</t>
   </si>
   <si>
+    <t>juyqt0</t>
+  </si>
+  <si>
+    <t>lvl9vs</t>
+  </si>
+  <si>
+    <t>120npvy</t>
+  </si>
+  <si>
+    <t>1c0oe0u</t>
+  </si>
+  <si>
+    <t>g16hy1</t>
+  </si>
+  <si>
+    <t>rol4if</t>
+  </si>
+  <si>
+    <t>vlvqt3</t>
+  </si>
+  <si>
+    <t>cni86z</t>
+  </si>
+  <si>
+    <t>yyy4b4</t>
+  </si>
+  <si>
+    <t>1df7g79</t>
+  </si>
+  <si>
+    <t>h91zdr</t>
+  </si>
+  <si>
+    <t>bo6t4l</t>
+  </si>
+  <si>
+    <t>lfxh7z</t>
+  </si>
+  <si>
+    <t>axlhv3</t>
+  </si>
+  <si>
+    <t>z0k3ja</t>
+  </si>
+  <si>
+    <t>1h1jdg1</t>
+  </si>
+  <si>
+    <t>r875yc</t>
+  </si>
+  <si>
+    <t>187rhk4</t>
+  </si>
+  <si>
+    <t>px53s0</t>
+  </si>
+  <si>
+    <t>171gj0s</t>
+  </si>
+  <si>
+    <t>8dn28k</t>
+  </si>
+  <si>
+    <t>9rj05l</t>
+  </si>
+  <si>
+    <t>ior01h</t>
+  </si>
+  <si>
+    <t>jd52hi</t>
+  </si>
+  <si>
+    <t>cfw8x8</t>
+  </si>
+  <si>
+    <t>x5r0bz</t>
+  </si>
+  <si>
     <t>rxlcbs</t>
   </si>
   <si>
-    <t>ac8pxu</t>
+    <t>mpe9k9</t>
+  </si>
+  <si>
+    <t>ufwwz5</t>
+  </si>
+  <si>
+    <t>8r7vux</t>
+  </si>
+  <si>
+    <t>klj7ft</t>
   </si>
   <si>
     <t>1e1blj0</t>
   </si>
   <si>
-    <t>c0e0rx</t>
-  </si>
-  <si>
-    <t>83v8dl</t>
-  </si>
-  <si>
-    <t>g16hy1</t>
-  </si>
-  <si>
-    <t>ufwwz5</t>
-  </si>
-  <si>
-    <t>189hesb</t>
-  </si>
-  <si>
     <t>bsbmna</t>
   </si>
   <si>
-    <t>8dn28k</t>
-  </si>
-  <si>
-    <t>yyy4b4</t>
-  </si>
-  <si>
-    <t>px53s0</t>
-  </si>
-  <si>
-    <t>juyqt0</t>
-  </si>
-  <si>
-    <t>ior01h</t>
+    <t>p7jysv</t>
+  </si>
+  <si>
+    <t>82bvek</t>
+  </si>
+  <si>
+    <t>bcxqtr</t>
+  </si>
+  <si>
+    <t>17swxhp</t>
   </si>
   <si>
     <t>jtrcz6</t>
   </si>
   <si>
-    <t>x5r0bz</t>
-  </si>
-  <si>
-    <t>lfxh7z</t>
-  </si>
-  <si>
-    <t>klj7ft</t>
-  </si>
-  <si>
-    <t>kgzptl</t>
-  </si>
-  <si>
-    <t>jd52hi</t>
-  </si>
-  <si>
-    <t>h91zdr</t>
-  </si>
-  <si>
-    <t>cfw8x8</t>
-  </si>
-  <si>
-    <t>17swxhp</t>
-  </si>
-  <si>
-    <t>9rj05l</t>
-  </si>
-  <si>
-    <t>1h1jdg1</t>
-  </si>
-  <si>
-    <t>82bvek</t>
-  </si>
-  <si>
-    <t>axlhv3</t>
-  </si>
-  <si>
-    <t>17ubj5d</t>
-  </si>
-  <si>
-    <t>img5ht</t>
-  </si>
-  <si>
-    <t>rol4if</t>
-  </si>
-  <si>
-    <t>7px7kp</t>
-  </si>
-  <si>
-    <t>12mzl6f</t>
-  </si>
-  <si>
-    <t>1df7g79</t>
-  </si>
-  <si>
-    <t>cni86z</t>
-  </si>
-  <si>
-    <t>bcxqtr</t>
-  </si>
-  <si>
-    <t>bo6t4l</t>
-  </si>
-  <si>
-    <t>ofzt8d</t>
-  </si>
-  <si>
-    <t>mpe9k9</t>
-  </si>
-  <si>
-    <t>1c0oe0u</t>
-  </si>
-  <si>
-    <t>krzj6k</t>
-  </si>
-  <si>
-    <t>171gj0s</t>
-  </si>
-  <si>
-    <t>p7jysv</t>
-  </si>
-  <si>
-    <t>g9wlfi</t>
-  </si>
-  <si>
-    <t>162pp8x</t>
-  </si>
-  <si>
-    <t>gahvut</t>
-  </si>
-  <si>
-    <t>lvl9vs</t>
-  </si>
-  <si>
-    <t>120npvy</t>
-  </si>
-  <si>
-    <t>187rhk4</t>
-  </si>
-  <si>
-    <t>1aupxss</t>
-  </si>
-  <si>
-    <t>r875yc</t>
-  </si>
-  <si>
-    <t>vlvqt3</t>
-  </si>
-  <si>
-    <t>8r7vux</t>
-  </si>
-  <si>
-    <t>z0k3ja</t>
+    <t>Petition to ban posts asking "what is the name of this style," or make it a weekly mega thread (Unrelated art by utagawa kuniyoshi)</t>
+  </si>
+  <si>
+    <t>Deus ex Machina. It's usually bad, but sometimes it works. What makes it work?</t>
+  </si>
+  <si>
+    <t>Does anyone have a system for becoming a better writer?</t>
+  </si>
+  <si>
+    <t>[Discussion] College Interviews</t>
+  </si>
+  <si>
+    <t>My editor hated the ending of my WIP</t>
+  </si>
+  <si>
+    <t>How to start making/selling prints of my artwork?</t>
+  </si>
+  <si>
+    <t>With a full heart, son (10) asked me to paint his photo.</t>
+  </si>
+  <si>
+    <t>help putting a set of brushes together</t>
+  </si>
+  <si>
+    <t>Two piano pieces</t>
+  </si>
+  <si>
+    <t>A look at Japanese author Haruki Murakami's daily writing routine: "The repetition itself becomes the important thing; it’s a form of mesmerism. I mesmerize myself to reach a deeper state of mind."</t>
+  </si>
+  <si>
+    <t>I got my first commission request, I’m nervous!</t>
+  </si>
+  <si>
+    <t>Good Book Recommendations on Composition?</t>
+  </si>
+  <si>
+    <t>What pieces should be in my portfolio?</t>
+  </si>
+  <si>
+    <t>Is art you made by “accident” still good art?</t>
+  </si>
+  <si>
+    <t>How to write male best friends without implying romance</t>
   </si>
   <si>
     <t>How do conceptual artists practice?</t>
   </si>
   <si>
+    <t>Can you help me replace this vintage roll media?</t>
+  </si>
+  <si>
+    <t>How the hell do I use a pen and mouse in Windows 10? Just got my first pen display and I’m so confused</t>
+  </si>
+  <si>
+    <t>Pitch as "light fantasy" or "speculative historical fiction"?</t>
+  </si>
+  <si>
+    <t>[Self] made from 4 recycled skateboards as art therapy by disabled skater</t>
+  </si>
+  <si>
+    <t>Advice on how to leave the editor at the door?</t>
+  </si>
+  <si>
+    <t>What are some store-bought alternatives to rosemary &amp; co brushes?</t>
+  </si>
+  <si>
+    <t>When writing your first draft, do you follow any particular rules or just get the whole thing down regardless of how poor it may be?</t>
+  </si>
+  <si>
+    <t>Composition Course - Day Zero</t>
+  </si>
+  <si>
+    <t>How to handle a client who always pays late?</t>
+  </si>
+  <si>
+    <t>Need help finding a market</t>
+  </si>
+  <si>
+    <t>Do you have a creative writing space?</t>
+  </si>
+  <si>
+    <t>Got back into painting after a few months hiatus. Tips on painting rocks and reducing photo glare? Full piece is 18x24" acrylics.</t>
+  </si>
+  <si>
+    <t>Funereal for string orchestra</t>
+  </si>
+  <si>
+    <t>How important is the Bechdel test?</t>
+  </si>
+  <si>
+    <t>Using writing as a way to cope with loneliness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turning, Oil on Canvas, 24” x 18”. </t>
+  </si>
+  <si>
+    <t>Theory created a vacuum</t>
+  </si>
+  <si>
+    <t>What is the most mundane place you’ve been or most mundane activity you were involved in when you came up with a great idea for a story? For me, this morning, at the dentist, while getting my teeth cleaned.</t>
+  </si>
+  <si>
+    <t>Anyone here writing horror novels or stories? (If this doesn't fit here I'll gladly delete.)</t>
+  </si>
+  <si>
+    <t>Trying my hand at Daubism</t>
+  </si>
+  <si>
+    <t>What's the difference between free indirect style and deep POV?</t>
+  </si>
+  <si>
+    <t>Confession: Sometimes when I'm dragging some of my characters through hell...</t>
+  </si>
+  <si>
+    <t>Constructive Rant Time - Don't Listen To The People Who Are Below You.</t>
+  </si>
+  <si>
+    <t>Do I need to Copyright my dissertation?</t>
+  </si>
+  <si>
+    <t>How to frame canvas prints (reproductions)?</t>
+  </si>
+  <si>
+    <t>Posting art online</t>
+  </si>
+  <si>
     <t>What did you all do after your first manuscript rejection?</t>
   </si>
   <si>
-    <t>My editor hated the ending of my WIP</t>
+    <t>The toxic myth of the tortured mentally ill artist, and that illness making them more creative/good at art. I want to talk about this because it's bothering me. People often cite Van Gogh, and mention that he was crazy, and it helped his art. But would Van Gogh have gotten anywhere with no skill?</t>
+  </si>
+  <si>
+    <t>The author’s responsibility?</t>
+  </si>
+  <si>
+    <t>Wouldn't it be great if there is a tool for reference management while letting you do free-hand annotate on it?</t>
+  </si>
+  <si>
+    <t>Oboe solo??</t>
   </si>
   <si>
     <t>Are people going to be upset with me for hiring a cover artists who uses AI to make stock photos look like illustrations?</t>
   </si>
   <si>
-    <t>help putting a set of brushes together</t>
-  </si>
-  <si>
-    <t>Two piano pieces</t>
-  </si>
-  <si>
-    <t>Advice on how to leave the editor at the door?</t>
-  </si>
-  <si>
-    <t>The author’s responsibility?</t>
-  </si>
-  <si>
-    <t>Petition to ban posts asking "what is the name of this style," or make it a weekly mega thread (Unrelated art by utagawa kuniyoshi)</t>
-  </si>
-  <si>
     <t>Should I include footnotes in my novel?</t>
   </si>
   <si>
-    <t>What's the difference between free indirect style and deep POV?</t>
-  </si>
-  <si>
-    <t>How to handle a client who always pays late?</t>
-  </si>
-  <si>
-    <t>Anyone here writing horror novels or stories? (If this doesn't fit here I'll gladly delete.)</t>
-  </si>
-  <si>
-    <t>Can you help me replace this vintage roll media?</t>
-  </si>
-  <si>
-    <t>Constructive Rant Time - Don't Listen To The People Who Are Below You.</t>
+    <t>What immediately makes a piece of writing look bad?</t>
+  </si>
+  <si>
+    <t>Harmony of Part to Whole in Short Stories</t>
+  </si>
+  <si>
+    <t>Keep Going</t>
+  </si>
+  <si>
+    <t>I was awarded my PhD (UK) this week. Some thoughts and advice</t>
   </si>
   <si>
     <t>For novels, create an outline or just write?</t>
   </si>
   <si>
-    <t>Posting art online</t>
-  </si>
-  <si>
-    <t>Funereal for string orchestra</t>
-  </si>
-  <si>
-    <t>Oboe solo??</t>
-  </si>
-  <si>
-    <t>Good Book Recommendations on Composition?</t>
-  </si>
-  <si>
-    <t>Do I need to Copyright my dissertation?</t>
-  </si>
-  <si>
-    <t>Do you have a creative writing space?</t>
-  </si>
-  <si>
-    <t>How to frame canvas prints (reproductions)?</t>
-  </si>
-  <si>
-    <t>I was awarded my PhD (UK) this week. Some thoughts and advice</t>
-  </si>
-  <si>
-    <t>Confession: Sometimes when I'm dragging some of my characters through hell...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turning, Oil on Canvas, 24” x 18”. </t>
-  </si>
-  <si>
-    <t>Harmony of Part to Whole in Short Stories</t>
-  </si>
-  <si>
-    <t>How important is the Bechdel test?</t>
-  </si>
-  <si>
-    <t>Deus ex Machina. It's usually bad, but sometimes it works. What makes it work?</t>
-  </si>
-  <si>
-    <t>What pieces should be in my portfolio?</t>
-  </si>
-  <si>
-    <t>What are some store-bought alternatives to rosemary &amp; co brushes?</t>
-  </si>
-  <si>
-    <t>[Discussion] College Interviews</t>
-  </si>
-  <si>
-    <t>Does anyone have a system for becoming a better writer?</t>
-  </si>
-  <si>
-    <t>Need help finding a market</t>
-  </si>
-  <si>
-    <t>Composition Course - Day Zero</t>
-  </si>
-  <si>
-    <t>Keep Going</t>
-  </si>
-  <si>
-    <t>Got back into painting after a few months hiatus. Tips on painting rocks and reducing photo glare? Full piece is 18x24" acrylics.</t>
-  </si>
-  <si>
-    <t>Is art you made by “accident” still good art?</t>
-  </si>
-  <si>
-    <t>The toxic myth of the tortured mentally ill artist, and that illness making them more creative/good at art. I want to talk about this because it's bothering me. People often cite Van Gogh, and mention that he was crazy, and it helped his art. But would Van Gogh have gotten anywhere with no skill?</t>
-  </si>
-  <si>
-    <t>[Self] made from 4 recycled skateboards as art therapy by disabled skater</t>
-  </si>
-  <si>
-    <t>A look at Japanese author Haruki Murakami's daily writing routine: "The repetition itself becomes the important thing; it’s a form of mesmerism. I mesmerize myself to reach a deeper state of mind."</t>
-  </si>
-  <si>
-    <t>Trying my hand at Daubism</t>
-  </si>
-  <si>
-    <t>What immediately makes a piece of writing look bad?</t>
-  </si>
-  <si>
-    <t>I got my first commission request, I’m nervous!</t>
-  </si>
-  <si>
-    <t>How to write male best friends without implying romance</t>
-  </si>
-  <si>
-    <t>How to start making/selling prints of my artwork?</t>
-  </si>
-  <si>
-    <t>How the hell do I use a pen and mouse in Windows 10? Just got my first pen display and I’m so confused</t>
-  </si>
-  <si>
-    <t>Pitch as "light fantasy" or "speculative historical fiction"?</t>
-  </si>
-  <si>
-    <t>What is the most mundane place you’ve been or most mundane activity you were involved in when you came up with a great idea for a story? For me, this morning, at the dentist, while getting my teeth cleaned.</t>
-  </si>
-  <si>
-    <t>With a full heart, son (10) asked me to paint his photo.</t>
-  </si>
-  <si>
-    <t>Theory created a vacuum</t>
-  </si>
-  <si>
-    <t>When writing your first draft, do you follow any particular rules or just get the whole thing down regardless of how poor it may be?</t>
-  </si>
-  <si>
-    <t>Wouldn't it be great if there is a tool for reference management while letting you do free-hand annotate on it?</t>
-  </si>
-  <si>
-    <t>Using writing as a way to cope with loneliness.</t>
+    <t>Getting pretty tired of people asking for AI prompt keywords</t>
+  </si>
+  <si>
+    <t>In The Lord of the Rings, after the ring is destroyed, Frodo and Sam are rescued by eagles. This is a clear case of deus ex machina but in the context of the story it works. What do you reckon makes the difference between a good and bad use of this trope?</t>
+  </si>
+  <si>
+    <t>Seems de rigueur to talk about building 'systems' to improve or achieve goals. I'm wondering if anyone has used some kind of structured approach to improve as a writer? 
+e.g. working from a text book on sentence structure for 30 minutes, 30 minutes of free writing, working through feedback from peers etc.</t>
+  </si>
+  <si>
+    <t>Hey everyone, I'm just starting to hear back from colleges for music and have been invited to interview at a few places for a BM in music composition. I'll start with what sounds like the hardest place from what they've stated for me: Juilliard. First there is a 3 hour test for all composition students and then 5 interviews, which I'm assuming are just with the different faculty.
+Is there something that I should be focusing on specifically for the test and the interviews? Or are these tests more of a placement type thing rather than something that affects admission?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She hated it so much that she convinced me to rewrite it and change it to something completely different. 
+It also caused me to put a temporary hold on the book for over four years. 
+I picked it back up and “finished” it in August. 
+Since then, 15 beta readers have all offered their feedback including a suggestion for the ending which is almost identical to what I had originally written. 
+This makes me mad because I lost so much time on this manuscript. And because I look like a moron now for not having written the ending people wanted. </t>
+  </si>
+  <si>
+    <t>I have been doing commissions for people for about two years and it has become my part time highschool job. I do mostly animal/pet portraits. However, I’m really wanting to start creating prints of some of my original animal artworks and selling them online for a little extra income before college. 
+My problem is that I don’t know where to start. I have an art website, and Instagram, a decent base of clientele, photoshop, a small 8.5x11 scanner that will work for my smaller pieces, and a whole lot of extra time now in quarantine. I just don’t know the best sites to advertise prints, how to produce high quality ones, or where to even begin with pricing. I’m also not sure what to do with my larger works that won’t fit on my own scanner. I would really appreciate any advice you guys may have for someone wanting to start out!</t>
+  </si>
+  <si>
+    <t>Took my boy golfing at one our favorite spots. Building memories with what comes of life friends. Keep em coming. Love your work!</t>
+  </si>
+  <si>
+    <t>im going to start painting again after a couple years off. I want to get into portraits and realistic style work. for now i will be using acrylic.
+I have read online that sets are usually lower quality. now that im in a position to buy better quality supplies, i was hoping reddit could help put together of a good base kit to get started with portrait painting. any suggestions appreciated.  thank you</t>
+  </si>
+  <si>
+    <t>Two pieces I wrote for solo piano.
+[This](https://musescore.com/reckless150681/luna) is a nocturne in Db, and [this](https://musescore.com/reckless150681/le-feu-de-lamour-habanera) is a habanera primarily in Am.</t>
+  </si>
+  <si>
+    <t>From the Japanese writer’s point of view, “writing a long novel is like survival training. Physical strength is as necessary as artistic sensitivity,” spending his days running and swimming to build up his endurance, as well as competing in marathons and triathlons.
+At the start of his writing career, Murakami also ran a small jazz club in Tokyo, where he worked until the early hours of the morning, before going home to write.
+After he decided to commit his life entirely to writing, Murakami and his wife, Yoko, closed the bar and moved out to Narashino, a more rural area in the Chiba prefecture of Tokyo.
+From there, the writer overhauled his lifestyle and daily routine completely, “once I was sitting at a desk writing all day I started putting on the pounds. I was also smoking too much—sixty cigarettes a day. My fingers were yellow, and my body reeked of smoke. This couldn’t be good for me, I decided. If I wanted to have a long life as a novelist, I needed to find a way to stay in shape.”
+In Murakami’s new daily routine, if he’s in novel mode, he’ll wake up at 4am and immediately start writing, working for five to six hours. If he’s not in novel mode, Murakami and his wife will still wake up early, “once I began my life as a novelist, my wife and I decided that we’d go to bed soon after it got dark and wake up with the sun,” typically waking up before 5am and going to bed at 10pm.
+While some people may imagine the life of a writer as balancing long stretches of idleness with flash in pan inspiration moments, the reality is that writing, and creativity, is more of a steady grind. Murakmai says, “I have to pound away at a rock with a chisel and dig out a deep hole before I can locate the source of my creativity” — a sentiment which reflects his structured routine and lifestyle.
+Murakami will typically finish up his day’s writing at 10am or 11am. From there, he’ll proceed to his physical training.
+&gt;In the afternoon, I run for 10km or swim for 1500m (or do both), then I read a bit and listen to some music. I go to bed at 9:00 pm. I keep to this routine every day without variation. The repetition itself becomes the important thing; it’s a form of mesmerism. I mesmerize myself to reach a deeper state of mind. But to hold to such repetition for so long — six months to a year — requires a good amount of mental and physical strength.
+To read the full daily routine, check it out here: [https://www.balancethegrind.com.au/daily-routines/haruki-murakami-daily-routine/](https://www.balancethegrind.com.au/daily-routines/haruki-murakami-daily-routine/)</t>
+  </si>
+  <si>
+    <t>I opened up my commissions on my Instagram account last week and just got my first request! I’m nervous! Before receiving a request I was worried that nobody would want to buy commissions from me but now that I’ve got one, I’m super nervous! I don’t want to let them down. 
+Anyone else nervous before their first commission? What did you do to quell the anxiety? Am I overthinking it too much? Lol. 
+I’d love to hear your thoughts on this!</t>
+  </si>
+  <si>
+    <t>Hey guys!  Do any of you have any good book recommendations on composition?  Or maybe any recommendations of scores that you've enjoyed analyzing?  Thanks!</t>
+  </si>
+  <si>
+    <t>I'm trying to get started in freelance writing by using Upwork and other such sites.  While I have always written, I have never been an independent writer so I don't have a portfolio of work that I can post in my profile.
+I'm more than willing to sit down and write a few pieces to serve as examples, but when I sit down to do so I end up staring at the blinking cursor at the top of the page. 
+When I just "free-write" for myself it's usually just ranting, not anything anyone would want to read. I need a few good prompts in subject matters that the content buyers will want to see in a portfolio. 
+Does anyone have any suggestions of topics for me to write about for my portfolio?</t>
+  </si>
+  <si>
+    <t>If something you make turns out looking cool out of chance and chaos, does it still count as good/real art?</t>
+  </si>
+  <si>
+    <t>My story has two supporting characters, Cal and Riel, whose platonic affection for each other is important to the story.  Riel fled their home to escape his extremist family, and Cal came with him to a new country to help him.  Part of my story hinges on my narrator Meg realizing that Riel will remain loyal to Cal even if Cal kills the king they swore to serve, meaning that Cal's the only person who can lead a military coup and be successful.  It's thus important for the story to convey that they care deeply for each other.
+However.  I don't want them to be romantically involved, and I don't see them as a couple.  But my writing group made comments about "shipping" them, and one expressed disappointment when Cal was flirting with Joan because she assumed Cal and Riel were already an item.  So.  How the fricklefrack do you write two men in a modern-but-fictional country caring deeply for each other, without it coming off as romantic?</t>
   </si>
   <si>
     <t>Painters can paint.
@@ -567,53 +635,90 @@
 Genuinely curious.</t>
   </si>
   <si>
-    <t>I finally finished a manuscript I had been working on for months (side project with courses and lab duties) and just found out it got rejected without review. It feels like such a waste because it was a specialized article tailored to that journal (kind of review, kind of opinion, kind of guidance?) 
-Based on the feedback it sounds like the manuscript was barely read, which I get is normal, but I disagree with the reason why it was rejected-and I feel like had it been read through, it would have been clear I met the requirement stated. 
-This wasn’t “rewrite and submit” type feedback. I was redirected to a different journal, but of course requirements for submission to that journal are also incredibly vague and I don’t even know if my manuscript fits requirements for the other journal. 
-I feel like I just wasted a ton of time and I’m frustrated because this information is super important to my field and not known/understood by very many in it. I was in this field before starting my PhD and I can’t tell you how badly I wished I had known this stuff then.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She hated it so much that she convinced me to rewrite it and change it to something completely different. 
-It also caused me to put a temporary hold on the book for over four years. 
-I picked it back up and “finished” it in August. 
-Since then, 15 beta readers have all offered their feedback including a suggestion for the ending which is almost identical to what I had originally written. 
-This makes me mad because I lost so much time on this manuscript. And because I look like a moron now for not having written the ending people wanted. </t>
-  </si>
-  <si>
-    <t>At least that's what I think this person does, looking at their gallery. They state that they work with stock photos and AI, and yet all the covers look like old-fashioned cover illustrations, similar to the 1970's and 80's.
-I know there's a lot of controversy around AI, but do people still blow up over it if it doesn't draw the image itself, but just alters it?</t>
-  </si>
-  <si>
-    <t>im going to start painting again after a couple years off. I want to get into portraits and realistic style work. for now i will be using acrylic.
-I have read online that sets are usually lower quality. now that im in a position to buy better quality supplies, i was hoping reddit could help put together of a good base kit to get started with portrait painting. any suggestions appreciated.  thank you</t>
-  </si>
-  <si>
-    <t>Two pieces I wrote for solo piano.
-[This](https://musescore.com/reckless150681/luna) is a nocturne in Db, and [this](https://musescore.com/reckless150681/le-feu-de-lamour-habanera) is a habanera primarily in Am.</t>
+    <t>I've ended up with a ton of hand-me-down art supplies over the years. Tonight, I used up the last of a product I've really come to love. It's a plastic vellum/tracing paper/diffusion/I-don't-know-what made by a company called Keuffel and Esser. Wikipedia says they supplied drafting materials up to the 1980s. This stuff is 100% opaque white from a distance. Lay it on top of something and it's almost perfectly clear. Once side is high gloss, the other is a very toothy satin. When you draw on the satin side with pencil, it's the most smudge-resistant surface I've ever drawn on *for pencil*. If you put a pen to it, the ink never dries properly and smears everywhere. It cuts like an absolute dream without any hint of grain or catch but at the same time it's pretty tear resistant. It came on a roll. It erases **fantastically well**. 
+Does anyone have any idea what this product was called, what a modern equivalent would be, and where I can buy some?</t>
+  </si>
+  <si>
+    <t>Okay, I’m dumbfounded so I really hope someone can help. I just got a Huion GT-191, it’s good but I have 2 screens set as “extended” and I need to use the mouse occasionally as well. 
+Whenever the Huion is on only the pen works, and *only* on the Huion display. I’m a modeler and ideally want to be able to work mainly with the mouse and drag programs to the Huion to do texture work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title basically says it. The beta reader I hired described my work as "speculative historical fiction", which I think fits it well. But I'm worried this sounds too niche to pitch. The setting is a fantasy world, with a made up map and some elements that are unreal (tame boars that people ride, made up cultures and languages). However there's no mythical creatures, magic or other fantasy elements.
+What do you guys think?
+Also, I'm struggling to find a comp title, so if this sounds like anything you've read or heard of, let me know! </t>
+  </si>
+  <si>
+    <t>Got GBS in '19 and still can't skate so I make these to try and keep the madness and sadness at bay. Hope you like</t>
   </si>
   <si>
     <t>I'm such a perfectionist, and even though I'm fully aware that my first drafts won't be seen by anyone, I have a hard time with not editing while I'm writing; it stifles my creativity and when I write something I know no one will *ever* read, the words flow like crazy (I write some pieces of fan-fic like stuff for myself, and recently I wrote something with like 100k+ words in a month or two.) But with the knowledge that it will *eventually* be seen by people, I struggle with 1-2k words per day.
 Any advice on how to leave the editor at the door?</t>
   </si>
   <si>
-    <t>I got my first publication deal and the book will come out next year. The manuscript is the darkest nordic noir -style I’ve ever been able to put to paper. Everything that starts out badly will turn worse and there’s no glimmer of hope anywhere. My editor, whose been a professional for three decades says that he cannot remember anything as nihilistic and depressing that could actually happen IRL.
-Now I’ve started to have some doubts. There is already so much pain and suffering in the world, should I really add thoughts that some people have not been thinking about before? Should I offer the readers with the role models, who definetely should not be models of anything. There is no single character that I would like to meet in my own life, which, according to my editor, makes it an interesting read.
-I think my biggest fears are that either someone will start to think that they are allowed to act the ways I’ve described or that someone already melancholic will fall deeper into depression.
-What do you think about authors responsibility about their stories and the effects on people?</t>
-  </si>
-  <si>
-    <t>Getting pretty tired of people asking for AI prompt keywords</t>
-  </si>
-  <si>
-    <t>I'm writing historical fantasy and I'm noticing more and more historical jargon in my writing, stuff which makes total sense to me but which might be gibberish to a lay person. I describe characters as wearing "gambeson," "brigandine" and "hose." The jargon works with the verisimilitude of the story so I want to keep it. 
-I'm pretty torn about how to address this. I can't exactly expect folks to stop reading to google what a word means.
-My ideas on how to address it are:
-1. Use footnotes to explain what something is. I've seen this work in 'Flashman.'
-2. Try to explain what something is within the prose of the story.
-3. Let the reader figure it out for themselves, a.k.a the GRRM approach
-I'm kinda worried about implementing the first one since, whilst its certainly the most streamlined way to explain it, it might make the jargon stand out.
-The second one feels like the most natural way to explain what something is, but at that point I can't help but wonder if explaining what brigandine is really matters to the story.
-The third approach feels like it could confuse people since I shouldn't expect people to know the same historical factoids as me, but I also just finished "A Clash of Kings" like three hours ago and I think 'destrier' might be that guy's favourite word. I had no idea what exactly destrier was when I read it, but I could tell it was a horse so maybe it doesn't matter?</t>
+    <t>I live in the US. Looking for some good oil painting brushes that I can buy at my local store. I have Michael’s and Blick nearby.
+I have heard a great deal about rosemary and co brushes but don’t want to order online without seeing a brush. Any recommendations?</t>
+  </si>
+  <si>
+    <t>Wondering if I should just get 60/80000 words down and stop worrying about plot holes or up in the air questions until I at least have the jist fully written out.</t>
+  </si>
+  <si>
+    <t>I'm taking part in a week-long composition course from Monday, and if the mods don't object I'd like to post a daily update, summarising what we did, what I learned, and uploading the work-in-progress at the end of each day, for opinion and feedback, and so people can see a composition being developed and then hear the final version played at the end of the week by properly alive human musician people.
+We were asked to start writing a composition prior to the course, but obviously only take it so far, so I've been doing 'research' for the last few months, looking at scores, exploring compositional techniques and letting the piece stew for a bit; my perspective on it has already changed quite a lot, and it also means I'm not as emotionally attached to it as I was when it was fresh, so it'll be easier to make big changes to it.
+[This is what I have so far](https://www.youtube.com/watch?v=kabCR38PUdA) - part 1 is pretty much all up for grabs, and will likely be the main focus of the week; I want to see how the musicians handle part 2 and what I can add to the score to bring it to life for them; part 3 will probably get drastically cut down; and part 4 needs some big orchestration. Finishing a piece is the hardest part for me so I'm hoping the tutors don't think this is already too developed e.g. part 2.
+It's based on an 11-note altered scale melody, kind of a little wiggle followed by a whole tone run. The full melody is heard in part 4, but most of the rest of the piece is built from fragments of it, which should give it both some diversity and coherence, and has stopped me just doing the same old stuff that my ear likes to hear. And there's a whole tone piano wash in there too which finds its way into other sections, even if it's just as the idea of an ascending run of notes or re-using the rhythm.
+It's mainly Zappa-influenced, even if it doesn't sound like that, except for part 3 which is more Steve Reich and that's probably why it doesn't quite fit. I'm planning on minimal sleep for the week so should be able to put  a lot of work into it. :)</t>
+  </si>
+  <si>
+    <t>I have a client who I get a lot of work from. They are by far the primary source of my income. The problem is that they ALWAYS pay late. Sometimes they'll just not pay me for an entire month. I always get the money eventually, but this is messing up my cash flow. I'm wondering how you folks deal with situations like this. Do you withhold services? Charge late payment fees? Or do you just break up with the client and move onto someone more reliable?</t>
+  </si>
+  <si>
+    <t>I’m seeking help or suggestions on finding a market.. or ideally someone else who can handle marketing directly. I prefer to just MAKE the Art.. but I would obviously love to get payed to do so. I just don’t have much interest in marketing myself. Anyone out there interested in selling my art? Prints and/or originals.. we could discuss a wholesale price for prints which you could then sell for a higher price to your market. Or we can discuss a commission percentage for selling originals. 
+Let me know if you’re interested and my work is something you see as marketable. 
+Thanks all! 
+-Dave Sinor</t>
+  </si>
+  <si>
+    <t>I’ve heard this a few times that you should have a designated space in which to write. Unfortunately this isn’t easy for me now that my only spare room is now reserved for working from home so it’s associated with work rather than creativity. How important is it to have a creative space, or can you write from wherever you happen to be?</t>
+  </si>
+  <si>
+    <t>&amp;#x200B;
+https://preview.redd.it/ka04wvmxo0y21.png?width=899&amp;format=png&amp;auto=webp&amp;s=2eae38a751c6923328c591c3dc67d1ed88ebbde0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XIHRfSu-k5g
+I originally wrote this for the Scoretober we had around here. I recently took another look at it and revised it a bit (and vastly improved the rendering of it).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've got a novel all blocked out, ready to start. But I just realized it fails the Bechdel test, and even worse, the antagonists are ALL women.
+On the one hand, I want to be progressive and do what I can to free society from the passive misogyny imposed upon half of our population since the beginning of mankind. On the other, I just want to write my story, dammit. 
+This story, its plot and characters have an existence cemented in my head, and I want to put it on paper the same way. In light of another thread related to this topic regarding the "strong female character," I feel sometimes writers go out of their way to impose Bechdel parameters on a reader to the extent that it has been overdone, almost cliché at this point. The story would be exactly the same if the genders of all characters were flipped, except it might be off-putting to some folks, since they might seem unnatural, with character traits shoehorned into these roles simply in an effort to appear Bechdel-compliant. It's like a betrayal of our natural proclivities as women and men, and inauthentic. And I don't like it.
+What say you?
+</t>
+  </si>
+  <si>
+    <t>Hi, so basically I wrote a book over the summer and didn't touch it for a couple months in college, partly because I lacked motivation/time to write it. Now, my workload has decreased a bit and I got really into writing it this weekend. Ended up changing a bit of the plot towards the end (hopefully for the better lol). I've felt guilty for spending time writing it, because I'll admit I am kinda attached to the characters. I even skipped a social event to write it and I don't know how to feel. 
+Does anyone else write because they're lonely?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearly finished. May do some last tweaks and then she needs a varnish. </t>
+  </si>
+  <si>
+    <t>Played guitar covers for 35 years and it was fun. Last year I created a group and again it was fun but it went nowhere creatively. Everyone basically playing the same chords in a song. And of course i ran into egos where certain people wanted to dominate everything. I got tired and moved on. Then i busked my own music which was a blast, but then it got too cold to play outdoors.  
+This year I took 36 music theory lessons with an accomplished jazz guitarist here in NYC. My mind was blown, realizing what I did not know all this time. My challenge is this: all my olds music friends still play covers or very simple, chord-driven originals. I get no enjoyment out of this anymore. Im far more interested in chord construction, harmonic relationships, writing melodies, and trying to develop my own technique. However, Im not ready to play with good jazz musicians yet because their vocabulary is over my head for the time being. So I feel like im in a state of limbo. Im learning a ton but I work in a vacuum.  
+I really miss playing in the studio and with a group.  I suppose I could try to start a jazz trio with other people who are at the same level, but its really hard to find. Anyone else ever in this boat?</t>
+  </si>
+  <si>
+    <t>I’ve  been kicking around some ideas for a sequel to the first draft of my WIP I just finished. I was laying there and it just hit me. Couldn’t wait to get back to the car so I  could write down the ideas. The thought did occur to me to ask the hygienist if she could stop for a minute 😂</t>
+  </si>
+  <si>
+    <t>If so maybe share this info...
+* How long have you been writing? If published,  where can we find your work? 
+* Where does your writing fit with the horror genre?
+* What're 2-3 books you wish you could have written?
+* Are you a part of a writing group or are you looking for beta readers?</t>
+  </si>
+  <si>
+    <t>Feel free to critique the piece.</t>
   </si>
   <si>
     <t>I consider my knowledge of craft pretty good but this one has me stumped.
@@ -627,18 +732,8 @@
 Am I missing something or are people reinventing the wheel?</t>
   </si>
   <si>
-    <t>I have a client who I get a lot of work from. They are by far the primary source of my income. The problem is that they ALWAYS pay late. Sometimes they'll just not pay me for an entire month. I always get the money eventually, but this is messing up my cash flow. I'm wondering how you folks deal with situations like this. Do you withhold services? Charge late payment fees? Or do you just break up with the client and move onto someone more reliable?</t>
-  </si>
-  <si>
-    <t>If so maybe share this info...
-* How long have you been writing? If published,  where can we find your work? 
-* Where does your writing fit with the horror genre?
-* What're 2-3 books you wish you could have written?
-* Are you a part of a writing group or are you looking for beta readers?</t>
-  </si>
-  <si>
-    <t>I've ended up with a ton of hand-me-down art supplies over the years. Tonight, I used up the last of a product I've really come to love. It's a plastic vellum/tracing paper/diffusion/I-don't-know-what made by a company called Keuffel and Esser. Wikipedia says they supplied drafting materials up to the 1980s. This stuff is 100% opaque white from a distance. Lay it on top of something and it's almost perfectly clear. Once side is high gloss, the other is a very toothy satin. When you draw on the satin side with pencil, it's the most smudge-resistant surface I've ever drawn on *for pencil*. If you put a pen to it, the ink never dries properly and smears everywhere. It cuts like an absolute dream without any hint of grain or catch but at the same time it's pretty tear resistant. It came on a roll. It erases **fantastically well**. 
-Does anyone have any idea what this product was called, what a modern equivalent would be, and where I can buy some?</t>
+    <t>Obviously you have to challenge your character(s) in one way or another. I can't speak for every writer, but I tend to grow attached to a lot of mine and feel bad when I'm really pushing them through the figurative woodchopper.
+So occasionally, when they're really in a bad spot, or suffering like crazy, I'll take a short break and write a little blurb where everything is okay, they're doing wonderful, nobody's dying, etc. For instance, in the fantasy piece I'm working on now my MC is really taking a physical and mental beating. So I wrote a little side bit where everything worked out and he's happy with the world for a change. It made me feel a lot more at ease going forward for some reason.</t>
   </si>
   <si>
     <t>Before I start this post, I need to give context.
@@ -683,7 +778,12 @@
 &amp;#x200B;</t>
   </si>
   <si>
-    <t>I have had success creating novels using both outlines and just writing with the ideas in my head. What works best for you?</t>
+    <t>I'm putting some final touches on my document to submit to our graduate school and see information about Copyright.  However, I don't see a lot of past dissertations I've read include a Copyright page - which leads me to assume they didn't Copyright their document. 
+Is this something worth doing?  Anyone have a guide on how to complete this?</t>
+  </si>
+  <si>
+    <t>I just discovered that you can get really cheap canvas prints of famous paintings on AliExpress.  Some are less than $5.  Customer reviews are pretty good.
+But, how do I frame them?  I can't find any info on the site.  What do I do with just a piece of canvas?  I would like a very simple modern frame.</t>
   </si>
   <si>
     <t>Hey, just started physical/digital painting again and I wanted to ask the community where does everyone post their art online?
@@ -692,94 +792,10 @@
 Are DeviantArt/Pinterest still relevant? Any new platform that I don't know about?</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=XIHRfSu-k5g
-I originally wrote this for the Scoretober we had around here. I recently took another look at it and revised it a bit (and vastly improved the rendering of it).</t>
-  </si>
-  <si>
-    <t>Hypothetically if one were working on a 3 movement suite for symphonic orchestra and wanted a light and dainty oboe solo over aggressive backgrounds in the low instruments. Maybe even go as far as having the 1st viola play a counter melody. How would one go about this??</t>
-  </si>
-  <si>
-    <t>Hey guys!  Do any of you have any good book recommendations on composition?  Or maybe any recommendations of scores that you've enjoyed analyzing?  Thanks!</t>
-  </si>
-  <si>
-    <t>I'm putting some final touches on my document to submit to our graduate school and see information about Copyright.  However, I don't see a lot of past dissertations I've read include a Copyright page - which leads me to assume they didn't Copyright their document. 
-Is this something worth doing?  Anyone have a guide on how to complete this?</t>
-  </si>
-  <si>
-    <t>I’ve heard this a few times that you should have a designated space in which to write. Unfortunately this isn’t easy for me now that my only spare room is now reserved for working from home so it’s associated with work rather than creativity. How important is it to have a creative space, or can you write from wherever you happen to be?</t>
-  </si>
-  <si>
-    <t>I just discovered that you can get really cheap canvas prints of famous paintings on AliExpress.  Some are less than $5.  Customer reviews are pretty good.
-But, how do I frame them?  I can't find any info on the site.  What do I do with just a piece of canvas?  I would like a very simple modern frame.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I came back to uni (UK) as a mature student to do a Masters and ended up completing a PhD in Data Science. It was a 'non-typical' programme format and Covid made it very much a 'desk research' project, but I thought I'd share some thoughts:
-**Uncertainty:** The lack of clarity about various things was the main source of stress for me over the years. Until they told me i'd passed with minor corrections in my viva I was honestly unsure if anything i'd done was good enough. My supervisors weren't experts in the field or methods and gave me only limited reassurance. I would strongly advise trying to get external feedback on what you're doing. Getting published is obviously the peak version of this (just submitting for publication is helpful though), but there are  also conferences or just approaching other experts in your field. Anything to get someone to validate that what you're doing is ok will reduce stress for you and hopefully reduce the amount of things you need to fix after your viva. 
-**Workload:** If i'm honest, the amount of time that I needed to spend on my core PhD activities (reading, conducting research, analysis writing etc) wasn't that much. Maybe 25-30 hours a week. The rest of what I did was optional - graduate teaching (which I strongly recommend), organising and presenting at events, additional training, conferences etc. If you find that you don't have enough time to do everything and are getting stressed then ask yourself what is actually necessary for your PhD - ignore your supervisors if you have to. No one is going to throw you out of uni for not doing all the random shit they suggest. Have the courage to say no and prioritise your actual work. Despite what I put above, I didn't actually have anything published. 
-**'Bad Spells':** I had a number of periods where I was questioning everything - Is this really going to work out? Do I have the proper experience to complete this? Are they going to find out that i'm a fraud and I don't actually know what i'm doing? Ultimately though I found out that I was imagining much higher standards than was actually expected. There were also times where I would go an entire week of just sitting at a screen and not typing a word. The only thing that would kick me out of this was meetings with supervisors and other deadlines that forced me to get things done. I personally found it better to keep busy rather than obsesses over my mental health. 'Resting' was the worst thing I could do - It was much better to create some kind of event (agreeing to present work to people etc) and get back working. </t>
-  </si>
-  <si>
-    <t>Obviously you have to challenge your character(s) in one way or another. I can't speak for every writer, but I tend to grow attached to a lot of mine and feel bad when I'm really pushing them through the figurative woodchopper.
-So occasionally, when they're really in a bad spot, or suffering like crazy, I'll take a short break and write a little blurb where everything is okay, they're doing wonderful, nobody's dying, etc. For instance, in the fantasy piece I'm working on now my MC is really taking a physical and mental beating. So I wrote a little side bit where everything worked out and he's happy with the world for a change. It made me feel a lot more at ease going forward for some reason.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearly finished. May do some last tweaks and then she needs a varnish. </t>
-  </si>
-  <si>
-    <t>I’ve been reading a lot about short stories, and this idea keeps coming up: harmony of part to whole. 
-I’m wondering how to achieve this, practically. Can anyone point out specific examples? Has anyone else spent too much time thinking about this? What are your thoughts?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I've got a novel all blocked out, ready to start. But I just realized it fails the Bechdel test, and even worse, the antagonists are ALL women.
-On the one hand, I want to be progressive and do what I can to free society from the passive misogyny imposed upon half of our population since the beginning of mankind. On the other, I just want to write my story, dammit. 
-This story, its plot and characters have an existence cemented in my head, and I want to put it on paper the same way. In light of another thread related to this topic regarding the "strong female character," I feel sometimes writers go out of their way to impose Bechdel parameters on a reader to the extent that it has been overdone, almost cliché at this point. The story would be exactly the same if the genders of all characters were flipped, except it might be off-putting to some folks, since they might seem unnatural, with character traits shoehorned into these roles simply in an effort to appear Bechdel-compliant. It's like a betrayal of our natural proclivities as women and men, and inauthentic. And I don't like it.
-What say you?
-</t>
-  </si>
-  <si>
-    <t>In The Lord of the Rings, after the ring is destroyed, Frodo and Sam are rescued by eagles. This is a clear case of deus ex machina but in the context of the story it works. What do you reckon makes the difference between a good and bad use of this trope?</t>
-  </si>
-  <si>
-    <t>I'm trying to get started in freelance writing by using Upwork and other such sites.  While I have always written, I have never been an independent writer so I don't have a portfolio of work that I can post in my profile.
-I'm more than willing to sit down and write a few pieces to serve as examples, but when I sit down to do so I end up staring at the blinking cursor at the top of the page. 
-When I just "free-write" for myself it's usually just ranting, not anything anyone would want to read. I need a few good prompts in subject matters that the content buyers will want to see in a portfolio. 
-Does anyone have any suggestions of topics for me to write about for my portfolio?</t>
-  </si>
-  <si>
-    <t>I live in the US. Looking for some good oil painting brushes that I can buy at my local store. I have Michael’s and Blick nearby.
-I have heard a great deal about rosemary and co brushes but don’t want to order online without seeing a brush. Any recommendations?</t>
-  </si>
-  <si>
-    <t>Hey everyone, I'm just starting to hear back from colleges for music and have been invited to interview at a few places for a BM in music composition. I'll start with what sounds like the hardest place from what they've stated for me: Juilliard. First there is a 3 hour test for all composition students and then 5 interviews, which I'm assuming are just with the different faculty.
-Is there something that I should be focusing on specifically for the test and the interviews? Or are these tests more of a placement type thing rather than something that affects admission?</t>
-  </si>
-  <si>
-    <t>Seems de rigueur to talk about building 'systems' to improve or achieve goals. I'm wondering if anyone has used some kind of structured approach to improve as a writer? 
-e.g. working from a text book on sentence structure for 30 minutes, 30 minutes of free writing, working through feedback from peers etc.</t>
-  </si>
-  <si>
-    <t>I’m seeking help or suggestions on finding a market.. or ideally someone else who can handle marketing directly. I prefer to just MAKE the Art.. but I would obviously love to get payed to do so. I just don’t have much interest in marketing myself. Anyone out there interested in selling my art? Prints and/or originals.. we could discuss a wholesale price for prints which you could then sell for a higher price to your market. Or we can discuss a commission percentage for selling originals. 
-Let me know if you’re interested and my work is something you see as marketable. 
-Thanks all! 
--Dave Sinor</t>
-  </si>
-  <si>
-    <t>I'm taking part in a week-long composition course from Monday, and if the mods don't object I'd like to post a daily update, summarising what we did, what I learned, and uploading the work-in-progress at the end of each day, for opinion and feedback, and so people can see a composition being developed and then hear the final version played at the end of the week by properly alive human musician people.
-We were asked to start writing a composition prior to the course, but obviously only take it so far, so I've been doing 'research' for the last few months, looking at scores, exploring compositional techniques and letting the piece stew for a bit; my perspective on it has already changed quite a lot, and it also means I'm not as emotionally attached to it as I was when it was fresh, so it'll be easier to make big changes to it.
-[This is what I have so far](https://www.youtube.com/watch?v=kabCR38PUdA) - part 1 is pretty much all up for grabs, and will likely be the main focus of the week; I want to see how the musicians handle part 2 and what I can add to the score to bring it to life for them; part 3 will probably get drastically cut down; and part 4 needs some big orchestration. Finishing a piece is the hardest part for me so I'm hoping the tutors don't think this is already too developed e.g. part 2.
-It's based on an 11-note altered scale melody, kind of a little wiggle followed by a whole tone run. The full melody is heard in part 4, but most of the rest of the piece is built from fragments of it, which should give it both some diversity and coherence, and has stopped me just doing the same old stuff that my ear likes to hear. And there's a whole tone piano wash in there too which finds its way into other sections, even if it's just as the idea of an ascending run of notes or re-using the rhythm.
-It's mainly Zappa-influenced, even if it doesn't sound like that, except for part 3 which is more Steve Reich and that's probably why it doesn't quite fit. I'm planning on minimal sleep for the week so should be able to put  a lot of work into it. :)</t>
-  </si>
-  <si>
-    <t>I'm currently writing my cheesy overplayed dystopian teen hero book write now and at moments I can't help but think wow this really sucks, but keep going. Just get it all out finish the book and work on fixing it later. 
-If along the way you realize that it's not fixable that's ok, start something else but for the rest of you keep going, don't think wow this cheesy love-hate book I'm writing is horrible and give up, accept that it's horrible and keep going finish it and work on fixing it once the hard part is over</t>
-  </si>
-  <si>
-    <t>&amp;#x200B;
-https://preview.redd.it/ka04wvmxo0y21.png?width=899&amp;format=png&amp;auto=webp&amp;s=2eae38a751c6923328c591c3dc67d1ed88ebbde0</t>
-  </si>
-  <si>
-    <t>If something you make turns out looking cool out of chance and chaos, does it still count as good/real art?</t>
+    <t>I finally finished a manuscript I had been working on for months (side project with courses and lab duties) and just found out it got rejected without review. It feels like such a waste because it was a specialized article tailored to that journal (kind of review, kind of opinion, kind of guidance?) 
+Based on the feedback it sounds like the manuscript was barely read, which I get is normal, but I disagree with the reason why it was rejected-and I feel like had it been read through, it would have been clear I met the requirement stated. 
+This wasn’t “rewrite and submit” type feedback. I was redirected to a different journal, but of course requirements for submission to that journal are also incredibly vague and I don’t even know if my manuscript fits requirements for the other journal. 
+I feel like I just wasted a ton of time and I’m frustrated because this information is super important to my field and not known/understood by very many in it. I was in this field before starting my PhD and I can’t tell you how badly I wished I had known this stuff then.</t>
   </si>
   <si>
     <t>I mean I'm tired of this narrative. I think it's actually destructive. I think what's happening is that  a lot of artists tend to be very imaginative and eccentric in that sense, and therefore some of them may get into drugs or other vices to sort of numb that down, this usually happens early on I find. But for people like Van Gogh, he was mentally ill and struggling all the time, and he made art in spite of that fact in my opinion.
@@ -791,10 +807,169 @@
 Thoughts?</t>
   </si>
   <si>
-    <t>Got GBS in '19 and still can't skate so I make these to try and keep the madness and sadness at bay. Hope you like</t>
-  </si>
-  <si>
-    <t>From the Japanese writer’s point of view, “writing a long novel is like survival training. Physical strength is as necessary as artistic sensitivity,” spending his days running and swimming to build up his endurance, as well as competing in marathons and triathlons.
+    <t>I got my first publication deal and the book will come out next year. The manuscript is the darkest nordic noir -style I’ve ever been able to put to paper. Everything that starts out badly will turn worse and there’s no glimmer of hope anywhere. My editor, whose been a professional for three decades says that he cannot remember anything as nihilistic and depressing that could actually happen IRL.
+Now I’ve started to have some doubts. There is already so much pain and suffering in the world, should I really add thoughts that some people have not been thinking about before? Should I offer the readers with the role models, who definetely should not be models of anything. There is no single character that I would like to meet in my own life, which, according to my editor, makes it an interesting read.
+I think my biggest fears are that either someone will start to think that they are allowed to act the ways I’ve described or that someone already melancholic will fall deeper into depression.
+What do you think about authors responsibility about their stories and the effects on people?</t>
+  </si>
+  <si>
+    <t>I know Mendeley/Zotero/etc are good tools, but they all lack the capability of capturing my flawless handwriting. With the uprising era of iPad/convertible/tables etc, wouldn't it be great if there exist something like that?
+~~kickstarter intensify~~</t>
+  </si>
+  <si>
+    <t>Hypothetically if one were working on a 3 movement suite for symphonic orchestra and wanted a light and dainty oboe solo over aggressive backgrounds in the low instruments. Maybe even go as far as having the 1st viola play a counter melody. How would one go about this??</t>
+  </si>
+  <si>
+    <t>At least that's what I think this person does, looking at their gallery. They state that they work with stock photos and AI, and yet all the covers look like old-fashioned cover illustrations, similar to the 1970's and 80's.
+I know there's a lot of controversy around AI, but do people still blow up over it if it doesn't draw the image itself, but just alters it?</t>
+  </si>
+  <si>
+    <t>I'm writing historical fantasy and I'm noticing more and more historical jargon in my writing, stuff which makes total sense to me but which might be gibberish to a lay person. I describe characters as wearing "gambeson," "brigandine" and "hose." The jargon works with the verisimilitude of the story so I want to keep it. 
+I'm pretty torn about how to address this. I can't exactly expect folks to stop reading to google what a word means.
+My ideas on how to address it are:
+1. Use footnotes to explain what something is. I've seen this work in 'Flashman.'
+2. Try to explain what something is within the prose of the story.
+3. Let the reader figure it out for themselves, a.k.a the GRRM approach
+I'm kinda worried about implementing the first one since, whilst its certainly the most streamlined way to explain it, it might make the jargon stand out.
+The second one feels like the most natural way to explain what something is, but at that point I can't help but wonder if explaining what brigandine is really matters to the story.
+The third approach feels like it could confuse people since I shouldn't expect people to know the same historical factoids as me, but I also just finished "A Clash of Kings" like three hours ago and I think 'destrier' might be that guy's favourite word. I had no idea what exactly destrier was when I read it, but I could tell it was a horse so maybe it doesn't matter?</t>
+  </si>
+  <si>
+    <t>Regardless of what the writing is about, if you were reading a piece of writing, what will immediately stand out to you and turn you off reading it? What will always look bad on a piece of writing?</t>
+  </si>
+  <si>
+    <t>I’ve been reading a lot about short stories, and this idea keeps coming up: harmony of part to whole. 
+I’m wondering how to achieve this, practically. Can anyone point out specific examples? Has anyone else spent too much time thinking about this? What are your thoughts?</t>
+  </si>
+  <si>
+    <t>I'm currently writing my cheesy overplayed dystopian teen hero book write now and at moments I can't help but think wow this really sucks, but keep going. Just get it all out finish the book and work on fixing it later. 
+If along the way you realize that it's not fixable that's ok, start something else but for the rest of you keep going, don't think wow this cheesy love-hate book I'm writing is horrible and give up, accept that it's horrible and keep going finish it and work on fixing it once the hard part is over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I came back to uni (UK) as a mature student to do a Masters and ended up completing a PhD in Data Science. It was a 'non-typical' programme format and Covid made it very much a 'desk research' project, but I thought I'd share some thoughts:
+**Uncertainty:** The lack of clarity about various things was the main source of stress for me over the years. Until they told me i'd passed with minor corrections in my viva I was honestly unsure if anything i'd done was good enough. My supervisors weren't experts in the field or methods and gave me only limited reassurance. I would strongly advise trying to get external feedback on what you're doing. Getting published is obviously the peak version of this (just submitting for publication is helpful though), but there are  also conferences or just approaching other experts in your field. Anything to get someone to validate that what you're doing is ok will reduce stress for you and hopefully reduce the amount of things you need to fix after your viva. 
+**Workload:** If i'm honest, the amount of time that I needed to spend on my core PhD activities (reading, conducting research, analysis writing etc) wasn't that much. Maybe 25-30 hours a week. The rest of what I did was optional - graduate teaching (which I strongly recommend), organising and presenting at events, additional training, conferences etc. If you find that you don't have enough time to do everything and are getting stressed then ask yourself what is actually necessary for your PhD - ignore your supervisors if you have to. No one is going to throw you out of uni for not doing all the random shit they suggest. Have the courage to say no and prioritise your actual work. Despite what I put above, I didn't actually have anything published. 
+**'Bad Spells':** I had a number of periods where I was questioning everything - Is this really going to work out? Do I have the proper experience to complete this? Are they going to find out that i'm a fraud and I don't actually know what i'm doing? Ultimately though I found out that I was imagining much higher standards than was actually expected. There were also times where I would go an entire week of just sitting at a screen and not typing a word. The only thing that would kick me out of this was meetings with supervisors and other deadlines that forced me to get things done. I personally found it better to keep busy rather than obsesses over my mental health. 'Resting' was the worst thing I could do - It was much better to create some kind of event (agreeing to present work to people etc) and get back working. </t>
+  </si>
+  <si>
+    <t>I have had success creating novels using both outlines and just writing with the ideas in my head. What works best for you?</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Self (Complete)</t>
+  </si>
+  <si>
+    <t>question?</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>critique ok!</t>
+  </si>
+  <si>
+    <t>Dissertation</t>
+  </si>
+  <si>
+    <t>Social media, commissions, business</t>
+  </si>
+  <si>
+    <t>Vent</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Illustration</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>composer</t>
+  </si>
+  <si>
+    <t>ArtistLounge</t>
+  </si>
+  <si>
+    <t>Watercolor</t>
+  </si>
+  <si>
+    <t>arttools</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>freelanceWriters</t>
+  </si>
+  <si>
+    <t>writers</t>
+  </si>
+  <si>
+    <t>Sculpture</t>
+  </si>
+  <si>
+    <t>oilpainting</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Petition to ban posts asking "what is the name of this style," or make it a weekly mega thread (Unrelated art by utagawa kuniyoshi) Getting pretty tired of people asking for AI prompt keywords</t>
+  </si>
+  <si>
+    <t>Deus ex Machina. It's usually bad, but sometimes it works. What makes it work? In The Lord of the Rings, after the ring is destroyed, Frodo and Sam are rescued by eagles. This is a clear case of deus ex machina but in the context of the story it works. What do you reckon makes the difference between a good and bad use of this trope?</t>
+  </si>
+  <si>
+    <t>Does anyone have a system for becoming a better writer? Seems de rigueur to talk about building 'systems' to improve or achieve goals. I'm wondering if anyone has used some kind of structured approach to improve as a writer? 
+e.g. working from a text book on sentence structure for 30 minutes, 30 minutes of free writing, working through feedback from peers etc.</t>
+  </si>
+  <si>
+    <t>[Discussion] College Interviews Hey everyone, I'm just starting to hear back from colleges for music and have been invited to interview at a few places for a BM in music composition. I'll start with what sounds like the hardest place from what they've stated for me: Juilliard. First there is a 3 hour test for all composition students and then 5 interviews, which I'm assuming are just with the different faculty.
+Is there something that I should be focusing on specifically for the test and the interviews? Or are these tests more of a placement type thing rather than something that affects admission?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My editor hated the ending of my WIP She hated it so much that she convinced me to rewrite it and change it to something completely different. 
+It also caused me to put a temporary hold on the book for over four years. 
+I picked it back up and “finished” it in August. 
+Since then, 15 beta readers have all offered their feedback including a suggestion for the ending which is almost identical to what I had originally written. 
+This makes me mad because I lost so much time on this manuscript. And because I look like a moron now for not having written the ending people wanted. </t>
+  </si>
+  <si>
+    <t>How to start making/selling prints of my artwork? I have been doing commissions for people for about two years and it has become my part time highschool job. I do mostly animal/pet portraits. However, I’m really wanting to start creating prints of some of my original animal artworks and selling them online for a little extra income before college. 
+My problem is that I don’t know where to start. I have an art website, and Instagram, a decent base of clientele, photoshop, a small 8.5x11 scanner that will work for my smaller pieces, and a whole lot of extra time now in quarantine. I just don’t know the best sites to advertise prints, how to produce high quality ones, or where to even begin with pricing. I’m also not sure what to do with my larger works that won’t fit on my own scanner. I would really appreciate any advice you guys may have for someone wanting to start out!</t>
+  </si>
+  <si>
+    <t>With a full heart, son (10) asked me to paint his photo. Took my boy golfing at one our favorite spots. Building memories with what comes of life friends. Keep em coming. Love your work!</t>
+  </si>
+  <si>
+    <t>help putting a set of brushes together im going to start painting again after a couple years off. I want to get into portraits and realistic style work. for now i will be using acrylic.
+I have read online that sets are usually lower quality. now that im in a position to buy better quality supplies, i was hoping reddit could help put together of a good base kit to get started with portrait painting. any suggestions appreciated.  thank you</t>
+  </si>
+  <si>
+    <t>Two piano pieces Two pieces I wrote for solo piano.
+[This](https://musescore.com/reckless150681/luna) is a nocturne in Db, and [this](https://musescore.com/reckless150681/le-feu-de-lamour-habanera) is a habanera primarily in Am.</t>
+  </si>
+  <si>
+    <t>A look at Japanese author Haruki Murakami's daily writing routine: "The repetition itself becomes the important thing; it’s a form of mesmerism. I mesmerize myself to reach a deeper state of mind." From the Japanese writer’s point of view, “writing a long novel is like survival training. Physical strength is as necessary as artistic sensitivity,” spending his days running and swimming to build up his endurance, as well as competing in marathons and triathlons.
 At the start of his writing career, Murakami also ran a small jazz club in Tokyo, where he worked until the early hours of the morning, before going home to write.
 After he decided to commit his life entirely to writing, Murakami and his wife, Yoko, closed the bar and moved out to Narashino, a more rural area in the Chiba prefecture of Tokyo.
 From there, the writer overhauled his lifestyle and daily routine completely, “once I was sitting at a desk writing all day I started putting on the pounds. I was also smoking too much—sixty cigarettes a day. My fingers were yellow, and my body reeked of smoke. This couldn’t be good for me, I decided. If I wanted to have a long life as a novelist, I needed to find a way to stay in shape.”
@@ -805,132 +980,25 @@
 To read the full daily routine, check it out here: [https://www.balancethegrind.com.au/daily-routines/haruki-murakami-daily-routine/](https://www.balancethegrind.com.au/daily-routines/haruki-murakami-daily-routine/)</t>
   </si>
   <si>
-    <t>Feel free to critique the piece.</t>
-  </si>
-  <si>
-    <t>Regardless of what the writing is about, if you were reading a piece of writing, what will immediately stand out to you and turn you off reading it? What will always look bad on a piece of writing?</t>
-  </si>
-  <si>
-    <t>I opened up my commissions on my Instagram account last week and just got my first request! I’m nervous! Before receiving a request I was worried that nobody would want to buy commissions from me but now that I’ve got one, I’m super nervous! I don’t want to let them down. 
+    <t>I got my first commission request, I’m nervous! I opened up my commissions on my Instagram account last week and just got my first request! I’m nervous! Before receiving a request I was worried that nobody would want to buy commissions from me but now that I’ve got one, I’m super nervous! I don’t want to let them down. 
 Anyone else nervous before their first commission? What did you do to quell the anxiety? Am I overthinking it too much? Lol. 
 I’d love to hear your thoughts on this!</t>
   </si>
   <si>
-    <t>My story has two supporting characters, Cal and Riel, whose platonic affection for each other is important to the story.  Riel fled their home to escape his extremist family, and Cal came with him to a new country to help him.  Part of my story hinges on my narrator Meg realizing that Riel will remain loyal to Cal even if Cal kills the king they swore to serve, meaning that Cal's the only person who can lead a military coup and be successful.  It's thus important for the story to convey that they care deeply for each other.
+    <t>Good Book Recommendations on Composition? Hey guys!  Do any of you have any good book recommendations on composition?  Or maybe any recommendations of scores that you've enjoyed analyzing?  Thanks!</t>
+  </si>
+  <si>
+    <t>What pieces should be in my portfolio? I'm trying to get started in freelance writing by using Upwork and other such sites.  While I have always written, I have never been an independent writer so I don't have a portfolio of work that I can post in my profile.
+I'm more than willing to sit down and write a few pieces to serve as examples, but when I sit down to do so I end up staring at the blinking cursor at the top of the page. 
+When I just "free-write" for myself it's usually just ranting, not anything anyone would want to read. I need a few good prompts in subject matters that the content buyers will want to see in a portfolio. 
+Does anyone have any suggestions of topics for me to write about for my portfolio?</t>
+  </si>
+  <si>
+    <t>Is art you made by “accident” still good art? If something you make turns out looking cool out of chance and chaos, does it still count as good/real art?</t>
+  </si>
+  <si>
+    <t>How to write male best friends without implying romance My story has two supporting characters, Cal and Riel, whose platonic affection for each other is important to the story.  Riel fled their home to escape his extremist family, and Cal came with him to a new country to help him.  Part of my story hinges on my narrator Meg realizing that Riel will remain loyal to Cal even if Cal kills the king they swore to serve, meaning that Cal's the only person who can lead a military coup and be successful.  It's thus important for the story to convey that they care deeply for each other.
 However.  I don't want them to be romantically involved, and I don't see them as a couple.  But my writing group made comments about "shipping" them, and one expressed disappointment when Cal was flirting with Joan because she assumed Cal and Riel were already an item.  So.  How the fricklefrack do you write two men in a modern-but-fictional country caring deeply for each other, without it coming off as romantic?</t>
-  </si>
-  <si>
-    <t>I have been doing commissions for people for about two years and it has become my part time highschool job. I do mostly animal/pet portraits. However, I’m really wanting to start creating prints of some of my original animal artworks and selling them online for a little extra income before college. 
-My problem is that I don’t know where to start. I have an art website, and Instagram, a decent base of clientele, photoshop, a small 8.5x11 scanner that will work for my smaller pieces, and a whole lot of extra time now in quarantine. I just don’t know the best sites to advertise prints, how to produce high quality ones, or where to even begin with pricing. I’m also not sure what to do with my larger works that won’t fit on my own scanner. I would really appreciate any advice you guys may have for someone wanting to start out!</t>
-  </si>
-  <si>
-    <t>Okay, I’m dumbfounded so I really hope someone can help. I just got a Huion GT-191, it’s good but I have 2 screens set as “extended” and I need to use the mouse occasionally as well. 
-Whenever the Huion is on only the pen works, and *only* on the Huion display. I’m a modeler and ideally want to be able to work mainly with the mouse and drag programs to the Huion to do texture work.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title basically says it. The beta reader I hired described my work as "speculative historical fiction", which I think fits it well. But I'm worried this sounds too niche to pitch. The setting is a fantasy world, with a made up map and some elements that are unreal (tame boars that people ride, made up cultures and languages). However there's no mythical creatures, magic or other fantasy elements.
-What do you guys think?
-Also, I'm struggling to find a comp title, so if this sounds like anything you've read or heard of, let me know! </t>
-  </si>
-  <si>
-    <t>I’ve  been kicking around some ideas for a sequel to the first draft of my WIP I just finished. I was laying there and it just hit me. Couldn’t wait to get back to the car so I  could write down the ideas. The thought did occur to me to ask the hygienist if she could stop for a minute 😂</t>
-  </si>
-  <si>
-    <t>Took my boy golfing at one our favorite spots. Building memories with what comes of life friends. Keep em coming. Love your work!</t>
-  </si>
-  <si>
-    <t>Played guitar covers for 35 years and it was fun. Last year I created a group and again it was fun but it went nowhere creatively. Everyone basically playing the same chords in a song. And of course i ran into egos where certain people wanted to dominate everything. I got tired and moved on. Then i busked my own music which was a blast, but then it got too cold to play outdoors.  
-This year I took 36 music theory lessons with an accomplished jazz guitarist here in NYC. My mind was blown, realizing what I did not know all this time. My challenge is this: all my olds music friends still play covers or very simple, chord-driven originals. I get no enjoyment out of this anymore. Im far more interested in chord construction, harmonic relationships, writing melodies, and trying to develop my own technique. However, Im not ready to play with good jazz musicians yet because their vocabulary is over my head for the time being. So I feel like im in a state of limbo. Im learning a ton but I work in a vacuum.  
-I really miss playing in the studio and with a group.  I suppose I could try to start a jazz trio with other people who are at the same level, but its really hard to find. Anyone else ever in this boat?</t>
-  </si>
-  <si>
-    <t>Wondering if I should just get 60/80000 words down and stop worrying about plot holes or up in the air questions until I at least have the jist fully written out.</t>
-  </si>
-  <si>
-    <t>I know Mendeley/Zotero/etc are good tools, but they all lack the capability of capturing my flawless handwriting. With the uprising era of iPad/convertible/tables etc, wouldn't it be great if there exist something like that?
-~~kickstarter intensify~~</t>
-  </si>
-  <si>
-    <t>Hi, so basically I wrote a book over the summer and didn't touch it for a couple months in college, partly because I lacked motivation/time to write it. Now, my workload has decreased a bit and I got really into writing it this weekend. Ended up changing a bit of the plot towards the end (hopefully for the better lol). I've felt guilty for spending time writing it, because I'll admit I am kinda attached to the characters. I even skipped a social event to write it and I don't know how to feel. 
-Does anyone else write because they're lonely?</t>
-  </si>
-  <si>
-    <t>Vent</t>
-  </si>
-  <si>
-    <t>Discussion</t>
-  </si>
-  <si>
-    <t>Paint</t>
-  </si>
-  <si>
-    <t>Social media, commissions, business</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Dissertation</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>critique ok!</t>
-  </si>
-  <si>
-    <t>question?</t>
-  </si>
-  <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
-    <t>Self (Complete)</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>ArtistLounge</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>writing</t>
-  </si>
-  <si>
-    <t>writers</t>
-  </si>
-  <si>
-    <t>arttools</t>
-  </si>
-  <si>
-    <t>Composition</t>
-  </si>
-  <si>
-    <t>Illustration</t>
-  </si>
-  <si>
-    <t>freelanceWriters</t>
-  </si>
-  <si>
-    <t>composer</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>oilpainting</t>
-  </si>
-  <si>
-    <t>painting</t>
-  </si>
-  <si>
-    <t>Sculpture</t>
-  </si>
-  <si>
-    <t>Watercolor</t>
   </si>
   <si>
     <t>How do conceptual artists practice? Painters can paint.
@@ -944,53 +1012,90 @@
 Genuinely curious.</t>
   </si>
   <si>
-    <t>What did you all do after your first manuscript rejection? I finally finished a manuscript I had been working on for months (side project with courses and lab duties) and just found out it got rejected without review. It feels like such a waste because it was a specialized article tailored to that journal (kind of review, kind of opinion, kind of guidance?) 
-Based on the feedback it sounds like the manuscript was barely read, which I get is normal, but I disagree with the reason why it was rejected-and I feel like had it been read through, it would have been clear I met the requirement stated. 
-This wasn’t “rewrite and submit” type feedback. I was redirected to a different journal, but of course requirements for submission to that journal are also incredibly vague and I don’t even know if my manuscript fits requirements for the other journal. 
-I feel like I just wasted a ton of time and I’m frustrated because this information is super important to my field and not known/understood by very many in it. I was in this field before starting my PhD and I can’t tell you how badly I wished I had known this stuff then.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My editor hated the ending of my WIP She hated it so much that she convinced me to rewrite it and change it to something completely different. 
-It also caused me to put a temporary hold on the book for over four years. 
-I picked it back up and “finished” it in August. 
-Since then, 15 beta readers have all offered their feedback including a suggestion for the ending which is almost identical to what I had originally written. 
-This makes me mad because I lost so much time on this manuscript. And because I look like a moron now for not having written the ending people wanted. </t>
-  </si>
-  <si>
-    <t>Are people going to be upset with me for hiring a cover artists who uses AI to make stock photos look like illustrations? At least that's what I think this person does, looking at their gallery. They state that they work with stock photos and AI, and yet all the covers look like old-fashioned cover illustrations, similar to the 1970's and 80's.
-I know there's a lot of controversy around AI, but do people still blow up over it if it doesn't draw the image itself, but just alters it?</t>
-  </si>
-  <si>
-    <t>help putting a set of brushes together im going to start painting again after a couple years off. I want to get into portraits and realistic style work. for now i will be using acrylic.
-I have read online that sets are usually lower quality. now that im in a position to buy better quality supplies, i was hoping reddit could help put together of a good base kit to get started with portrait painting. any suggestions appreciated.  thank you</t>
-  </si>
-  <si>
-    <t>Two piano pieces Two pieces I wrote for solo piano.
-[This](https://musescore.com/reckless150681/luna) is a nocturne in Db, and [this](https://musescore.com/reckless150681/le-feu-de-lamour-habanera) is a habanera primarily in Am.</t>
+    <t>Can you help me replace this vintage roll media? I've ended up with a ton of hand-me-down art supplies over the years. Tonight, I used up the last of a product I've really come to love. It's a plastic vellum/tracing paper/diffusion/I-don't-know-what made by a company called Keuffel and Esser. Wikipedia says they supplied drafting materials up to the 1980s. This stuff is 100% opaque white from a distance. Lay it on top of something and it's almost perfectly clear. Once side is high gloss, the other is a very toothy satin. When you draw on the satin side with pencil, it's the most smudge-resistant surface I've ever drawn on *for pencil*. If you put a pen to it, the ink never dries properly and smears everywhere. It cuts like an absolute dream without any hint of grain or catch but at the same time it's pretty tear resistant. It came on a roll. It erases **fantastically well**. 
+Does anyone have any idea what this product was called, what a modern equivalent would be, and where I can buy some?</t>
+  </si>
+  <si>
+    <t>How the hell do I use a pen and mouse in Windows 10? Just got my first pen display and I’m so confused Okay, I’m dumbfounded so I really hope someone can help. I just got a Huion GT-191, it’s good but I have 2 screens set as “extended” and I need to use the mouse occasionally as well. 
+Whenever the Huion is on only the pen works, and *only* on the Huion display. I’m a modeler and ideally want to be able to work mainly with the mouse and drag programs to the Huion to do texture work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitch as "light fantasy" or "speculative historical fiction"? Title basically says it. The beta reader I hired described my work as "speculative historical fiction", which I think fits it well. But I'm worried this sounds too niche to pitch. The setting is a fantasy world, with a made up map and some elements that are unreal (tame boars that people ride, made up cultures and languages). However there's no mythical creatures, magic or other fantasy elements.
+What do you guys think?
+Also, I'm struggling to find a comp title, so if this sounds like anything you've read or heard of, let me know! </t>
+  </si>
+  <si>
+    <t>[Self] made from 4 recycled skateboards as art therapy by disabled skater Got GBS in '19 and still can't skate so I make these to try and keep the madness and sadness at bay. Hope you like</t>
   </si>
   <si>
     <t>Advice on how to leave the editor at the door? I'm such a perfectionist, and even though I'm fully aware that my first drafts won't be seen by anyone, I have a hard time with not editing while I'm writing; it stifles my creativity and when I write something I know no one will *ever* read, the words flow like crazy (I write some pieces of fan-fic like stuff for myself, and recently I wrote something with like 100k+ words in a month or two.) But with the knowledge that it will *eventually* be seen by people, I struggle with 1-2k words per day.
 Any advice on how to leave the editor at the door?</t>
   </si>
   <si>
-    <t>The author’s responsibility? I got my first publication deal and the book will come out next year. The manuscript is the darkest nordic noir -style I’ve ever been able to put to paper. Everything that starts out badly will turn worse and there’s no glimmer of hope anywhere. My editor, whose been a professional for three decades says that he cannot remember anything as nihilistic and depressing that could actually happen IRL.
-Now I’ve started to have some doubts. There is already so much pain and suffering in the world, should I really add thoughts that some people have not been thinking about before? Should I offer the readers with the role models, who definetely should not be models of anything. There is no single character that I would like to meet in my own life, which, according to my editor, makes it an interesting read.
-I think my biggest fears are that either someone will start to think that they are allowed to act the ways I’ve described or that someone already melancholic will fall deeper into depression.
-What do you think about authors responsibility about their stories and the effects on people?</t>
-  </si>
-  <si>
-    <t>Petition to ban posts asking "what is the name of this style," or make it a weekly mega thread (Unrelated art by utagawa kuniyoshi) Getting pretty tired of people asking for AI prompt keywords</t>
-  </si>
-  <si>
-    <t>Should I include footnotes in my novel? I'm writing historical fantasy and I'm noticing more and more historical jargon in my writing, stuff which makes total sense to me but which might be gibberish to a lay person. I describe characters as wearing "gambeson," "brigandine" and "hose." The jargon works with the verisimilitude of the story so I want to keep it. 
-I'm pretty torn about how to address this. I can't exactly expect folks to stop reading to google what a word means.
-My ideas on how to address it are:
-1. Use footnotes to explain what something is. I've seen this work in 'Flashman.'
-2. Try to explain what something is within the prose of the story.
-3. Let the reader figure it out for themselves, a.k.a the GRRM approach
-I'm kinda worried about implementing the first one since, whilst its certainly the most streamlined way to explain it, it might make the jargon stand out.
-The second one feels like the most natural way to explain what something is, but at that point I can't help but wonder if explaining what brigandine is really matters to the story.
-The third approach feels like it could confuse people since I shouldn't expect people to know the same historical factoids as me, but I also just finished "A Clash of Kings" like three hours ago and I think 'destrier' might be that guy's favourite word. I had no idea what exactly destrier was when I read it, but I could tell it was a horse so maybe it doesn't matter?</t>
+    <t>What are some store-bought alternatives to rosemary &amp; co brushes? I live in the US. Looking for some good oil painting brushes that I can buy at my local store. I have Michael’s and Blick nearby.
+I have heard a great deal about rosemary and co brushes but don’t want to order online without seeing a brush. Any recommendations?</t>
+  </si>
+  <si>
+    <t>When writing your first draft, do you follow any particular rules or just get the whole thing down regardless of how poor it may be? Wondering if I should just get 60/80000 words down and stop worrying about plot holes or up in the air questions until I at least have the jist fully written out.</t>
+  </si>
+  <si>
+    <t>Composition Course - Day Zero I'm taking part in a week-long composition course from Monday, and if the mods don't object I'd like to post a daily update, summarising what we did, what I learned, and uploading the work-in-progress at the end of each day, for opinion and feedback, and so people can see a composition being developed and then hear the final version played at the end of the week by properly alive human musician people.
+We were asked to start writing a composition prior to the course, but obviously only take it so far, so I've been doing 'research' for the last few months, looking at scores, exploring compositional techniques and letting the piece stew for a bit; my perspective on it has already changed quite a lot, and it also means I'm not as emotionally attached to it as I was when it was fresh, so it'll be easier to make big changes to it.
+[This is what I have so far](https://www.youtube.com/watch?v=kabCR38PUdA) - part 1 is pretty much all up for grabs, and will likely be the main focus of the week; I want to see how the musicians handle part 2 and what I can add to the score to bring it to life for them; part 3 will probably get drastically cut down; and part 4 needs some big orchestration. Finishing a piece is the hardest part for me so I'm hoping the tutors don't think this is already too developed e.g. part 2.
+It's based on an 11-note altered scale melody, kind of a little wiggle followed by a whole tone run. The full melody is heard in part 4, but most of the rest of the piece is built from fragments of it, which should give it both some diversity and coherence, and has stopped me just doing the same old stuff that my ear likes to hear. And there's a whole tone piano wash in there too which finds its way into other sections, even if it's just as the idea of an ascending run of notes or re-using the rhythm.
+It's mainly Zappa-influenced, even if it doesn't sound like that, except for part 3 which is more Steve Reich and that's probably why it doesn't quite fit. I'm planning on minimal sleep for the week so should be able to put  a lot of work into it. :)</t>
+  </si>
+  <si>
+    <t>How to handle a client who always pays late? I have a client who I get a lot of work from. They are by far the primary source of my income. The problem is that they ALWAYS pay late. Sometimes they'll just not pay me for an entire month. I always get the money eventually, but this is messing up my cash flow. I'm wondering how you folks deal with situations like this. Do you withhold services? Charge late payment fees? Or do you just break up with the client and move onto someone more reliable?</t>
+  </si>
+  <si>
+    <t>Need help finding a market I’m seeking help or suggestions on finding a market.. or ideally someone else who can handle marketing directly. I prefer to just MAKE the Art.. but I would obviously love to get payed to do so. I just don’t have much interest in marketing myself. Anyone out there interested in selling my art? Prints and/or originals.. we could discuss a wholesale price for prints which you could then sell for a higher price to your market. Or we can discuss a commission percentage for selling originals. 
+Let me know if you’re interested and my work is something you see as marketable. 
+Thanks all! 
+-Dave Sinor</t>
+  </si>
+  <si>
+    <t>Do you have a creative writing space? I’ve heard this a few times that you should have a designated space in which to write. Unfortunately this isn’t easy for me now that my only spare room is now reserved for working from home so it’s associated with work rather than creativity. How important is it to have a creative space, or can you write from wherever you happen to be?</t>
+  </si>
+  <si>
+    <t>Got back into painting after a few months hiatus. Tips on painting rocks and reducing photo glare? Full piece is 18x24" acrylics. &amp;#x200B;
+https://preview.redd.it/ka04wvmxo0y21.png?width=899&amp;format=png&amp;auto=webp&amp;s=2eae38a751c6923328c591c3dc67d1ed88ebbde0</t>
+  </si>
+  <si>
+    <t>Funereal for string orchestra https://www.youtube.com/watch?v=XIHRfSu-k5g
+I originally wrote this for the Scoretober we had around here. I recently took another look at it and revised it a bit (and vastly improved the rendering of it).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How important is the Bechdel test? I've got a novel all blocked out, ready to start. But I just realized it fails the Bechdel test, and even worse, the antagonists are ALL women.
+On the one hand, I want to be progressive and do what I can to free society from the passive misogyny imposed upon half of our population since the beginning of mankind. On the other, I just want to write my story, dammit. 
+This story, its plot and characters have an existence cemented in my head, and I want to put it on paper the same way. In light of another thread related to this topic regarding the "strong female character," I feel sometimes writers go out of their way to impose Bechdel parameters on a reader to the extent that it has been overdone, almost cliché at this point. The story would be exactly the same if the genders of all characters were flipped, except it might be off-putting to some folks, since they might seem unnatural, with character traits shoehorned into these roles simply in an effort to appear Bechdel-compliant. It's like a betrayal of our natural proclivities as women and men, and inauthentic. And I don't like it.
+What say you?
+</t>
+  </si>
+  <si>
+    <t>Using writing as a way to cope with loneliness. Hi, so basically I wrote a book over the summer and didn't touch it for a couple months in college, partly because I lacked motivation/time to write it. Now, my workload has decreased a bit and I got really into writing it this weekend. Ended up changing a bit of the plot towards the end (hopefully for the better lol). I've felt guilty for spending time writing it, because I'll admit I am kinda attached to the characters. I even skipped a social event to write it and I don't know how to feel. 
+Does anyone else write because they're lonely?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turning, Oil on Canvas, 24” x 18”.  Nearly finished. May do some last tweaks and then she needs a varnish. </t>
+  </si>
+  <si>
+    <t>Theory created a vacuum Played guitar covers for 35 years and it was fun. Last year I created a group and again it was fun but it went nowhere creatively. Everyone basically playing the same chords in a song. And of course i ran into egos where certain people wanted to dominate everything. I got tired and moved on. Then i busked my own music which was a blast, but then it got too cold to play outdoors.  
+This year I took 36 music theory lessons with an accomplished jazz guitarist here in NYC. My mind was blown, realizing what I did not know all this time. My challenge is this: all my olds music friends still play covers or very simple, chord-driven originals. I get no enjoyment out of this anymore. Im far more interested in chord construction, harmonic relationships, writing melodies, and trying to develop my own technique. However, Im not ready to play with good jazz musicians yet because their vocabulary is over my head for the time being. So I feel like im in a state of limbo. Im learning a ton but I work in a vacuum.  
+I really miss playing in the studio and with a group.  I suppose I could try to start a jazz trio with other people who are at the same level, but its really hard to find. Anyone else ever in this boat?</t>
+  </si>
+  <si>
+    <t>What is the most mundane place you’ve been or most mundane activity you were involved in when you came up with a great idea for a story? For me, this morning, at the dentist, while getting my teeth cleaned. I’ve  been kicking around some ideas for a sequel to the first draft of my WIP I just finished. I was laying there and it just hit me. Couldn’t wait to get back to the car so I  could write down the ideas. The thought did occur to me to ask the hygienist if she could stop for a minute 😂</t>
+  </si>
+  <si>
+    <t>Anyone here writing horror novels or stories? (If this doesn't fit here I'll gladly delete.) If so maybe share this info...
+* How long have you been writing? If published,  where can we find your work? 
+* Where does your writing fit with the horror genre?
+* What're 2-3 books you wish you could have written?
+* Are you a part of a writing group or are you looking for beta readers?</t>
+  </si>
+  <si>
+    <t>Trying my hand at Daubism Feel free to critique the piece.</t>
   </si>
   <si>
     <t>What's the difference between free indirect style and deep POV? I consider my knowledge of craft pretty good but this one has me stumped.
@@ -1004,18 +1109,8 @@
 Am I missing something or are people reinventing the wheel?</t>
   </si>
   <si>
-    <t>How to handle a client who always pays late? I have a client who I get a lot of work from. They are by far the primary source of my income. The problem is that they ALWAYS pay late. Sometimes they'll just not pay me for an entire month. I always get the money eventually, but this is messing up my cash flow. I'm wondering how you folks deal with situations like this. Do you withhold services? Charge late payment fees? Or do you just break up with the client and move onto someone more reliable?</t>
-  </si>
-  <si>
-    <t>Anyone here writing horror novels or stories? (If this doesn't fit here I'll gladly delete.) If so maybe share this info...
-* How long have you been writing? If published,  where can we find your work? 
-* Where does your writing fit with the horror genre?
-* What're 2-3 books you wish you could have written?
-* Are you a part of a writing group or are you looking for beta readers?</t>
-  </si>
-  <si>
-    <t>Can you help me replace this vintage roll media? I've ended up with a ton of hand-me-down art supplies over the years. Tonight, I used up the last of a product I've really come to love. It's a plastic vellum/tracing paper/diffusion/I-don't-know-what made by a company called Keuffel and Esser. Wikipedia says they supplied drafting materials up to the 1980s. This stuff is 100% opaque white from a distance. Lay it on top of something and it's almost perfectly clear. Once side is high gloss, the other is a very toothy satin. When you draw on the satin side with pencil, it's the most smudge-resistant surface I've ever drawn on *for pencil*. If you put a pen to it, the ink never dries properly and smears everywhere. It cuts like an absolute dream without any hint of grain or catch but at the same time it's pretty tear resistant. It came on a roll. It erases **fantastically well**. 
-Does anyone have any idea what this product was called, what a modern equivalent would be, and where I can buy some?</t>
+    <t>Confession: Sometimes when I'm dragging some of my characters through hell... Obviously you have to challenge your character(s) in one way or another. I can't speak for every writer, but I tend to grow attached to a lot of mine and feel bad when I'm really pushing them through the figurative woodchopper.
+So occasionally, when they're really in a bad spot, or suffering like crazy, I'll take a short break and write a little blurb where everything is okay, they're doing wonderful, nobody's dying, etc. For instance, in the fantasy piece I'm working on now my MC is really taking a physical and mental beating. So I wrote a little side bit where everything worked out and he's happy with the world for a change. It made me feel a lot more at ease going forward for some reason.</t>
   </si>
   <si>
     <t>Constructive Rant Time - Don't Listen To The People Who Are Below You. Before I start this post, I need to give context.
@@ -1060,7 +1155,12 @@
 &amp;#x200B;</t>
   </si>
   <si>
-    <t>For novels, create an outline or just write? I have had success creating novels using both outlines and just writing with the ideas in my head. What works best for you?</t>
+    <t>Do I need to Copyright my dissertation? I'm putting some final touches on my document to submit to our graduate school and see information about Copyright.  However, I don't see a lot of past dissertations I've read include a Copyright page - which leads me to assume they didn't Copyright their document. 
+Is this something worth doing?  Anyone have a guide on how to complete this?</t>
+  </si>
+  <si>
+    <t>How to frame canvas prints (reproductions)? I just discovered that you can get really cheap canvas prints of famous paintings on AliExpress.  Some are less than $5.  Customer reviews are pretty good.
+But, how do I frame them?  I can't find any info on the site.  What do I do with just a piece of canvas?  I would like a very simple modern frame.</t>
   </si>
   <si>
     <t>Posting art online Hey, just started physical/digital painting again and I wanted to ask the community where does everyone post their art online?
@@ -1069,94 +1169,10 @@
 Are DeviantArt/Pinterest still relevant? Any new platform that I don't know about?</t>
   </si>
   <si>
-    <t>Funereal for string orchestra https://www.youtube.com/watch?v=XIHRfSu-k5g
-I originally wrote this for the Scoretober we had around here. I recently took another look at it and revised it a bit (and vastly improved the rendering of it).</t>
-  </si>
-  <si>
-    <t>Oboe solo?? Hypothetically if one were working on a 3 movement suite for symphonic orchestra and wanted a light and dainty oboe solo over aggressive backgrounds in the low instruments. Maybe even go as far as having the 1st viola play a counter melody. How would one go about this??</t>
-  </si>
-  <si>
-    <t>Good Book Recommendations on Composition? Hey guys!  Do any of you have any good book recommendations on composition?  Or maybe any recommendations of scores that you've enjoyed analyzing?  Thanks!</t>
-  </si>
-  <si>
-    <t>Do I need to Copyright my dissertation? I'm putting some final touches on my document to submit to our graduate school and see information about Copyright.  However, I don't see a lot of past dissertations I've read include a Copyright page - which leads me to assume they didn't Copyright their document. 
-Is this something worth doing?  Anyone have a guide on how to complete this?</t>
-  </si>
-  <si>
-    <t>Do you have a creative writing space? I’ve heard this a few times that you should have a designated space in which to write. Unfortunately this isn’t easy for me now that my only spare room is now reserved for working from home so it’s associated with work rather than creativity. How important is it to have a creative space, or can you write from wherever you happen to be?</t>
-  </si>
-  <si>
-    <t>How to frame canvas prints (reproductions)? I just discovered that you can get really cheap canvas prints of famous paintings on AliExpress.  Some are less than $5.  Customer reviews are pretty good.
-But, how do I frame them?  I can't find any info on the site.  What do I do with just a piece of canvas?  I would like a very simple modern frame.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was awarded my PhD (UK) this week. Some thoughts and advice I came back to uni (UK) as a mature student to do a Masters and ended up completing a PhD in Data Science. It was a 'non-typical' programme format and Covid made it very much a 'desk research' project, but I thought I'd share some thoughts:
-**Uncertainty:** The lack of clarity about various things was the main source of stress for me over the years. Until they told me i'd passed with minor corrections in my viva I was honestly unsure if anything i'd done was good enough. My supervisors weren't experts in the field or methods and gave me only limited reassurance. I would strongly advise trying to get external feedback on what you're doing. Getting published is obviously the peak version of this (just submitting for publication is helpful though), but there are  also conferences or just approaching other experts in your field. Anything to get someone to validate that what you're doing is ok will reduce stress for you and hopefully reduce the amount of things you need to fix after your viva. 
-**Workload:** If i'm honest, the amount of time that I needed to spend on my core PhD activities (reading, conducting research, analysis writing etc) wasn't that much. Maybe 25-30 hours a week. The rest of what I did was optional - graduate teaching (which I strongly recommend), organising and presenting at events, additional training, conferences etc. If you find that you don't have enough time to do everything and are getting stressed then ask yourself what is actually necessary for your PhD - ignore your supervisors if you have to. No one is going to throw you out of uni for not doing all the random shit they suggest. Have the courage to say no and prioritise your actual work. Despite what I put above, I didn't actually have anything published. 
-**'Bad Spells':** I had a number of periods where I was questioning everything - Is this really going to work out? Do I have the proper experience to complete this? Are they going to find out that i'm a fraud and I don't actually know what i'm doing? Ultimately though I found out that I was imagining much higher standards than was actually expected. There were also times where I would go an entire week of just sitting at a screen and not typing a word. The only thing that would kick me out of this was meetings with supervisors and other deadlines that forced me to get things done. I personally found it better to keep busy rather than obsesses over my mental health. 'Resting' was the worst thing I could do - It was much better to create some kind of event (agreeing to present work to people etc) and get back working. </t>
-  </si>
-  <si>
-    <t>Confession: Sometimes when I'm dragging some of my characters through hell... Obviously you have to challenge your character(s) in one way or another. I can't speak for every writer, but I tend to grow attached to a lot of mine and feel bad when I'm really pushing them through the figurative woodchopper.
-So occasionally, when they're really in a bad spot, or suffering like crazy, I'll take a short break and write a little blurb where everything is okay, they're doing wonderful, nobody's dying, etc. For instance, in the fantasy piece I'm working on now my MC is really taking a physical and mental beating. So I wrote a little side bit where everything worked out and he's happy with the world for a change. It made me feel a lot more at ease going forward for some reason.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turning, Oil on Canvas, 24” x 18”.  Nearly finished. May do some last tweaks and then she needs a varnish. </t>
-  </si>
-  <si>
-    <t>Harmony of Part to Whole in Short Stories I’ve been reading a lot about short stories, and this idea keeps coming up: harmony of part to whole. 
-I’m wondering how to achieve this, practically. Can anyone point out specific examples? Has anyone else spent too much time thinking about this? What are your thoughts?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How important is the Bechdel test? I've got a novel all blocked out, ready to start. But I just realized it fails the Bechdel test, and even worse, the antagonists are ALL women.
-On the one hand, I want to be progressive and do what I can to free society from the passive misogyny imposed upon half of our population since the beginning of mankind. On the other, I just want to write my story, dammit. 
-This story, its plot and characters have an existence cemented in my head, and I want to put it on paper the same way. In light of another thread related to this topic regarding the "strong female character," I feel sometimes writers go out of their way to impose Bechdel parameters on a reader to the extent that it has been overdone, almost cliché at this point. The story would be exactly the same if the genders of all characters were flipped, except it might be off-putting to some folks, since they might seem unnatural, with character traits shoehorned into these roles simply in an effort to appear Bechdel-compliant. It's like a betrayal of our natural proclivities as women and men, and inauthentic. And I don't like it.
-What say you?
-</t>
-  </si>
-  <si>
-    <t>Deus ex Machina. It's usually bad, but sometimes it works. What makes it work? In The Lord of the Rings, after the ring is destroyed, Frodo and Sam are rescued by eagles. This is a clear case of deus ex machina but in the context of the story it works. What do you reckon makes the difference between a good and bad use of this trope?</t>
-  </si>
-  <si>
-    <t>What pieces should be in my portfolio? I'm trying to get started in freelance writing by using Upwork and other such sites.  While I have always written, I have never been an independent writer so I don't have a portfolio of work that I can post in my profile.
-I'm more than willing to sit down and write a few pieces to serve as examples, but when I sit down to do so I end up staring at the blinking cursor at the top of the page. 
-When I just "free-write" for myself it's usually just ranting, not anything anyone would want to read. I need a few good prompts in subject matters that the content buyers will want to see in a portfolio. 
-Does anyone have any suggestions of topics for me to write about for my portfolio?</t>
-  </si>
-  <si>
-    <t>What are some store-bought alternatives to rosemary &amp; co brushes? I live in the US. Looking for some good oil painting brushes that I can buy at my local store. I have Michael’s and Blick nearby.
-I have heard a great deal about rosemary and co brushes but don’t want to order online without seeing a brush. Any recommendations?</t>
-  </si>
-  <si>
-    <t>[Discussion] College Interviews Hey everyone, I'm just starting to hear back from colleges for music and have been invited to interview at a few places for a BM in music composition. I'll start with what sounds like the hardest place from what they've stated for me: Juilliard. First there is a 3 hour test for all composition students and then 5 interviews, which I'm assuming are just with the different faculty.
-Is there something that I should be focusing on specifically for the test and the interviews? Or are these tests more of a placement type thing rather than something that affects admission?</t>
-  </si>
-  <si>
-    <t>Does anyone have a system for becoming a better writer? Seems de rigueur to talk about building 'systems' to improve or achieve goals. I'm wondering if anyone has used some kind of structured approach to improve as a writer? 
-e.g. working from a text book on sentence structure for 30 minutes, 30 minutes of free writing, working through feedback from peers etc.</t>
-  </si>
-  <si>
-    <t>Need help finding a market I’m seeking help or suggestions on finding a market.. or ideally someone else who can handle marketing directly. I prefer to just MAKE the Art.. but I would obviously love to get payed to do so. I just don’t have much interest in marketing myself. Anyone out there interested in selling my art? Prints and/or originals.. we could discuss a wholesale price for prints which you could then sell for a higher price to your market. Or we can discuss a commission percentage for selling originals. 
-Let me know if you’re interested and my work is something you see as marketable. 
-Thanks all! 
--Dave Sinor</t>
-  </si>
-  <si>
-    <t>Composition Course - Day Zero I'm taking part in a week-long composition course from Monday, and if the mods don't object I'd like to post a daily update, summarising what we did, what I learned, and uploading the work-in-progress at the end of each day, for opinion and feedback, and so people can see a composition being developed and then hear the final version played at the end of the week by properly alive human musician people.
-We were asked to start writing a composition prior to the course, but obviously only take it so far, so I've been doing 'research' for the last few months, looking at scores, exploring compositional techniques and letting the piece stew for a bit; my perspective on it has already changed quite a lot, and it also means I'm not as emotionally attached to it as I was when it was fresh, so it'll be easier to make big changes to it.
-[This is what I have so far](https://www.youtube.com/watch?v=kabCR38PUdA) - part 1 is pretty much all up for grabs, and will likely be the main focus of the week; I want to see how the musicians handle part 2 and what I can add to the score to bring it to life for them; part 3 will probably get drastically cut down; and part 4 needs some big orchestration. Finishing a piece is the hardest part for me so I'm hoping the tutors don't think this is already too developed e.g. part 2.
-It's based on an 11-note altered scale melody, kind of a little wiggle followed by a whole tone run. The full melody is heard in part 4, but most of the rest of the piece is built from fragments of it, which should give it both some diversity and coherence, and has stopped me just doing the same old stuff that my ear likes to hear. And there's a whole tone piano wash in there too which finds its way into other sections, even if it's just as the idea of an ascending run of notes or re-using the rhythm.
-It's mainly Zappa-influenced, even if it doesn't sound like that, except for part 3 which is more Steve Reich and that's probably why it doesn't quite fit. I'm planning on minimal sleep for the week so should be able to put  a lot of work into it. :)</t>
-  </si>
-  <si>
-    <t>Keep Going I'm currently writing my cheesy overplayed dystopian teen hero book write now and at moments I can't help but think wow this really sucks, but keep going. Just get it all out finish the book and work on fixing it later. 
-If along the way you realize that it's not fixable that's ok, start something else but for the rest of you keep going, don't think wow this cheesy love-hate book I'm writing is horrible and give up, accept that it's horrible and keep going finish it and work on fixing it once the hard part is over</t>
-  </si>
-  <si>
-    <t>Got back into painting after a few months hiatus. Tips on painting rocks and reducing photo glare? Full piece is 18x24" acrylics. &amp;#x200B;
-https://preview.redd.it/ka04wvmxo0y21.png?width=899&amp;format=png&amp;auto=webp&amp;s=2eae38a751c6923328c591c3dc67d1ed88ebbde0</t>
-  </si>
-  <si>
-    <t>Is art you made by “accident” still good art? If something you make turns out looking cool out of chance and chaos, does it still count as good/real art?</t>
+    <t>What did you all do after your first manuscript rejection? I finally finished a manuscript I had been working on for months (side project with courses and lab duties) and just found out it got rejected without review. It feels like such a waste because it was a specialized article tailored to that journal (kind of review, kind of opinion, kind of guidance?) 
+Based on the feedback it sounds like the manuscript was barely read, which I get is normal, but I disagree with the reason why it was rejected-and I feel like had it been read through, it would have been clear I met the requirement stated. 
+This wasn’t “rewrite and submit” type feedback. I was redirected to a different journal, but of course requirements for submission to that journal are also incredibly vague and I don’t even know if my manuscript fits requirements for the other journal. 
+I feel like I just wasted a ton of time and I’m frustrated because this information is super important to my field and not known/understood by very many in it. I was in this field before starting my PhD and I can’t tell you how badly I wished I had known this stuff then.</t>
   </si>
   <si>
     <t>The toxic myth of the tortured mentally ill artist, and that illness making them more creative/good at art. I want to talk about this because it's bothering me. People often cite Van Gogh, and mention that he was crazy, and it helped his art. But would Van Gogh have gotten anywhere with no skill? I mean I'm tired of this narrative. I think it's actually destructive. I think what's happening is that  a lot of artists tend to be very imaginative and eccentric in that sense, and therefore some of them may get into drugs or other vices to sort of numb that down, this usually happens early on I find. But for people like Van Gogh, he was mentally ill and struggling all the time, and he made art in spite of that fact in my opinion.
@@ -1168,554 +1184,619 @@
 Thoughts?</t>
   </si>
   <si>
-    <t>[Self] made from 4 recycled skateboards as art therapy by disabled skater Got GBS in '19 and still can't skate so I make these to try and keep the madness and sadness at bay. Hope you like</t>
-  </si>
-  <si>
-    <t>A look at Japanese author Haruki Murakami's daily writing routine: "The repetition itself becomes the important thing; it’s a form of mesmerism. I mesmerize myself to reach a deeper state of mind." From the Japanese writer’s point of view, “writing a long novel is like survival training. Physical strength is as necessary as artistic sensitivity,” spending his days running and swimming to build up his endurance, as well as competing in marathons and triathlons.
-At the start of his writing career, Murakami also ran a small jazz club in Tokyo, where he worked until the early hours of the morning, before going home to write.
-After he decided to commit his life entirely to writing, Murakami and his wife, Yoko, closed the bar and moved out to Narashino, a more rural area in the Chiba prefecture of Tokyo.
-From there, the writer overhauled his lifestyle and daily routine completely, “once I was sitting at a desk writing all day I started putting on the pounds. I was also smoking too much—sixty cigarettes a day. My fingers were yellow, and my body reeked of smoke. This couldn’t be good for me, I decided. If I wanted to have a long life as a novelist, I needed to find a way to stay in shape.”
-In Murakami’s new daily routine, if he’s in novel mode, he’ll wake up at 4am and immediately start writing, working for five to six hours. If he’s not in novel mode, Murakami and his wife will still wake up early, “once I began my life as a novelist, my wife and I decided that we’d go to bed soon after it got dark and wake up with the sun,” typically waking up before 5am and going to bed at 10pm.
-While some people may imagine the life of a writer as balancing long stretches of idleness with flash in pan inspiration moments, the reality is that writing, and creativity, is more of a steady grind. Murakmai says, “I have to pound away at a rock with a chisel and dig out a deep hole before I can locate the source of my creativity” — a sentiment which reflects his structured routine and lifestyle.
-Murakami will typically finish up his day’s writing at 10am or 11am. From there, he’ll proceed to his physical training.
-&gt;In the afternoon, I run for 10km or swim for 1500m (or do both), then I read a bit and listen to some music. I go to bed at 9:00 pm. I keep to this routine every day without variation. The repetition itself becomes the important thing; it’s a form of mesmerism. I mesmerize myself to reach a deeper state of mind. But to hold to such repetition for so long — six months to a year — requires a good amount of mental and physical strength.
-To read the full daily routine, check it out here: [https://www.balancethegrind.com.au/daily-routines/haruki-murakami-daily-routine/](https://www.balancethegrind.com.au/daily-routines/haruki-murakami-daily-routine/)</t>
-  </si>
-  <si>
-    <t>Trying my hand at Daubism Feel free to critique the piece.</t>
-  </si>
-  <si>
-    <t>What immediately makes a piece of writing look bad? Regardless of what the writing is about, if you were reading a piece of writing, what will immediately stand out to you and turn you off reading it? What will always look bad on a piece of writing?</t>
-  </si>
-  <si>
-    <t>I got my first commission request, I’m nervous! I opened up my commissions on my Instagram account last week and just got my first request! I’m nervous! Before receiving a request I was worried that nobody would want to buy commissions from me but now that I’ve got one, I’m super nervous! I don’t want to let them down. 
-Anyone else nervous before their first commission? What did you do to quell the anxiety? Am I overthinking it too much? Lol. 
-I’d love to hear your thoughts on this!</t>
-  </si>
-  <si>
-    <t>How to write male best friends without implying romance My story has two supporting characters, Cal and Riel, whose platonic affection for each other is important to the story.  Riel fled their home to escape his extremist family, and Cal came with him to a new country to help him.  Part of my story hinges on my narrator Meg realizing that Riel will remain loyal to Cal even if Cal kills the king they swore to serve, meaning that Cal's the only person who can lead a military coup and be successful.  It's thus important for the story to convey that they care deeply for each other.
-However.  I don't want them to be romantically involved, and I don't see them as a couple.  But my writing group made comments about "shipping" them, and one expressed disappointment when Cal was flirting with Joan because she assumed Cal and Riel were already an item.  So.  How the fricklefrack do you write two men in a modern-but-fictional country caring deeply for each other, without it coming off as romantic?</t>
-  </si>
-  <si>
-    <t>How to start making/selling prints of my artwork? I have been doing commissions for people for about two years and it has become my part time highschool job. I do mostly animal/pet portraits. However, I’m really wanting to start creating prints of some of my original animal artworks and selling them online for a little extra income before college. 
-My problem is that I don’t know where to start. I have an art website, and Instagram, a decent base of clientele, photoshop, a small 8.5x11 scanner that will work for my smaller pieces, and a whole lot of extra time now in quarantine. I just don’t know the best sites to advertise prints, how to produce high quality ones, or where to even begin with pricing. I’m also not sure what to do with my larger works that won’t fit on my own scanner. I would really appreciate any advice you guys may have for someone wanting to start out!</t>
-  </si>
-  <si>
-    <t>How the hell do I use a pen and mouse in Windows 10? Just got my first pen display and I’m so confused Okay, I’m dumbfounded so I really hope someone can help. I just got a Huion GT-191, it’s good but I have 2 screens set as “extended” and I need to use the mouse occasionally as well. 
-Whenever the Huion is on only the pen works, and *only* on the Huion display. I’m a modeler and ideally want to be able to work mainly with the mouse and drag programs to the Huion to do texture work.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch as "light fantasy" or "speculative historical fiction"? Title basically says it. The beta reader I hired described my work as "speculative historical fiction", which I think fits it well. But I'm worried this sounds too niche to pitch. The setting is a fantasy world, with a made up map and some elements that are unreal (tame boars that people ride, made up cultures and languages). However there's no mythical creatures, magic or other fantasy elements.
-What do you guys think?
-Also, I'm struggling to find a comp title, so if this sounds like anything you've read or heard of, let me know! </t>
-  </si>
-  <si>
-    <t>What is the most mundane place you’ve been or most mundane activity you were involved in when you came up with a great idea for a story? For me, this morning, at the dentist, while getting my teeth cleaned. I’ve  been kicking around some ideas for a sequel to the first draft of my WIP I just finished. I was laying there and it just hit me. Couldn’t wait to get back to the car so I  could write down the ideas. The thought did occur to me to ask the hygienist if she could stop for a minute 😂</t>
-  </si>
-  <si>
-    <t>With a full heart, son (10) asked me to paint his photo. Took my boy golfing at one our favorite spots. Building memories with what comes of life friends. Keep em coming. Love your work!</t>
-  </si>
-  <si>
-    <t>Theory created a vacuum Played guitar covers for 35 years and it was fun. Last year I created a group and again it was fun but it went nowhere creatively. Everyone basically playing the same chords in a song. And of course i ran into egos where certain people wanted to dominate everything. I got tired and moved on. Then i busked my own music which was a blast, but then it got too cold to play outdoors.  
-This year I took 36 music theory lessons with an accomplished jazz guitarist here in NYC. My mind was blown, realizing what I did not know all this time. My challenge is this: all my olds music friends still play covers or very simple, chord-driven originals. I get no enjoyment out of this anymore. Im far more interested in chord construction, harmonic relationships, writing melodies, and trying to develop my own technique. However, Im not ready to play with good jazz musicians yet because their vocabulary is over my head for the time being. So I feel like im in a state of limbo. Im learning a ton but I work in a vacuum.  
-I really miss playing in the studio and with a group.  I suppose I could try to start a jazz trio with other people who are at the same level, but its really hard to find. Anyone else ever in this boat?</t>
-  </si>
-  <si>
-    <t>When writing your first draft, do you follow any particular rules or just get the whole thing down regardless of how poor it may be? Wondering if I should just get 60/80000 words down and stop worrying about plot holes or up in the air questions until I at least have the jist fully written out.</t>
+    <t>The author’s responsibility? I got my first publication deal and the book will come out next year. The manuscript is the darkest nordic noir -style I’ve ever been able to put to paper. Everything that starts out badly will turn worse and there’s no glimmer of hope anywhere. My editor, whose been a professional for three decades says that he cannot remember anything as nihilistic and depressing that could actually happen IRL.
+Now I’ve started to have some doubts. There is already so much pain and suffering in the world, should I really add thoughts that some people have not been thinking about before? Should I offer the readers with the role models, who definetely should not be models of anything. There is no single character that I would like to meet in my own life, which, according to my editor, makes it an interesting read.
+I think my biggest fears are that either someone will start to think that they are allowed to act the ways I’ve described or that someone already melancholic will fall deeper into depression.
+What do you think about authors responsibility about their stories and the effects on people?</t>
   </si>
   <si>
     <t>Wouldn't it be great if there is a tool for reference management while letting you do free-hand annotate on it? I know Mendeley/Zotero/etc are good tools, but they all lack the capability of capturing my flawless handwriting. With the uprising era of iPad/convertible/tables etc, wouldn't it be great if there exist something like that?
 ~~kickstarter intensify~~</t>
   </si>
   <si>
-    <t>Using writing as a way to cope with loneliness. Hi, so basically I wrote a book over the summer and didn't touch it for a couple months in college, partly because I lacked motivation/time to write it. Now, my workload has decreased a bit and I got really into writing it this weekend. Ended up changing a bit of the plot towards the end (hopefully for the better lol). I've felt guilty for spending time writing it, because I'll admit I am kinda attached to the characters. I even skipped a social event to write it and I don't know how to feel. 
-Does anyone else write because they're lonely?</t>
+    <t>Oboe solo?? Hypothetically if one were working on a 3 movement suite for symphonic orchestra and wanted a light and dainty oboe solo over aggressive backgrounds in the low instruments. Maybe even go as far as having the 1st viola play a counter melody. How would one go about this??</t>
+  </si>
+  <si>
+    <t>Are people going to be upset with me for hiring a cover artists who uses AI to make stock photos look like illustrations? At least that's what I think this person does, looking at their gallery. They state that they work with stock photos and AI, and yet all the covers look like old-fashioned cover illustrations, similar to the 1970's and 80's.
+I know there's a lot of controversy around AI, but do people still blow up over it if it doesn't draw the image itself, but just alters it?</t>
+  </si>
+  <si>
+    <t>Should I include footnotes in my novel? I'm writing historical fantasy and I'm noticing more and more historical jargon in my writing, stuff which makes total sense to me but which might be gibberish to a lay person. I describe characters as wearing "gambeson," "brigandine" and "hose." The jargon works with the verisimilitude of the story so I want to keep it. 
+I'm pretty torn about how to address this. I can't exactly expect folks to stop reading to google what a word means.
+My ideas on how to address it are:
+1. Use footnotes to explain what something is. I've seen this work in 'Flashman.'
+2. Try to explain what something is within the prose of the story.
+3. Let the reader figure it out for themselves, a.k.a the GRRM approach
+I'm kinda worried about implementing the first one since, whilst its certainly the most streamlined way to explain it, it might make the jargon stand out.
+The second one feels like the most natural way to explain what something is, but at that point I can't help but wonder if explaining what brigandine is really matters to the story.
+The third approach feels like it could confuse people since I shouldn't expect people to know the same historical factoids as me, but I also just finished "A Clash of Kings" like three hours ago and I think 'destrier' might be that guy's favourite word. I had no idea what exactly destrier was when I read it, but I could tell it was a horse so maybe it doesn't matter?</t>
+  </si>
+  <si>
+    <t>What immediately makes a piece of writing look bad? Regardless of what the writing is about, if you were reading a piece of writing, what will immediately stand out to you and turn you off reading it? What will always look bad on a piece of writing?</t>
+  </si>
+  <si>
+    <t>Harmony of Part to Whole in Short Stories I’ve been reading a lot about short stories, and this idea keeps coming up: harmony of part to whole. 
+I’m wondering how to achieve this, practically. Can anyone point out specific examples? Has anyone else spent too much time thinking about this? What are your thoughts?</t>
+  </si>
+  <si>
+    <t>Keep Going I'm currently writing my cheesy overplayed dystopian teen hero book write now and at moments I can't help but think wow this really sucks, but keep going. Just get it all out finish the book and work on fixing it later. 
+If along the way you realize that it's not fixable that's ok, start something else but for the rest of you keep going, don't think wow this cheesy love-hate book I'm writing is horrible and give up, accept that it's horrible and keep going finish it and work on fixing it once the hard part is over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was awarded my PhD (UK) this week. Some thoughts and advice I came back to uni (UK) as a mature student to do a Masters and ended up completing a PhD in Data Science. It was a 'non-typical' programme format and Covid made it very much a 'desk research' project, but I thought I'd share some thoughts:
+**Uncertainty:** The lack of clarity about various things was the main source of stress for me over the years. Until they told me i'd passed with minor corrections in my viva I was honestly unsure if anything i'd done was good enough. My supervisors weren't experts in the field or methods and gave me only limited reassurance. I would strongly advise trying to get external feedback on what you're doing. Getting published is obviously the peak version of this (just submitting for publication is helpful though), but there are  also conferences or just approaching other experts in your field. Anything to get someone to validate that what you're doing is ok will reduce stress for you and hopefully reduce the amount of things you need to fix after your viva. 
+**Workload:** If i'm honest, the amount of time that I needed to spend on my core PhD activities (reading, conducting research, analysis writing etc) wasn't that much. Maybe 25-30 hours a week. The rest of what I did was optional - graduate teaching (which I strongly recommend), organising and presenting at events, additional training, conferences etc. If you find that you don't have enough time to do everything and are getting stressed then ask yourself what is actually necessary for your PhD - ignore your supervisors if you have to. No one is going to throw you out of uni for not doing all the random shit they suggest. Have the courage to say no and prioritise your actual work. Despite what I put above, I didn't actually have anything published. 
+**'Bad Spells':** I had a number of periods where I was questioning everything - Is this really going to work out? Do I have the proper experience to complete this? Are they going to find out that i'm a fraud and I don't actually know what i'm doing? Ultimately though I found out that I was imagining much higher standards than was actually expected. There were also times where I would go an entire week of just sitting at a screen and not typing a word. The only thing that would kick me out of this was meetings with supervisors and other deadlines that forced me to get things done. I personally found it better to keep busy rather than obsesses over my mental health. 'Resting' was the worst thing I could do - It was much better to create some kind of event (agreeing to present work to people etc) and get back working. </t>
+  </si>
+  <si>
+    <t>For novels, create an outline or just write? I have had success creating novels using both outlines and just writing with the ideas in my head. What works best for you?</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/hu0ix5577z3c1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/17ubj5d/deus_ex_machina_its_usually_bad_but_sometimes_it/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/12mzl6f/does_anyone_have_a_system_for_becoming_a_better/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/composer/comments/7px7kp/discussion_college_interviews/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/ac8pxu/my_editor_hated_the_ending_of_my_wip/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/gahvut/how_to_start_makingselling_prints_of_my_artwork/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1aupxss</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/arttools/comments/c0e0rx/help_putting_a_set_of_brushes_together/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/Composition/comments/83v8dl/two_piano_pieces/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/krzj6k/a_look_at_japanese_author_haruki_murakamis_daily/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/g9wlfi/i_got_my_first_commission_request_im_nervous/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/Composition/comments/kgzptl/good_book_recommendations_on_composition/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/freelanceWriters/comments/img5ht/what_pieces_should_be_in_my_portfolio/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/ofzt8d/is_art_you_made_by_accident_still_good_art/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/162pp8x/how_to_write_male_best_friends_without_implying/</t>
   </si>
   <si>
     <t>https://www.reddit.com/r/ArtistLounge/comments/os77tv/how_do_conceptual_artists_practice/</t>
   </si>
   <si>
+    <t>https://www.reddit.com/r/arttools/comments/juyqt0/can_you_help_me_replace_this_vintage_roll_media/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/lvl9vs/how_the_hell_do_i_use_a_pen_and_mouse_in_windows/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writers/comments/120npvy/pitch_as_light_fantasy_or_speculative_historical/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1c0oe0u</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writers/comments/g16hy1/advice_on_how_to_leave_the_editor_at_the_door/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/oilpainting/comments/rol4if/what_are_some_storebought_alternatives_to/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/vlvqt3/when_writing_your_first_draft_do_you_follow_any/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/composer/comments/cni86z/composition_course_day_zero/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/freelanceWriters/comments/yyy4b4/how_to_handle_a_client_who_always_pays_late/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/gallery/1df7g79</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/h91zdr/do_you_have_a_creative_writing_space/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/painting/comments/bo6t4l/got_back_into_painting_after_a_few_months_hiatus/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/composer/comments/lfxh7z/funereal_for_string_orchestra/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/axlhv3/how_important_is_the_bechdel_test/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/z0k3ja/using_writing_as_a_way_to_cope_with_loneliness/</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/j3046g4cej3e1.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/Composition/comments/r875yc/theory_created_a_vacuum/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/187rhk4/what_is_the_most_mundane_place_youve_been_or_most/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writers/comments/px53s0/anyone_here_writing_horror_novels_or_stories_if/</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/de1213thxlsb1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/8dn28k/whats_the_difference_between_free_indirect_style/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/9rj05l/confession_sometimes_when_im_dragging_some_of_my/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/ior01h/constructive_rant_time_dont_listen_to_the_people/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/PhD/comments/jd52hi/do_i_need_to_copyright_my_dissertation/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/Art/comments/cfw8x8/how_to_frame_canvas_prints_reproductions/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/x5r0bz/posting_art_online/</t>
+  </si>
+  <si>
     <t>https://www.reddit.com/r/PhD/comments/rxlcbs/what_did_you_all_do_after_your_first_manuscript/</t>
   </si>
   <si>
-    <t>https://www.reddit.com/r/writing/comments/ac8pxu/my_editor_hated_the_ending_of_my_wip/</t>
+    <t>https://www.reddit.com/r/ArtistLounge/comments/mpe9k9/the_toxic_myth_of_the_tortured_mentally_ill/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/ufwwz5/the_authors_responsibility/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/PhD/comments/8r7vux/wouldnt_it_be_great_if_there_is_a_tool_for/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/composer/comments/klj7ft/oboe_solo/</t>
   </si>
   <si>
     <t>https://www.reddit.com/r/writers/comments/1e1blj0/are_people_going_to_be_upset_with_me_for_hiring_a/</t>
   </si>
   <si>
-    <t>https://www.reddit.com/r/arttools/comments/c0e0rx/help_putting_a_set_of_brushes_together/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/Composition/comments/83v8dl/two_piano_pieces/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writers/comments/g16hy1/advice_on_how_to_leave_the_editor_at_the_door/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/ufwwz5/the_authors_responsibility/</t>
-  </si>
-  <si>
-    <t>https://i.redd.it/hu0ix5577z3c1.jpg</t>
-  </si>
-  <si>
     <t>https://www.reddit.com/r/writing/comments/bsbmna/should_i_include_footnotes_in_my_novel/</t>
   </si>
   <si>
-    <t>https://www.reddit.com/r/writing/comments/8dn28k/whats_the_difference_between_free_indirect_style/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/freelanceWriters/comments/yyy4b4/how_to_handle_a_client_who_always_pays_late/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writers/comments/px53s0/anyone_here_writing_horror_novels_or_stories_if/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/arttools/comments/juyqt0/can_you_help_me_replace_this_vintage_roll_media/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/ArtistLounge/comments/ior01h/constructive_rant_time_dont_listen_to_the_people/</t>
+    <t>https://www.reddit.com/r/writing/comments/p7jysv/what_immediately_makes_a_piece_of_writing_look_bad/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/82bvek/harmony_of_part_to_whole_in_short_stories/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/writing/comments/bcxqtr/keep_going/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/PhD/comments/17swxhp/i_was_awarded_my_phd_uk_this_week_some_thoughts/</t>
   </si>
   <si>
     <t>https://www.reddit.com/r/writing/comments/jtrcz6/for_novels_create_an_outline_or_just_write/</t>
   </si>
   <si>
-    <t>https://www.reddit.com/r/ArtistLounge/comments/x5r0bz/posting_art_online/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/composer/comments/lfxh7z/funereal_for_string_orchestra/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/composer/comments/klj7ft/oboe_solo/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/Composition/comments/kgzptl/good_book_recommendations_on_composition/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/PhD/comments/jd52hi/do_i_need_to_copyright_my_dissertation/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/h91zdr/do_you_have_a_creative_writing_space/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/Art/comments/cfw8x8/how_to_frame_canvas_prints_reproductions/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/PhD/comments/17swxhp/i_was_awarded_my_phd_uk_this_week_some_thoughts/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/9rj05l/confession_sometimes_when_im_dragging_some_of_my/</t>
-  </si>
-  <si>
-    <t>https://i.redd.it/j3046g4cej3e1.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/82bvek/harmony_of_part_to_whole_in_short_stories/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/axlhv3/how_important_is_the_bechdel_test/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/17ubj5d/deus_ex_machina_its_usually_bad_but_sometimes_it/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/freelanceWriters/comments/img5ht/what_pieces_should_be_in_my_portfolio/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/oilpainting/comments/rol4if/what_are_some_storebought_alternatives_to/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/composer/comments/7px7kp/discussion_college_interviews/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/12mzl6f/does_anyone_have_a_system_for_becoming_a_better/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/gallery/1df7g79</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/composer/comments/cni86z/composition_course_day_zero/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/bcxqtr/keep_going/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/painting/comments/bo6t4l/got_back_into_painting_after_a_few_months_hiatus/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/ArtistLounge/comments/ofzt8d/is_art_you_made_by_accident_still_good_art/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/ArtistLounge/comments/mpe9k9/the_toxic_myth_of_the_tortured_mentally_ill/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/gallery/1c0oe0u</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/krzj6k/a_look_at_japanese_author_haruki_murakamis_daily/</t>
-  </si>
-  <si>
-    <t>https://i.redd.it/de1213thxlsb1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/p7jysv/what_immediately_makes_a_piece_of_writing_look_bad/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/ArtistLounge/comments/g9wlfi/i_got_my_first_commission_request_im_nervous/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/162pp8x/how_to_write_male_best_friends_without_implying/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/ArtistLounge/comments/gahvut/how_to_start_makingselling_prints_of_my_artwork/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/ArtistLounge/comments/lvl9vs/how_the_hell_do_i_use_a_pen_and_mouse_in_windows/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writers/comments/120npvy/pitch_as_light_fantasy_or_speculative_historical/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/187rhk4/what_is_the_most_mundane_place_youve_been_or_most/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/gallery/1aupxss</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/Composition/comments/r875yc/theory_created_a_vacuum/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/vlvqt3/when_writing_your_first_draft_do_you_follow_any/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/PhD/comments/8r7vux/wouldnt_it_be_great_if_there_is_a_tool_for/</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/writing/comments/z0k3ja/using_writing_as_a_way_to_cope_with_loneliness/</t>
+    <t>1apdfp4</t>
+  </si>
+  <si>
+    <t>17w14j6</t>
+  </si>
+  <si>
+    <t>158dqpt</t>
+  </si>
+  <si>
+    <t>8cicnn</t>
+  </si>
+  <si>
+    <t>bvnsv5</t>
+  </si>
+  <si>
+    <t>gfxn4n</t>
+  </si>
+  <si>
+    <t>1bklrfz</t>
+  </si>
+  <si>
+    <t>cresvg</t>
+  </si>
+  <si>
+    <t>9c09r5</t>
+  </si>
+  <si>
+    <t>ks5k60</t>
+  </si>
+  <si>
+    <t>gjdrnc</t>
+  </si>
+  <si>
+    <t>l96dsi</t>
+  </si>
+  <si>
+    <t>j0t02f</t>
+  </si>
+  <si>
+    <t>pcfalh</t>
+  </si>
+  <si>
+    <t>19auoge</t>
   </si>
   <si>
     <t>ou0gbb</t>
   </si>
   <si>
+    <t>m5zyvm</t>
+  </si>
+  <si>
+    <t>npxk7t</t>
+  </si>
+  <si>
+    <t>121rsgc</t>
+  </si>
+  <si>
+    <t>1crng63</t>
+  </si>
+  <si>
+    <t>gypapi</t>
+  </si>
+  <si>
+    <t>v9bvgf</t>
+  </si>
+  <si>
+    <t>yanikn</t>
+  </si>
+  <si>
+    <t>cni3of</t>
+  </si>
+  <si>
+    <t>yyywpu</t>
+  </si>
+  <si>
+    <t>1et44li</t>
+  </si>
+  <si>
+    <t>i1cn1j</t>
+  </si>
+  <si>
+    <t>cin6lr</t>
+  </si>
+  <si>
+    <t>lhd7bs</t>
+  </si>
+  <si>
+    <t>bdwau9</t>
+  </si>
+  <si>
+    <t>z15wfk</t>
+  </si>
+  <si>
+    <t>1h202f0</t>
+  </si>
+  <si>
+    <t>r8zwfu</t>
+  </si>
+  <si>
+    <t>188h1ux</t>
+  </si>
+  <si>
+    <t>rxdjwt</t>
+  </si>
+  <si>
+    <t>17ybt7i</t>
+  </si>
+  <si>
+    <t>8tmsla</t>
+  </si>
+  <si>
+    <t>9yxkyu</t>
+  </si>
+  <si>
+    <t>jy4yb7</t>
+  </si>
+  <si>
+    <t>kk7k0g</t>
+  </si>
+  <si>
+    <t>dmr0l1</t>
+  </si>
+  <si>
+    <t>z5gmoq</t>
+  </si>
+  <si>
     <t>s69jwf</t>
   </si>
   <si>
-    <t>bvnsv5</t>
+    <t>mqzw44</t>
+  </si>
+  <si>
+    <t>v16k1g</t>
+  </si>
+  <si>
+    <t>8s592h</t>
+  </si>
+  <si>
+    <t>mf6x0j</t>
   </si>
   <si>
     <t>1e274s3</t>
   </si>
   <si>
-    <t>cresvg</t>
-  </si>
-  <si>
-    <t>9c09r5</t>
-  </si>
-  <si>
-    <t>gypapi</t>
-  </si>
-  <si>
-    <t>v16k1g</t>
-  </si>
-  <si>
-    <t>1apdfp4</t>
-  </si>
-  <si>
     <t>ckxagr</t>
   </si>
   <si>
-    <t>8tmsla</t>
-  </si>
-  <si>
-    <t>yyywpu</t>
-  </si>
-  <si>
-    <t>rxdjwt</t>
-  </si>
-  <si>
-    <t>m5zyvm</t>
-  </si>
-  <si>
-    <t>jy4yb7</t>
+    <t>pa3eny</t>
+  </si>
+  <si>
+    <t>88nj0v</t>
+  </si>
+  <si>
+    <t>bdklq2</t>
+  </si>
+  <si>
+    <t>184n42z</t>
   </si>
   <si>
     <t>kl7e1l</t>
   </si>
   <si>
-    <t>z5gmoq</t>
-  </si>
-  <si>
-    <t>lhd7bs</t>
-  </si>
-  <si>
-    <t>mf6x0j</t>
-  </si>
-  <si>
-    <t>l96dsi</t>
-  </si>
-  <si>
-    <t>kk7k0g</t>
-  </si>
-  <si>
-    <t>i1cn1j</t>
-  </si>
-  <si>
-    <t>dmr0l1</t>
-  </si>
-  <si>
-    <t>184n42z</t>
-  </si>
-  <si>
-    <t>9yxkyu</t>
-  </si>
-  <si>
-    <t>1h202f0</t>
-  </si>
-  <si>
-    <t>88nj0v</t>
-  </si>
-  <si>
-    <t>bdwau9</t>
-  </si>
-  <si>
-    <t>17w14j6</t>
-  </si>
-  <si>
-    <t>j0t02f</t>
-  </si>
-  <si>
-    <t>v9bvgf</t>
-  </si>
-  <si>
-    <t>8cicnn</t>
-  </si>
-  <si>
-    <t>158dqpt</t>
-  </si>
-  <si>
-    <t>1et44li</t>
-  </si>
-  <si>
-    <t>cni3of</t>
-  </si>
-  <si>
-    <t>bdklq2</t>
-  </si>
-  <si>
-    <t>cin6lr</t>
-  </si>
-  <si>
-    <t>pcfalh</t>
-  </si>
-  <si>
-    <t>mqzw44</t>
-  </si>
-  <si>
-    <t>1crng63</t>
-  </si>
-  <si>
-    <t>ks5k60</t>
-  </si>
-  <si>
-    <t>17ybt7i</t>
-  </si>
-  <si>
-    <t>pa3eny</t>
-  </si>
-  <si>
-    <t>gjdrnc</t>
-  </si>
-  <si>
-    <t>19auoge</t>
-  </si>
-  <si>
-    <t>gfxn4n</t>
-  </si>
-  <si>
-    <t>npxk7t</t>
-  </si>
-  <si>
-    <t>121rsgc</t>
-  </si>
-  <si>
-    <t>188h1ux</t>
-  </si>
-  <si>
-    <t>1bklrfz</t>
-  </si>
-  <si>
-    <t>r8zwfu</t>
-  </si>
-  <si>
-    <t>yanikn</t>
-  </si>
-  <si>
-    <t>8s592h</t>
-  </si>
-  <si>
-    <t>z15wfk</t>
+    <t>Tour riding 50-66km per day, for 6 consecutive days, no rest days. Feasible?</t>
+  </si>
+  <si>
+    <t>Can I make a makiwara with a 2x4?</t>
+  </si>
+  <si>
+    <t>Getting surfbod ready</t>
+  </si>
+  <si>
+    <t>HIIT Question</t>
+  </si>
+  <si>
+    <t>Sprained ankle - how long should I wait?</t>
+  </si>
+  <si>
+    <t>Is it normal to lose appetite after a run?</t>
+  </si>
+  <si>
+    <t>Welp. It ain't much, but it's honest work.</t>
+  </si>
+  <si>
+    <t>Help getting first set</t>
+  </si>
+  <si>
+    <t>Rolling the IT band?</t>
+  </si>
+  <si>
+    <t>A look at Stipe Miocic's training routine &amp; nutrition for UFC 241 and 252: “As you get older, you learn more about fitness because you’re not a spring chicken like you used to be.”</t>
+  </si>
+  <si>
+    <t>When starting couch to 5k, is it better to start on treadmill or outside?</t>
+  </si>
+  <si>
+    <t>Need Advice for Morning Runs with Sensitive Stomach</t>
+  </si>
+  <si>
+    <t>I Always Dress for Golf</t>
+  </si>
+  <si>
+    <t>How long should I spend training for two back-to-back half marathons?</t>
+  </si>
+  <si>
+    <t>Request for People Willing to Be Interviewed by College Students</t>
   </si>
   <si>
     <t>How can two experienced physios methods' differ so drastically?</t>
   </si>
   <si>
+    <t>Can anyone help me understand my problems with my Kickr Snap?</t>
+  </si>
+  <si>
+    <t>Really looking to get into archery, does it require in-person training?</t>
+  </si>
+  <si>
+    <t>Health problems to look out for when buying a mini?</t>
+  </si>
+  <si>
+    <t>5 years ago I was paralysed and on life support, the doctors said I would need a wheelchair for life... Here's a clip of me riding my skateboard again</t>
+  </si>
+  <si>
+    <t>Running after dark/before sunrise? Tips to feel safe?</t>
+  </si>
+  <si>
+    <t>Sockless , laceless running shoes?</t>
+  </si>
+  <si>
+    <t>The six second rule is rarely ever enforced, what other lesser known rules are ignored at the elite level?</t>
+  </si>
+  <si>
+    <t>Virtual race using Strava/GPS data</t>
+  </si>
+  <si>
+    <t>Swimming after COVID?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can anyone tell me what species these are? </t>
+  </si>
+  <si>
+    <t>Does anyone else seem to constantly suffer with Runner’s Knee?</t>
+  </si>
+  <si>
+    <t>How to improve at bouldering?</t>
+  </si>
+  <si>
+    <t>Prediction: Due to the popularity of the "NHL North", the NHL actually ends up keeping these divisions going forward</t>
+  </si>
+  <si>
+    <t>3D Printed Fishing Essentials?</t>
+  </si>
+  <si>
+    <t>Is biking in 20/30ºF bad for my bike?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just finished up this piece. Oil on Canvas, 24” x 18”. </t>
+  </si>
+  <si>
+    <t>3 cost-effective winter surf hacks</t>
+  </si>
+  <si>
+    <t>Looking to buy some books for my husband for Christmas. If you could only have five books in your sailing library, which titles would you include?</t>
+  </si>
+  <si>
+    <t>Calf Stretcher?</t>
+  </si>
+  <si>
+    <t>22 years experience</t>
+  </si>
+  <si>
+    <t>Rate of flexibility improvement?</t>
+  </si>
+  <si>
+    <t>Looking for a simple, budget-minded indoor trainer.</t>
+  </si>
+  <si>
+    <t>Using our ability to mimic others to help us improve our golf swings.</t>
+  </si>
+  <si>
+    <t>Which mobile (GPS) app do you use?</t>
+  </si>
+  <si>
+    <t>What exactly is "recovery"?</t>
+  </si>
+  <si>
+    <t>Do you see Haaland and Mbappe being the Messi and Ronaldo of their generation?</t>
+  </si>
+  <si>
     <t>Name changes and PT licensure?</t>
   </si>
   <si>
-    <t>Sprained ankle - how long should I wait?</t>
+    <t>Why does it seem like goalies are the most chill guys on the teams usually? Rarely see them fighting and I've seen them stopping other guys from fighting before.</t>
+  </si>
+  <si>
+    <t>Such a lovely sport - thank you Hamburg</t>
+  </si>
+  <si>
+    <t>It's scary as hell when descending at 50km/h... How do you train for it?</t>
+  </si>
+  <si>
+    <t>Best boat for single handed day sailing</t>
   </si>
   <si>
     <t>Cycling uphill: What am I doing wrong?</t>
   </si>
   <si>
-    <t>Help getting first set</t>
-  </si>
-  <si>
-    <t>Rolling the IT band?</t>
-  </si>
-  <si>
-    <t>Running after dark/before sunrise? Tips to feel safe?</t>
-  </si>
-  <si>
-    <t>Such a lovely sport - thank you Hamburg</t>
-  </si>
-  <si>
-    <t>Tour riding 50-66km per day, for 6 consecutive days, no rest days. Feasible?</t>
-  </si>
-  <si>
     <t>First day of shooting after six months</t>
   </si>
   <si>
-    <t>Rate of flexibility improvement?</t>
-  </si>
-  <si>
-    <t>Swimming after COVID?</t>
-  </si>
-  <si>
-    <t>Calf Stretcher?</t>
-  </si>
-  <si>
-    <t>Can anyone help me understand my problems with my Kickr Snap?</t>
-  </si>
-  <si>
-    <t>Using our ability to mimic others to help us improve our golf swings.</t>
+    <t>How do you calm down a frightened horse?</t>
+  </si>
+  <si>
+    <t>Programming for an Odd Work Schedule (3 Days On, 4 Days Off; Nightshift)</t>
+  </si>
+  <si>
+    <t>I hate working out it</t>
+  </si>
+  <si>
+    <t>What does it mean exactly to get fitted for golf clubs?</t>
   </si>
   <si>
     <t>Can I show dressage in my tan pants and navy blue jacket?</t>
   </si>
   <si>
-    <t>Do you see Haaland and Mbappe being the Messi and Ronaldo of their generation?</t>
-  </si>
-  <si>
-    <t>Prediction: Due to the popularity of the "NHL North", the NHL actually ends up keeping these divisions going forward</t>
-  </si>
-  <si>
-    <t>Best boat for single handed day sailing</t>
-  </si>
-  <si>
-    <t>Need Advice for Morning Runs with Sensitive Stomach</t>
-  </si>
-  <si>
-    <t>Which mobile (GPS) app do you use?</t>
-  </si>
-  <si>
-    <t>Does anyone else seem to constantly suffer with Runner’s Knee?</t>
-  </si>
-  <si>
-    <t>What exactly is "recovery"?</t>
-  </si>
-  <si>
-    <t>What does it mean exactly to get fitted for golf clubs?</t>
-  </si>
-  <si>
-    <t>Looking for a simple, budget-minded indoor trainer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just finished up this piece. Oil on Canvas, 24” x 18”. </t>
-  </si>
-  <si>
-    <t>Programming for an Odd Work Schedule (3 Days On, 4 Days Off; Nightshift)</t>
-  </si>
-  <si>
-    <t>3D Printed Fishing Essentials?</t>
-  </si>
-  <si>
-    <t>Can I make a makiwara with a 2x4?</t>
-  </si>
-  <si>
-    <t>I Always Dress for Golf</t>
-  </si>
-  <si>
-    <t>Sockless , laceless running shoes?</t>
-  </si>
-  <si>
-    <t>HIIT Question</t>
-  </si>
-  <si>
-    <t>Getting surfbod ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can anyone tell me what species these are? </t>
-  </si>
-  <si>
-    <t>Virtual race using Strava/GPS data</t>
-  </si>
-  <si>
-    <t>I hate working out it</t>
-  </si>
-  <si>
-    <t>How to improve at bouldering?</t>
-  </si>
-  <si>
-    <t>How long should I spend training for two back-to-back half marathons?</t>
-  </si>
-  <si>
-    <t>Why does it seem like goalies are the most chill guys on the teams usually? Rarely see them fighting and I've seen them stopping other guys from fighting before.</t>
-  </si>
-  <si>
-    <t>5 years ago I was paralysed and on life support, the doctors said I would need a wheelchair for life... Here's a clip of me riding my skateboard again</t>
-  </si>
-  <si>
-    <t>A look at Stipe Miocic's training routine &amp; nutrition for UFC 241 and 252: “As you get older, you learn more about fitness because you’re not a spring chicken like you used to be.”</t>
-  </si>
-  <si>
-    <t>22 years experience</t>
-  </si>
-  <si>
-    <t>How do you calm down a frightened horse?</t>
-  </si>
-  <si>
-    <t>When starting couch to 5k, is it better to start on treadmill or outside?</t>
-  </si>
-  <si>
-    <t>Request for People Willing to Be Interviewed by College Students</t>
-  </si>
-  <si>
-    <t>Is it normal to lose appetite after a run?</t>
-  </si>
-  <si>
-    <t>Really looking to get into archery, does it require in-person training?</t>
-  </si>
-  <si>
-    <t>Health problems to look out for when buying a mini?</t>
-  </si>
-  <si>
-    <t>Looking to buy some books for my husband for Christmas. If you could only have five books in your sailing library, which titles would you include?</t>
-  </si>
-  <si>
-    <t>Welp. It ain't much, but it's honest work.</t>
-  </si>
-  <si>
-    <t>3 cost-effective winter surf hacks</t>
-  </si>
-  <si>
-    <t>The six second rule is rarely ever enforced, what other lesser known rules are ignored at the elite level?</t>
-  </si>
-  <si>
-    <t>It's scary as hell when descending at 50km/h... How do you train for it?</t>
-  </si>
-  <si>
-    <t>Is biking in 20/30ºF bad for my bike?</t>
+    <t>We're considering this Netherlands cycling tour company that arranges luggage pottering and hotel bookings. We considered booking on our own but many of the accommodations in the smaller towns are fully booked because there are only a few inns.
+We would be riding fairly slow, and daylight will be long. However, there might be wind and rain in May. The 66km portions are making me nervous. I'm worried about the lack of rest days. 
+At home, whenever I ride 50km in one day, I have to take a rest day the next day. I'm a casual rider and I haven't done much training. My bike is an upright gravel bike, similar to the Dutch bikes that the company would offer. They also have electric, but of the same upright geometry.</t>
+  </si>
+  <si>
+    <t>I find myself with some extra 2x4s and I'm thinking about sticking one in the ground then putting a pad on it to make a makiwara. Y'all reckon that'd work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Been out the water a loooong time. 
+I lift 4-5 times a week, run twice, play football. Will hopefully be back in the water towards the end of year so have some lead time to focus my work outs more towards being well prepared. 
+My thought is just "swim" but I find it quite unstimulating at times, so wondering if there is something  calisthenics based that may be more suitable. </t>
+  </si>
+  <si>
+    <t>New to doing HIIT workouts. I looked at one of the guides and it was recommending to start with a 1:4 ratio of the high intensity and then light jogging for about 15 minutes. If I can't do the whole 15 minutes is it better to a) reduce it to like 10 minutes/what I can do or b) reduce the light jogging to more of a walking so I still get in like 12 sprint/hard work sessions?</t>
+  </si>
+  <si>
+    <t>I was out on a ride about 10 days ago and was moving to the left to make a left hand turn. 
+The light at the intersection was red, so I slowed down to come to a stop. 
+A car clipped my back wheel and even though I was u clipped on my right (my dominant side), I fell to the left. 
+Since I’m so new to riding with clips (this was my fifth ride with them), I couldn’t unclip fast enough and I fell hard and twisted my ankle. 
+I got up, saw the car speeding off around the bend (he ran a red light to get away from me), but couldn’t identify the car or plate number. 
+I pulled myself to the side of the road, took me shoes off for a few and sat there in shock of what happened. 
+A cop stopped to check on me on his way to the station. But since I couldn’t identify the car (I was too busy focusing on not cracking my skull open to look at the car) he said there wasn’t much we could do. 
+I felt okay, so I got up and put my shoes back on and headed home. Thankfully I was only about 1.5 miles from my house and I pedaled as best I could until I hit a hill and needed to put pressure on my left ankle. As soon as I did that, I knew something was wrong. I unclipped and dangled my left leg and peddled with just my right. 
+After getting in my house and changing, I went to urgent care and they x-rayed my ankle and found it was sprained. They gave me an air cast, crutches, an ace bandage and told me to take it easy. 
+I’ve been off the crutches since the second day, and can walk misty fine (other than going down stairs - that’s painful and slow). I’m still elevating it all the time and trying to not put weight on it unless I need to. 
+How long should I expect to not ride for? Aside from being scared to get hit by another car, I’m ready to get back out there but don’t want to rush anything and maybe make my ankle worse. 
+Thanks for any advice from anyone that’s been in this situation before.</t>
+  </si>
+  <si>
+    <t>I \[17F\] recently started running on the treadmill every day. Before this, I was pretty inactive because I don't play any sports in school and the only physical movement I got before was walking my dog for about a mile. However, before I started running, I loved eating food and had a pretty big appetite. Now, I can go into the run hungry and finish not in the mood to eat anything. Is this normal? It seems like I should feel extra hungry after a workout. I run about two miles a day at a comfortable jogging pace (6-7 mph), which I'll admit, is a lot for me for right now. 
+I also find myself eating significantly less food throughout the day. I never feel hungry anymore and only eat two meals in the day on average with one being small.</t>
+  </si>
+  <si>
+    <t>Gifted mats, a $5 consignment net that is tiny as f***, and some paracord + tarp between 2 trees. Oh and one bag of range balls...
+Life is good. Enough.</t>
+  </si>
+  <si>
+    <t>Hi everyone ,
+Brand new to golf , is a used taylormade m2 golf set good to start with ??? Thank you in advance</t>
+  </si>
+  <si>
+    <t>Hi all,
+Recently it's come to my attention that I have a strange issue with my knees (more specifically, between the middle of my upper leg to middle of my lower). The best way I can describe it is that it feels like I have bad circulation; I kind of feel stiff unless I move my legs a lot, running helps make the discomfort recede a bit. I used to think it was just because I'm less active than before, but the discomfort all but completely disappeared when I took a two week break from dancing. My ballroom coach recommended I try rolling the IT band, but almost every single site I've seen highly recommends *against* it. I also tend to stand with my feet pointed outward, and as a result my knees tend not to index completely straight in between my toes. Do any of you have experience with rolling the IT in a ballroom context? Are there other aspects to it that a runner (for example) might not necessarily need to consider?</t>
+  </si>
+  <si>
+    <t>As a part-time firefighter and UFC champion, Miocic has to balance his gruelling MMA training schedule, five to six days a week, often with double daily sessions, and his work at the firestation — three days a week, 12-14 hours per shift.
+Mondays are dedicated to boxing and kickboxing; Tuesdays are for grappling; Wednesdays are for pad work; Thursdays are MMA drills; Fridays are focused on perfecting different techniques; and Saturdays are for wrestling and jiu-jitsu.
+For his strength and conditioning, Miocic is a big fan of pool workouts, preferring them over the traditional roadwork most fighters and boxers include in their training. These days, when Miocic goes for a run, usually no more than 3-4 miles once or twice a week, he does it on an anti-gravity treadmill to ease up the wear and tear on his body.
+“I use an anti-gravity treadmill which lifts me up so I don’t put all the pressure and weight on my legs,” Miocic said. ”It makes me feel a lot lighter than I really am. It helps.”
+Miocic also avoids traditional weightlifting, opting for functional training with a focus on muscular endurance. “I don’t so much do deadlifts, squats or bench,” he said. “It’s more jump squats, pullups, lots of ligament strength, functional strength, stuff like that.”
+“You can lift all the weights you want and be as strong as you want but if you don’t have the endurance you’re going to get tired fast. I do a lot of five-minute rounds with one type of exercise.”
+At 38 year years old, Miocic can no longer go all-out in training like he did in his 20s; the champ has to be smarter about his training and recovery routines, looking at every aspect holistically, rather than trying to squeeze every last mile during a session.
+“I think just being really diligent with what you do, and understanding your body helps a lot,” Miocic told Heavy. “As you get older, you learn more about fitness because you’re not a spring chicken like you used to be.”
+On the occasion that Miocic feels too worn out to finish training for the week, he’ll take a break. “By Thursday, I’m exhausted. I’m beat up. I’m sore. My coaches will sometimes tell me I’m done and to take the rest of the weekend off,” Miocic said. “On Friday, Saturday, and Sunday, I rest up. I eat good. I stretch out.”
+Check out the full article here: [https://www.balancethegrind.com.au/daily-routines/stipe-miocic-daily-routine/](https://www.balancethegrind.com.au/daily-routines/stipe-miocic-daily-routine/)</t>
+  </si>
+  <si>
+    <t>I’m 20F, have never been good at running but I have a deep desire to enjoy it and I decided that I’m going to start couch to 5k. 
+I’m just wondering, as a complete non-runner, someone who can’t even run for 1 minute without getting out of breath, would it be better for me to start on the treadmill in my house or outside on the pavement around my neighborhood?</t>
+  </si>
+  <si>
+    <t>Hello!  I just joined r/running recently and I'm loving the community!   I am currently doing a 6-week training for a 5k and have been doing my runs in the evening.  I would love to get more into running in the morning to start the day off with some fresh air, however, the couple of times I've tried, I felt super nauseous.  I'm thinking it has to do with how long I let my breakfast digest.  What is your advice?  What do you normally eat/drink before a morning run and how long do you let it digest before you go?  Thanks!</t>
+  </si>
+  <si>
+    <t>When I left to play today my family noted that I looked like I was dressed for work (burgundy golf shirt &amp; khakis). 
+I said, “No. I always dress for golf, but I usually have to go to work.”</t>
+  </si>
+  <si>
+    <t>I am looking into doing two half marathons in two days. It is in less than 4 weeks. I have been running on and off, the most I've ever run being 10.5 miles, which was not extremely difficult for me. How realistic is it to do two half marathons in a weekend? Will approx. 3 weeks be enough training time? Or will this just put me at high risk of injury?</t>
+  </si>
+  <si>
+    <t>Hi all!  I teach a class on Psychology as a Profession, and many of my students are interested in pursuing physical therapy.  One of the projects involves an email interview with a graduate about their career.  If you:
+1. Have a college degree in Psychology at any level,
+2. Are currently employed, and
+3. Would be willing to answer \~5 questions about your career path by email at some point in February
+Then please fill out this form: [https://forms.gle/UcPbGTjfbBeAbtFd9](https://forms.gle/UcPbGTjfbBeAbtFd9).   Not every single person on the list will end up interviewed, but I have a lot of students who want to go into physical therapy, so I  appreciate all volunteers.
+**Please note that the form will ask for your real name, job title, and contact  info, so you may not want to comment on this post saying that you  completed it.**
+Thank you!</t>
   </si>
   <si>
     <t>I have a very slight herniation at L5/S1. Lordosis. Slight scoliosis. 
@@ -1736,6 +1817,110 @@
 Both physios have rehabbed hundreds of top athletes successfully.  Who's right?</t>
   </si>
   <si>
+    <t>So my Kickr Snap more or less works correctly. The resistance does change in relation to what the software (Rouvy and Fulgaz) say the terrain is doing. The problem I run into is that the trainer doesn't provide anything close to enough resistance on the flats and especially downhill. It reports flats speed about 70% faster that my actual real-world speed on the flats and there's just no way I'm reaching more than 50mph on a 4% downhill when I'm cadence-limited to 26mph due to gearing.
+I have run multiple spindowns and it doesn't complain about problems when I do it. However, it doesn't report a spindown time or temp either and the online guides show that happening. I'm assuming that's a software update from Wahoo. The spindown does take 2-3x longer than the people show in the youtube videos though. 
+Any idea what I should troubleshoot?</t>
+  </si>
+  <si>
+    <t>I wouldn’t even think to touch a gun without training, and obviously any weapon should be respected. But, is it as important you are properly trained in safety and basics with simple target archery?
+Edit: busy so I can’t individually respond yet, but let’s of great info. Thanks everyone, I’ll look into a club near me!</t>
+  </si>
+  <si>
+    <t>I'm looking to get a couple of small horses for my farm. I'm a seasoned horse person so I know the basic things to look out for, but I have no experience with minis. I'm thinking of going with Mini Shetlands. Any experienced mini people here that have tips on what specifically these little guys might have issues with?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got GBS spent 13 weeks in ICU fully ventilated on life support and I lost about 30kgs. The doctors didn't think I'd walk again but 5 years of hard work later here's a little clip of me skating again. Skateboarding is pure magic </t>
+  </si>
+  <si>
+    <t>I’m a night creature. I go to bed as the sun rises and wake as it sets. It’s both part of my personality and part of a sleep discord (DSPD, if anyone is curious.) 
+I don’t even feel comfortable walking to my apartment gym at night, or walking from my car to my usual gym at night... right now, my gyms are closed/limited hours. 
+For people who run while it’s dark, is there any way you have yourself feel safe? Buddy system is out of the question right now cause I just moved somewhere new recently and don’t know anyone (plus #socialdistancing.)
+Or do I just need to suck it up, either stay up a little later (earlier) and go during sunrise/go when I first wake up and there’s still some sun?
+Edit: I appreciate car safety but as a 5'3" girl, I'm a bit more concerned about other people (which, I know some of the car safety also applies to, given if you're more noticeable to onlookers, you're less of a target for anyone who may harm you.)</t>
+  </si>
+  <si>
+    <t>In order to make it easier for me to run, I want to reduce any time needed to prep. Are there any running shoes that can be worn without socks and don’t have laces. I also want to wear them to my gym</t>
+  </si>
+  <si>
+    <t>I feel like I see foul throws constantly and they’re never penalised. 
+The six second rule is obviously massive and there’s examples of keepers holding onto the ball for 20+ seconds.
+What else is overlooked in the rule book?</t>
+  </si>
+  <si>
+    <t>I have my commutes recorded on Strava - is there any way I can see those rides 'competing' against each other on a map, like little dots travelling down the route in real time? Either in Strava or using GPS data in another website/app.</t>
+  </si>
+  <si>
+    <t>People who have had COVID: how long after your recovery did you go back to swimming? I've been reading that strenuous physical activity should be avoided for a while.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First double up on two mystery fish? 
+Fall Fish and deformed Largemouth?? </t>
+  </si>
+  <si>
+    <t>Honestly I feel like I’ve tried everything and my knees still end up really sore during and after my run. I have crepitus too which doesn’t help. Does anyone have any tips?</t>
+  </si>
+  <si>
+    <t>I've been climbing for the better part of 2 years, starting with top rope, then lead, and now I'm getting into bouldering to improve fitness. Most of that has been in the gym, with a few forays outside.
+I feel like I progressed pretty well with top rope and lead climbing, but bouldering has been tough to get good at. I feel like I really need to up my game to make  progress, and climbing a couple days a week isn't enough. What do you guys recommend for improvement? How many days should I boulder/rope climb? Are there good strength exercises I should be doing?
+For reference, I'm a solid 5.11 tope-roper and v2 climber in the gym.</t>
+  </si>
+  <si>
+    <t>And Seattle eventually joins the Canadian teams, but the league goes with unbalanced divisions for a season or so.</t>
+  </si>
+  <si>
+    <t>Just got myself a Ender 3 printer, and now fishing season is back in full swing I realized that maybe I could use one hobby to facilitate the other.
+If any anglers out there have any suggestions for tools or adapters or even lures that I could make using a FDM printer, I'd love to hear them</t>
+  </si>
+  <si>
+    <t>I'm less worried about if I'll be warm enough (I have enough layers), but is this not advisable for my bike? 
+Thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still needs some final tweaks, a signature and varnish. </t>
+  </si>
+  <si>
+    <t>**GET THE BOOTS ON/OFF FASTER** \- Tired of standing in a 39F parking lot after a session like a dingus, wrestling with your boots as you lose body heat? Verily I say unto you my brethren. Just slip on some special calf high socks which enable the boots to slip on and off 17x faster. And dont fall for the commonly sold $35 "frictionless wetsuits socks". Here's a [an identical product](https://www.amazon.com/gp/product/B08B5X3LSK/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;th=1) for only $14, with split toe! Bonus: they add +1 warmth inside your boots. My shoe size is 9.5 and size M fits just right.  
+**DRY THE BOOTS AND GLOVES FASTER** \- Sure, you can turn your gloves inside so they dry, but then you're stressing the seams like a knuckle-dragger. Then you stuff your boots with newspaper, right? Wrong.  They both end up smelling like the dagobah system because they never completely dry. Don't fret. Just get [one of these $25 boot and glove dryers!](https://www.amazon.com/gp/product/B07HZ5F4FT/ref=ppx_yo_dt_b_asin_title_o02_s00?ie=UTF8&amp;psc=1) Such a simple solution and no power needed. Just place this little bastard over your heater vent and let the air blow through like the great northern wind. They'll be bone(r) dry in the morning.  
+**COST EFFECTIVE NEOPRENE SOAP** \- SinkTheStink.. $15 for four measily ounces? Hell no. Bud is probably less expensive by now. Do what our scuba ancestors do, drive on down to Home Depot and buy an [ENTIRE GALLON](https://www.homedepot.com/p/Simple-Green-1-Gal-Concentrated-All-Purpose-Cleaner-2730103613005/100060853?source=shoppingads&amp;locale=en-US&amp;&amp;mtc=Shopping-B-F_D28I-G-D28I-028_004_CLEANING-NA-NA-NA-SMART-NA-NA-SMART_SHP&amp;cm_mmc=Shopping-B-F_D28I-G-D28I-028_004_CLEANING-NA-NA-NA-SMART-NA-NA-SMART_SHP-71700000080943625-58700006818240510-92700061594810356&amp;gclid=CjwKCAiAwKyNBhBfEiwA_mrUMnDbaQj5f6M2Kl2C5X0F6EuWjBarK_S23gg8hXPRcrrCc4OUEKMxYxoCoGUQAvD_BwE&amp;gclsrc=aw.ds) that does the same thing for only $9.97. Hear me know, believe me later.</t>
+  </si>
+  <si>
+    <t>Looking for non-fiction (We already own the ASA 101, 103, 104, and 114 books).
+ I purchased Sailing Alone Around the World, Two Years Before the Mast, The Last Grain Race, and Get Real, Get Gone for him last year.</t>
+  </si>
+  <si>
+    <t>I just started running again and my ankles shins and Achilles tighten up a lot during the run and hurt.
+I've the foot rockers that stretch calfs and help with things like plantar fasciits.
+Are they worth it?</t>
+  </si>
+  <si>
+    <t>I completed my bachelor’s degree 2001 in Southeast Asia. I have been working as a PT since then. I moved to the United States 2012 and continued working as PT. I am guessing I was ‘grandfathered’ into the system which allowed me to continue working without needing to transition to a DPT. I noticed when I get job interviews people try to disregard my 10 years of prior experience 2001 to 2011) simply because it wasn’t in US soil. Why is this the case? Are they simply trying to dodge factoring that chunk of work experience into the pay offer?</t>
+  </si>
+  <si>
+    <t>It seems to be common knowledge in the fitness community how quickly you can shed fat or put on muscle. But what is the rate for improving flexibility?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's that time of the year again where my part of the state starts to resemble the planet Hoth. Tons of ice and snow, which means that riding outdoors is pretty much a no-go. I've been browsing the indoor trainer market and there seems to be a ton of options, and I'm frankly a bit overwhelmed.
+One thing I do know; I don't need a smart trainer. I don't race or cycle competitively, and frankly I'm not even that obsessive about tracking data related to rides. Mostly I'm just looking for something that's in my budget (preferably around $100-$150) that keeps my legs moving, gets my heart rate up, and won't fall to pieces after a few weeks. My current exercise regimen has me either riding or running three times a week for about 40-50 minutes. 
+I've looked on my local craigslist for used ones, but cycling isn't exactly popular here so it's slim pickings. If it makes any difference I'm riding a 2014 Motobecane Mirage. 
+Thank you! </t>
+  </si>
+  <si>
+    <t>So this is an idea that I have been thinking about for a bit now. It' fascinates me how easily we learn when we have a model that we can mimic. It's part of the reason why kids are such great learners, they are merely great imitators. It's also interesting to note that many great players, picked up the game through imitation. Sam Snead imitated his brother Homer and George Knudson imitated Hogan. Tiger imitated his dad who was a scratch player. 
+Clearly there's some value to imitating but the question is how can we use it to our advantage if our club doesn't offer the best talent to mimic? Who do we mimic and how?
+Now of course, I don't want to re-write my blog post so if this interests you feel free to check out the link below where I expand more on the concept and introduce a way that we can mimic great players while we are on the range.
+[https://fiveunderpar.wordpress.com/2020/11/21/monkey-see-monkey-do-on-the-range/](https://fiveunderpar.wordpress.com/2020/11/21/monkey-see-monkey-do-on-the-range/)</t>
+  </si>
+  <si>
+    <t>Note if you're using the Free or Paid version in the comments if you don't mind!
+[View Poll](https://www.reddit.com/poll/kk7k0g)</t>
+  </si>
+  <si>
+    <t>When am I considered to be "recovered" from a workout and ready for another?  Is it just when I have no aches or pains and feel ready, or is it when my body is done repairing micro-damage to my muscles?</t>
+  </si>
+  <si>
+    <t>They are doing better than Messi and Ronaldo at their age. Is there any other player that can keep up with them?</t>
+  </si>
+  <si>
     <t>Hi fellow PTs!
 Getting married next year and while I have time to figure this out I saw a post on the wedding planning sub asking about name changes and it got me thinking.
 Right now I’m considering taking my fiancé’s last name but also keeping my own, so I would have two last names. (not hyphenated) 
@@ -1743,18 +1928,17 @@
 Those who have changed their name-how much of a process and pain was it? Was it worth it or do you wish you had kept your own name?</t>
   </si>
   <si>
-    <t>I was out on a ride about 10 days ago and was moving to the left to make a left hand turn. 
-The light at the intersection was red, so I slowed down to come to a stop. 
-A car clipped my back wheel and even though I was u clipped on my right (my dominant side), I fell to the left. 
-Since I’m so new to riding with clips (this was my fifth ride with them), I couldn’t unclip fast enough and I fell hard and twisted my ankle. 
-I got up, saw the car speeding off around the bend (he ran a red light to get away from me), but couldn’t identify the car or plate number. 
-I pulled myself to the side of the road, took me shoes off for a few and sat there in shock of what happened. 
-A cop stopped to check on me on his way to the station. But since I couldn’t identify the car (I was too busy focusing on not cracking my skull open to look at the car) he said there wasn’t much we could do. 
-I felt okay, so I got up and put my shoes back on and headed home. Thankfully I was only about 1.5 miles from my house and I pedaled as best I could until I hit a hill and needed to put pressure on my left ankle. As soon as I did that, I knew something was wrong. I unclipped and dangled my left leg and peddled with just my right. 
-After getting in my house and changing, I went to urgent care and they x-rayed my ankle and found it was sprained. They gave me an air cast, crutches, an ace bandage and told me to take it easy. 
-I’ve been off the crutches since the second day, and can walk misty fine (other than going down stairs - that’s painful and slow). I’m still elevating it all the time and trying to not put weight on it unless I need to. 
-How long should I expect to not ride for? Aside from being scared to get hit by another car, I’m ready to get back out there but don’t want to rush anything and maybe make my ankle worse. 
-Thanks for any advice from anyone that’s been in this situation before.</t>
+    <t>Is there something inherent to being a goalie that is best for having a calm personality or am I crazy and wrong?</t>
+  </si>
+  <si>
+    <t>I have practiced sabre for only two years. Still I got a chance to participate in the veterans’ team European Championships in Hamburg last weekend. It was such a thrill to fence with way superior athletes and to still be able to score a few touches on them.
+Before starting my practices I could never have been able to dream about the pleasures it can bring (after quite a few more painful moments). So, thank you very much all my fellow practioners and especially those ones who were part of making that experience real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slamming on the break will do no good as others will break up and soon enough you will be out of sight... </t>
+  </si>
+  <si>
+    <t>I’m a sailor who is almost ready to purchase a boat, I race for my school, and I want to be able to take friends out on it, but I’m the only sailor. My budget is $10000 and I would like to have it be trailerable. What is the best boat for this, I’ve heard the J24 is good for this.</t>
   </si>
   <si>
     <t xml:space="preserve">My bicycle is my  main method of transport in the summer. And yet when going up an incline of any length worth mentioning, I usually have to either dismount and lead the bike up, or take a break halfway to recover my strength. Since there is quite a bit of slopes in my town, this kind of sucks.
@@ -1763,127 +1947,18 @@
 </t>
   </si>
   <si>
-    <t>Hi everyone ,
-Brand new to golf , is a used taylormade m2 golf set good to start with ??? Thank you in advance</t>
-  </si>
-  <si>
-    <t>Hi all,
-Recently it's come to my attention that I have a strange issue with my knees (more specifically, between the middle of my upper leg to middle of my lower). The best way I can describe it is that it feels like I have bad circulation; I kind of feel stiff unless I move my legs a lot, running helps make the discomfort recede a bit. I used to think it was just because I'm less active than before, but the discomfort all but completely disappeared when I took a two week break from dancing. My ballroom coach recommended I try rolling the IT band, but almost every single site I've seen highly recommends *against* it. I also tend to stand with my feet pointed outward, and as a result my knees tend not to index completely straight in between my toes. Do any of you have experience with rolling the IT in a ballroom context? Are there other aspects to it that a runner (for example) might not necessarily need to consider?</t>
-  </si>
-  <si>
-    <t>I’m a night creature. I go to bed as the sun rises and wake as it sets. It’s both part of my personality and part of a sleep discord (DSPD, if anyone is curious.) 
-I don’t even feel comfortable walking to my apartment gym at night, or walking from my car to my usual gym at night... right now, my gyms are closed/limited hours. 
-For people who run while it’s dark, is there any way you have yourself feel safe? Buddy system is out of the question right now cause I just moved somewhere new recently and don’t know anyone (plus #socialdistancing.)
-Or do I just need to suck it up, either stay up a little later (earlier) and go during sunrise/go when I first wake up and there’s still some sun?
-Edit: I appreciate car safety but as a 5'3" girl, I'm a bit more concerned about other people (which, I know some of the car safety also applies to, given if you're more noticeable to onlookers, you're less of a target for anyone who may harm you.)</t>
-  </si>
-  <si>
-    <t>I have practiced sabre for only two years. Still I got a chance to participate in the veterans’ team European Championships in Hamburg last weekend. It was such a thrill to fence with way superior athletes and to still be able to score a few touches on them.
-Before starting my practices I could never have been able to dream about the pleasures it can bring (after quite a few more painful moments). So, thank you very much all my fellow practioners and especially those ones who were part of making that experience real.</t>
-  </si>
-  <si>
-    <t>We're considering this Netherlands cycling tour company that arranges luggage pottering and hotel bookings. We considered booking on our own but many of the accommodations in the smaller towns are fully booked because there are only a few inns.
-We would be riding fairly slow, and daylight will be long. However, there might be wind and rain in May. The 66km portions are making me nervous. I'm worried about the lack of rest days. 
-At home, whenever I ride 50km in one day, I have to take a rest day the next day. I'm a casual rider and I haven't done much training. My bike is an upright gravel bike, similar to the Dutch bikes that the company would offer. They also have electric, but of the same upright geometry.</t>
-  </si>
-  <si>
     <t>You'd think working as an archery instructor at a summer camp for two months I'd get my fill of archery. You'd be wrong. Shooting barebows that couldn't be more than 8lbs just didn't scratch that recurve itch; and my only other option was the 45lbs monster we called "Big Red." He was scary and was for the wrong hand.
 Shooting today was tiring I had to relearn a lot of old techniques and was only able to shoot at about 40ft. I really forgot how to adjust my sights and couldn't understand why I was getting less accurate! The good news was the shakes were only really starting to get to me by the end of the two hours, so "Big Red" must've kept my shoulder strong. 
 Looking forward to attending the next session and getting as much practice before I go back to my university club.</t>
   </si>
   <si>
-    <t>It seems to be common knowledge in the fitness community how quickly you can shed fat or put on muscle. But what is the rate for improving flexibility?</t>
-  </si>
-  <si>
-    <t>People who have had COVID: how long after your recovery did you go back to swimming? I've been reading that strenuous physical activity should be avoided for a while.</t>
-  </si>
-  <si>
-    <t>I just started running again and my ankles shins and Achilles tighten up a lot during the run and hurt.
-I've the foot rockers that stretch calfs and help with things like plantar fasciits.
-Are they worth it?</t>
-  </si>
-  <si>
-    <t>So my Kickr Snap more or less works correctly. The resistance does change in relation to what the software (Rouvy and Fulgaz) say the terrain is doing. The problem I run into is that the trainer doesn't provide anything close to enough resistance on the flats and especially downhill. It reports flats speed about 70% faster that my actual real-world speed on the flats and there's just no way I'm reaching more than 50mph on a 4% downhill when I'm cadence-limited to 26mph due to gearing.
-I have run multiple spindowns and it doesn't complain about problems when I do it. However, it doesn't report a spindown time or temp either and the online guides show that happening. I'm assuming that's a software update from Wahoo. The spindown does take 2-3x longer than the people show in the youtube videos though. 
-Any idea what I should troubleshoot?</t>
-  </si>
-  <si>
-    <t>So this is an idea that I have been thinking about for a bit now. It' fascinates me how easily we learn when we have a model that we can mimic. It's part of the reason why kids are such great learners, they are merely great imitators. It's also interesting to note that many great players, picked up the game through imitation. Sam Snead imitated his brother Homer and George Knudson imitated Hogan. Tiger imitated his dad who was a scratch player. 
-Clearly there's some value to imitating but the question is how can we use it to our advantage if our club doesn't offer the best talent to mimic? Who do we mimic and how?
-Now of course, I don't want to re-write my blog post so if this interests you feel free to check out the link below where I expand more on the concept and introduce a way that we can mimic great players while we are on the range.
-[https://fiveunderpar.wordpress.com/2020/11/21/monkey-see-monkey-do-on-the-range/](https://fiveunderpar.wordpress.com/2020/11/21/monkey-see-monkey-do-on-the-range/)</t>
-  </si>
-  <si>
-    <t>I've only ever shown hunter but have to opportunity to ride this lovely dressage boy. It would only really be schooling shows. Or maybe white pants with the navy blue jacket? I don't want to have to buy a new black coat just for a few shows.</t>
-  </si>
-  <si>
-    <t>They are doing better than Messi and Ronaldo at their age. Is there any other player that can keep up with them?</t>
-  </si>
-  <si>
-    <t>And Seattle eventually joins the Canadian teams, but the league goes with unbalanced divisions for a season or so.</t>
-  </si>
-  <si>
-    <t>I’m a sailor who is almost ready to purchase a boat, I race for my school, and I want to be able to take friends out on it, but I’m the only sailor. My budget is $10000 and I would like to have it be trailerable. What is the best boat for this, I’ve heard the J24 is good for this.</t>
-  </si>
-  <si>
-    <t>Hello!  I just joined r/running recently and I'm loving the community!   I am currently doing a 6-week training for a 5k and have been doing my runs in the evening.  I would love to get more into running in the morning to start the day off with some fresh air, however, the couple of times I've tried, I felt super nauseous.  I'm thinking it has to do with how long I let my breakfast digest.  What is your advice?  What do you normally eat/drink before a morning run and how long do you let it digest before you go?  Thanks!</t>
-  </si>
-  <si>
-    <t>Note if you're using the Free or Paid version in the comments if you don't mind!
-[View Poll](https://www.reddit.com/poll/kk7k0g)</t>
-  </si>
-  <si>
-    <t>Honestly I feel like I’ve tried everything and my knees still end up really sore during and after my run. I have crepitus too which doesn’t help. Does anyone have any tips?</t>
-  </si>
-  <si>
-    <t>When am I considered to be "recovered" from a workout and ready for another?  Is it just when I have no aches or pains and feel ready, or is it when my body is done repairing micro-damage to my muscles?</t>
-  </si>
-  <si>
-    <t>Does it just mean that someone recommends you particular clubs based on your swing type?
-Or does it mean that your new clubs are modified to meet your exact requirements?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's that time of the year again where my part of the state starts to resemble the planet Hoth. Tons of ice and snow, which means that riding outdoors is pretty much a no-go. I've been browsing the indoor trainer market and there seems to be a ton of options, and I'm frankly a bit overwhelmed.
-One thing I do know; I don't need a smart trainer. I don't race or cycle competitively, and frankly I'm not even that obsessive about tracking data related to rides. Mostly I'm just looking for something that's in my budget (preferably around $100-$150) that keeps my legs moving, gets my heart rate up, and won't fall to pieces after a few weeks. My current exercise regimen has me either riding or running three times a week for about 40-50 minutes. 
-I've looked on my local craigslist for used ones, but cycling isn't exactly popular here so it's slim pickings. If it makes any difference I'm riding a 2014 Motobecane Mirage. 
-Thank you! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still needs some final tweaks, a signature and varnish. </t>
+    <t>I was never scared of horses in my life until once upon a time when I ended up catching a runaway that got loose by grabbing the reins before it caused some damage on a public road. Luckily loads of other people were around to help out. My heart was in my mouth, I have been around horses my whole life and something about this experience was scary. An animal several times my own size, faster and more powerful. Very fortunately the horse was at a brisk trot when he got out of the field, and wasn't galloping, but it was still quite frightening, the horse was visibly stressed and here I was holding the reins like a fool saying "Shush" to try and calm it down.
+Whether it's on foot by grabbing the reins or on horseback, or the situation is much more violent, the horse is galloping and rearing while you try to restrain it, without being a hero and putting your own safety at risk, what steps do you take to calm down a scared horse?</t>
   </si>
   <si>
     <t>I'm interning and about to start a job that has an odd and exhausting schedule, around which I need to figure out how to program.  I'm currently interning two nights per week, but will soon be working the following schedule: twelve-hour shifts, three nights per week in a row, with four days off (7pm-7am).
 Training during those three days is simply not an option as the schedule is exhausting and leaves only time for work and sleep.  
 How would you train with this schedule?</t>
-  </si>
-  <si>
-    <t>Just got myself a Ender 3 printer, and now fishing season is back in full swing I realized that maybe I could use one hobby to facilitate the other.
-If any anglers out there have any suggestions for tools or adapters or even lures that I could make using a FDM printer, I'd love to hear them</t>
-  </si>
-  <si>
-    <t>I find myself with some extra 2x4s and I'm thinking about sticking one in the ground then putting a pad on it to make a makiwara. Y'all reckon that'd work?</t>
-  </si>
-  <si>
-    <t>When I left to play today my family noted that I looked like I was dressed for work (burgundy golf shirt &amp; khakis). 
-I said, “No. I always dress for golf, but I usually have to go to work.”</t>
-  </si>
-  <si>
-    <t>In order to make it easier for me to run, I want to reduce any time needed to prep. Are there any running shoes that can be worn without socks and don’t have laces. I also want to wear them to my gym</t>
-  </si>
-  <si>
-    <t>New to doing HIIT workouts. I looked at one of the guides and it was recommending to start with a 1:4 ratio of the high intensity and then light jogging for about 15 minutes. If I can't do the whole 15 minutes is it better to a) reduce it to like 10 minutes/what I can do or b) reduce the light jogging to more of a walking so I still get in like 12 sprint/hard work sessions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Been out the water a loooong time. 
-I lift 4-5 times a week, run twice, play football. Will hopefully be back in the water towards the end of year so have some lead time to focus my work outs more towards being well prepared. 
-My thought is just "swim" but I find it quite unstimulating at times, so wondering if there is something  calisthenics based that may be more suitable. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First double up on two mystery fish? 
-Fall Fish and deformed Largemouth?? </t>
-  </si>
-  <si>
-    <t>I have my commutes recorded on Strava - is there any way I can see those rides 'competing' against each other on a map, like little dots travelling down the route in real time? Either in Strava or using GPS data in another website/app.</t>
   </si>
   <si>
     <t>Any advice on how to get fit, I’ve been periodically working out for the last year or so and I fucking hate it. I’ve gone three months working out everyday and it’s a chore. 
@@ -1892,167 +1967,92 @@
 I know at some point it doesn’t feel like a chore anymore but I’ve never reached that point it just sucks</t>
   </si>
   <si>
-    <t>I've been climbing for the better part of 2 years, starting with top rope, then lead, and now I'm getting into bouldering to improve fitness. Most of that has been in the gym, with a few forays outside.
-I feel like I progressed pretty well with top rope and lead climbing, but bouldering has been tough to get good at. I feel like I really need to up my game to make  progress, and climbing a couple days a week isn't enough. What do you guys recommend for improvement? How many days should I boulder/rope climb? Are there good strength exercises I should be doing?
-For reference, I'm a solid 5.11 tope-roper and v2 climber in the gym.</t>
-  </si>
-  <si>
-    <t>I am looking into doing two half marathons in two days. It is in less than 4 weeks. I have been running on and off, the most I've ever run being 10.5 miles, which was not extremely difficult for me. How realistic is it to do two half marathons in a weekend? Will approx. 3 weeks be enough training time? Or will this just put me at high risk of injury?</t>
-  </si>
-  <si>
-    <t>Is there something inherent to being a goalie that is best for having a calm personality or am I crazy and wrong?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Got GBS spent 13 weeks in ICU fully ventilated on life support and I lost about 30kgs. The doctors didn't think I'd walk again but 5 years of hard work later here's a little clip of me skating again. Skateboarding is pure magic </t>
-  </si>
-  <si>
-    <t>As a part-time firefighter and UFC champion, Miocic has to balance his gruelling MMA training schedule, five to six days a week, often with double daily sessions, and his work at the firestation — three days a week, 12-14 hours per shift.
-Mondays are dedicated to boxing and kickboxing; Tuesdays are for grappling; Wednesdays are for pad work; Thursdays are MMA drills; Fridays are focused on perfecting different techniques; and Saturdays are for wrestling and jiu-jitsu.
-For his strength and conditioning, Miocic is a big fan of pool workouts, preferring them over the traditional roadwork most fighters and boxers include in their training. These days, when Miocic goes for a run, usually no more than 3-4 miles once or twice a week, he does it on an anti-gravity treadmill to ease up the wear and tear on his body.
-“I use an anti-gravity treadmill which lifts me up so I don’t put all the pressure and weight on my legs,” Miocic said. ”It makes me feel a lot lighter than I really am. It helps.”
-Miocic also avoids traditional weightlifting, opting for functional training with a focus on muscular endurance. “I don’t so much do deadlifts, squats or bench,” he said. “It’s more jump squats, pullups, lots of ligament strength, functional strength, stuff like that.”
-“You can lift all the weights you want and be as strong as you want but if you don’t have the endurance you’re going to get tired fast. I do a lot of five-minute rounds with one type of exercise.”
-At 38 year years old, Miocic can no longer go all-out in training like he did in his 20s; the champ has to be smarter about his training and recovery routines, looking at every aspect holistically, rather than trying to squeeze every last mile during a session.
-“I think just being really diligent with what you do, and understanding your body helps a lot,” Miocic told Heavy. “As you get older, you learn more about fitness because you’re not a spring chicken like you used to be.”
-On the occasion that Miocic feels too worn out to finish training for the week, he’ll take a break. “By Thursday, I’m exhausted. I’m beat up. I’m sore. My coaches will sometimes tell me I’m done and to take the rest of the weekend off,” Miocic said. “On Friday, Saturday, and Sunday, I rest up. I eat good. I stretch out.”
-Check out the full article here: [https://www.balancethegrind.com.au/daily-routines/stipe-miocic-daily-routine/](https://www.balancethegrind.com.au/daily-routines/stipe-miocic-daily-routine/)</t>
-  </si>
-  <si>
-    <t>I completed my bachelor’s degree 2001 in Southeast Asia. I have been working as a PT since then. I moved to the United States 2012 and continued working as PT. I am guessing I was ‘grandfathered’ into the system which allowed me to continue working without needing to transition to a DPT. I noticed when I get job interviews people try to disregard my 10 years of prior experience 2001 to 2011) simply because it wasn’t in US soil. Why is this the case? Are they simply trying to dodge factoring that chunk of work experience into the pay offer?</t>
-  </si>
-  <si>
-    <t>I was never scared of horses in my life until once upon a time when I ended up catching a runaway that got loose by grabbing the reins before it caused some damage on a public road. Luckily loads of other people were around to help out. My heart was in my mouth, I have been around horses my whole life and something about this experience was scary. An animal several times my own size, faster and more powerful. Very fortunately the horse was at a brisk trot when he got out of the field, and wasn't galloping, but it was still quite frightening, the horse was visibly stressed and here I was holding the reins like a fool saying "Shush" to try and calm it down.
-Whether it's on foot by grabbing the reins or on horseback, or the situation is much more violent, the horse is galloping and rearing while you try to restrain it, without being a hero and putting your own safety at risk, what steps do you take to calm down a scared horse?</t>
-  </si>
-  <si>
-    <t>I’m 20F, have never been good at running but I have a deep desire to enjoy it and I decided that I’m going to start couch to 5k. 
-I’m just wondering, as a complete non-runner, someone who can’t even run for 1 minute without getting out of breath, would it be better for me to start on the treadmill in my house or outside on the pavement around my neighborhood?</t>
-  </si>
-  <si>
-    <t>Hi all!  I teach a class on Psychology as a Profession, and many of my students are interested in pursuing physical therapy.  One of the projects involves an email interview with a graduate about their career.  If you:
-1. Have a college degree in Psychology at any level,
-2. Are currently employed, and
-3. Would be willing to answer \~5 questions about your career path by email at some point in February
-Then please fill out this form: [https://forms.gle/UcPbGTjfbBeAbtFd9](https://forms.gle/UcPbGTjfbBeAbtFd9).   Not every single person on the list will end up interviewed, but I have a lot of students who want to go into physical therapy, so I  appreciate all volunteers.
-**Please note that the form will ask for your real name, job title, and contact  info, so you may not want to comment on this post saying that you  completed it.**
-Thank you!</t>
-  </si>
-  <si>
-    <t>I \[17F\] recently started running on the treadmill every day. Before this, I was pretty inactive because I don't play any sports in school and the only physical movement I got before was walking my dog for about a mile. However, before I started running, I loved eating food and had a pretty big appetite. Now, I can go into the run hungry and finish not in the mood to eat anything. Is this normal? It seems like I should feel extra hungry after a workout. I run about two miles a day at a comfortable jogging pace (6-7 mph), which I'll admit, is a lot for me for right now. 
-I also find myself eating significantly less food throughout the day. I never feel hungry anymore and only eat two meals in the day on average with one being small.</t>
-  </si>
-  <si>
-    <t>I wouldn’t even think to touch a gun without training, and obviously any weapon should be respected. But, is it as important you are properly trained in safety and basics with simple target archery?
-Edit: busy so I can’t individually respond yet, but let’s of great info. Thanks everyone, I’ll look into a club near me!</t>
-  </si>
-  <si>
-    <t>I'm looking to get a couple of small horses for my farm. I'm a seasoned horse person so I know the basic things to look out for, but I have no experience with minis. I'm thinking of going with Mini Shetlands. Any experienced mini people here that have tips on what specifically these little guys might have issues with?</t>
-  </si>
-  <si>
-    <t>Looking for non-fiction (We already own the ASA 101, 103, 104, and 114 books).
- I purchased Sailing Alone Around the World, Two Years Before the Mast, The Last Grain Race, and Get Real, Get Gone for him last year.</t>
-  </si>
-  <si>
-    <t>Gifted mats, a $5 consignment net that is tiny as f***, and some paracord + tarp between 2 trees. Oh and one bag of range balls...
-Life is good. Enough.</t>
-  </si>
-  <si>
-    <t>**GET THE BOOTS ON/OFF FASTER** \- Tired of standing in a 39F parking lot after a session like a dingus, wrestling with your boots as you lose body heat? Verily I say unto you my brethren. Just slip on some special calf high socks which enable the boots to slip on and off 17x faster. And dont fall for the commonly sold $35 "frictionless wetsuits socks". Here's a [an identical product](https://www.amazon.com/gp/product/B08B5X3LSK/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;th=1) for only $14, with split toe! Bonus: they add +1 warmth inside your boots. My shoe size is 9.5 and size M fits just right.  
-**DRY THE BOOTS AND GLOVES FASTER** \- Sure, you can turn your gloves inside so they dry, but then you're stressing the seams like a knuckle-dragger. Then you stuff your boots with newspaper, right? Wrong.  They both end up smelling like the dagobah system because they never completely dry. Don't fret. Just get [one of these $25 boot and glove dryers!](https://www.amazon.com/gp/product/B07HZ5F4FT/ref=ppx_yo_dt_b_asin_title_o02_s00?ie=UTF8&amp;psc=1) Such a simple solution and no power needed. Just place this little bastard over your heater vent and let the air blow through like the great northern wind. They'll be bone(r) dry in the morning.  
-**COST EFFECTIVE NEOPRENE SOAP** \- SinkTheStink.. $15 for four measily ounces? Hell no. Bud is probably less expensive by now. Do what our scuba ancestors do, drive on down to Home Depot and buy an [ENTIRE GALLON](https://www.homedepot.com/p/Simple-Green-1-Gal-Concentrated-All-Purpose-Cleaner-2730103613005/100060853?source=shoppingads&amp;locale=en-US&amp;&amp;mtc=Shopping-B-F_D28I-G-D28I-028_004_CLEANING-NA-NA-NA-SMART-NA-NA-SMART_SHP&amp;cm_mmc=Shopping-B-F_D28I-G-D28I-028_004_CLEANING-NA-NA-NA-SMART-NA-NA-SMART_SHP-71700000080943625-58700006818240510-92700061594810356&amp;gclid=CjwKCAiAwKyNBhBfEiwA_mrUMnDbaQj5f6M2Kl2C5X0F6EuWjBarK_S23gg8hXPRcrrCc4OUEKMxYxoCoGUQAvD_BwE&amp;gclsrc=aw.ds) that does the same thing for only $9.97. Hear me know, believe me later.</t>
-  </si>
-  <si>
-    <t>I feel like I see foul throws constantly and they’re never penalised. 
-The six second rule is obviously massive and there’s examples of keepers holding onto the ball for 20+ seconds.
-What else is overlooked in the rule book?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slamming on the break will do no good as others will break up and soon enough you will be out of sight... </t>
-  </si>
-  <si>
-    <t>I'm less worried about if I'll be warm enough (I have enough layers), but is this not advisable for my bike? 
-Thanks!</t>
+    <t>Does it just mean that someone recommends you particular clubs based on your swing type?
+Or does it mean that your new clubs are modified to meet your exact requirements?</t>
+  </si>
+  <si>
+    <t>I've only ever shown hunter but have to opportunity to ride this lovely dressage boy. It would only really be schooling shows. Or maybe white pants with the navy blue jacket? I don't want to have to buy a new black coat just for a few shows.</t>
+  </si>
+  <si>
+    <t>Equipment Discussion</t>
   </si>
   <si>
     <t>EQUIPMENT</t>
   </si>
   <si>
+    <t>Education &amp; Training</t>
+  </si>
+  <si>
+    <t>Original Video :vx1000:</t>
+  </si>
+  <si>
     <t>Safety</t>
   </si>
   <si>
+    <t>Social</t>
+  </si>
+  <si>
     <t>Sabre</t>
   </si>
   <si>
     <t>Beginner Questions</t>
   </si>
   <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>Original Video :vx1000:</t>
-  </si>
-  <si>
-    <t>Education &amp; Training</t>
-  </si>
-  <si>
-    <t>Equipment Discussion</t>
+    <t>cycling</t>
+  </si>
+  <si>
+    <t>karate</t>
+  </si>
+  <si>
+    <t>surfing</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>ballroom</t>
+  </si>
+  <si>
+    <t>MMA</t>
   </si>
   <si>
     <t>physicaltherapy</t>
   </si>
   <si>
-    <t>cycling</t>
-  </si>
-  <si>
-    <t>golf</t>
-  </si>
-  <si>
-    <t>ballroom</t>
-  </si>
-  <si>
-    <t>running</t>
+    <t>Archery</t>
+  </si>
+  <si>
+    <t>Equestrian</t>
+  </si>
+  <si>
+    <t>skateboarding</t>
+  </si>
+  <si>
+    <t>football</t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>climbing</t>
+  </si>
+  <si>
+    <t>hockey</t>
+  </si>
+  <si>
+    <t>sailing</t>
   </si>
   <si>
     <t>Fencing</t>
-  </si>
-  <si>
-    <t>Archery</t>
-  </si>
-  <si>
-    <t>Fitness</t>
-  </si>
-  <si>
-    <t>Swimming</t>
-  </si>
-  <si>
-    <t>Equestrian</t>
-  </si>
-  <si>
-    <t>football</t>
-  </si>
-  <si>
-    <t>hockey</t>
-  </si>
-  <si>
-    <t>sailing</t>
-  </si>
-  <si>
-    <t>Fishing</t>
-  </si>
-  <si>
-    <t>karate</t>
-  </si>
-  <si>
-    <t>surfing</t>
-  </si>
-  <si>
-    <t>climbing</t>
-  </si>
-  <si>
-    <t>skateboarding</t>
-  </si>
-  <si>
-    <t>MMA</t>
   </si>
 </sst>
 </file>
@@ -2502,20 +2502,23 @@
       <c r="D2" t="s">
         <v>180</v>
       </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
       <c r="F2" t="s">
         <v>246</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="H2" s="2">
-        <v>44403.84967592593</v>
+        <v>45263.02704861111</v>
       </c>
       <c r="I2" t="s">
         <v>260</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>314</v>
@@ -2533,10 +2536,10 @@
         <v>538</v>
       </c>
       <c r="Q2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="R2" s="2">
-        <v>44406.67216435185</v>
+        <v>45334.94795138889</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2552,17 +2555,14 @@
       <c r="D3" t="s">
         <v>181</v>
       </c>
-      <c r="E3" t="s">
-        <v>234</v>
-      </c>
       <c r="F3" t="s">
         <v>247</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2">
-        <v>44567.76980324074</v>
+        <v>45243.59322916667</v>
       </c>
       <c r="I3" t="s">
         <v>261</v>
@@ -2583,13 +2583,13 @@
         <v>477</v>
       </c>
       <c r="P3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3" s="2">
-        <v>44578.73054398148</v>
+        <v>45245.79929398148</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2606,13 +2606,13 @@
         <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>43468.78237268519</v>
+        <v>45031.48873842593</v>
       </c>
       <c r="I4" t="s">
         <v>262</v>
@@ -2633,13 +2633,13 @@
         <v>478</v>
       </c>
       <c r="P4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="R4" s="2">
-        <v>43617.76356481481</v>
+        <v>45131.6415162037</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2655,14 +2655,17 @@
       <c r="D5" t="s">
         <v>183</v>
       </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
-        <v>45485.30944444444</v>
+        <v>43112.63719907407</v>
       </c>
       <c r="I5" t="s">
         <v>263</v>
@@ -2683,13 +2686,13 @@
         <v>479</v>
       </c>
       <c r="P5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R5" s="2">
-        <v>45486.43081018519</v>
+        <v>43205.89011574074</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2706,13 +2709,13 @@
         <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>43630.05085648148</v>
+        <v>43468.78237268519</v>
       </c>
       <c r="I6" t="s">
         <v>264</v>
@@ -2732,17 +2735,14 @@
       <c r="N6" t="s">
         <v>480</v>
       </c>
-      <c r="O6" t="s">
-        <v>530</v>
-      </c>
       <c r="P6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R6" s="2">
-        <v>43694.00913194445</v>
+        <v>43617.76356481481</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2759,13 +2759,13 @@
         <v>185</v>
       </c>
       <c r="F7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2">
-        <v>43171.59238425926</v>
+        <v>43950.88461805556</v>
       </c>
       <c r="I7" t="s">
         <v>265</v>
@@ -2785,14 +2785,17 @@
       <c r="N7" t="s">
         <v>481</v>
       </c>
+      <c r="O7" t="s">
+        <v>236</v>
+      </c>
       <c r="P7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="R7" s="2">
-        <v>43344.17601851852</v>
+        <v>43959.73515046296</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2809,13 +2812,13 @@
         <v>186</v>
       </c>
       <c r="F8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="H8" s="2">
-        <v>43935.60289351852</v>
+        <v>45341.64465277778</v>
       </c>
       <c r="I8" t="s">
         <v>266</v>
@@ -2836,16 +2839,16 @@
         <v>482</v>
       </c>
       <c r="O8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>554</v>
       </c>
       <c r="R8" s="2">
-        <v>43990.06349537037</v>
+        <v>45373.0049537037</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2861,17 +2864,14 @@
       <c r="D9" t="s">
         <v>187</v>
       </c>
-      <c r="E9" t="s">
-        <v>235</v>
-      </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G9">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>44682.42883101852</v>
+        <v>43630.05085648148</v>
       </c>
       <c r="I9" t="s">
         <v>267</v>
@@ -2892,16 +2892,16 @@
         <v>483</v>
       </c>
       <c r="O9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P9" t="s">
         <v>543</v>
       </c>
       <c r="Q9">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>44711.76993055556</v>
+        <v>43694.00913194445</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2917,23 +2917,20 @@
       <c r="D10" t="s">
         <v>188</v>
       </c>
-      <c r="E10" t="s">
-        <v>236</v>
-      </c>
       <c r="F10" t="s">
         <v>252</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>45263.02704861111</v>
+        <v>43171.59238425926</v>
       </c>
       <c r="I10" t="s">
         <v>268</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>322</v>
@@ -2948,13 +2945,13 @@
         <v>484</v>
       </c>
       <c r="P10" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
-        <v>45334.94795138889</v>
+        <v>43344.17601851852</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2970,17 +2967,14 @@
       <c r="D11" t="s">
         <v>189</v>
       </c>
-      <c r="E11" t="s">
-        <v>235</v>
-      </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2887</v>
       </c>
       <c r="H11" s="2">
-        <v>43609.11046296296</v>
+        <v>44202.95978009259</v>
       </c>
       <c r="I11" t="s">
         <v>269</v>
@@ -3001,13 +2995,13 @@
         <v>485</v>
       </c>
       <c r="P11" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="R11" s="2">
-        <v>43679.05184027777</v>
+        <v>44203.18368055556</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3024,13 +3018,13 @@
         <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="H12" s="2">
-        <v>43210.50582175926</v>
+        <v>43949.91488425926</v>
       </c>
       <c r="I12" t="s">
         <v>270</v>
@@ -3050,14 +3044,17 @@
       <c r="N12" t="s">
         <v>486</v>
       </c>
+      <c r="O12" t="s">
+        <v>236</v>
+      </c>
       <c r="P12" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
       <c r="R12" s="2">
-        <v>43276.08077546296</v>
+        <v>43965.1156712963</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3074,13 +3071,13 @@
         <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G13">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2">
-        <v>44883.98849537037</v>
+        <v>44185.78650462963</v>
       </c>
       <c r="I13" t="s">
         <v>271</v>
@@ -3100,14 +3097,17 @@
       <c r="N13" t="s">
         <v>487</v>
       </c>
+      <c r="O13" t="s">
+        <v>236</v>
+      </c>
       <c r="P13" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
-        <v>44884.01494212963</v>
+        <v>44227.26446759259</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3124,13 +3124,13 @@
         <v>192</v>
       </c>
       <c r="F14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2">
-        <v>44467.51112268519</v>
+        <v>44078.57140046296</v>
       </c>
       <c r="I14" t="s">
         <v>272</v>
@@ -3150,17 +3150,14 @@
       <c r="N14" t="s">
         <v>488</v>
       </c>
-      <c r="O14" t="s">
-        <v>245</v>
-      </c>
       <c r="P14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="R14" s="2">
-        <v>44567.52324074074</v>
+        <v>44101.6456712963</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3177,13 +3174,13 @@
         <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>44151.10179398148</v>
+        <v>44385.1825925926</v>
       </c>
       <c r="I15" t="s">
         <v>273</v>
@@ -3203,14 +3200,17 @@
       <c r="N15" t="s">
         <v>489</v>
       </c>
+      <c r="O15" t="s">
+        <v>236</v>
+      </c>
       <c r="P15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R15" s="2">
-        <v>44271.14511574074</v>
+        <v>44435.14900462963</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3227,13 +3227,13 @@
         <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2">
-        <v>44082.42541666667</v>
+        <v>45165.53828703704</v>
       </c>
       <c r="I16" t="s">
         <v>274</v>
@@ -3254,13 +3254,13 @@
         <v>490</v>
       </c>
       <c r="P16" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
-        <v>44156.20454861111</v>
+        <v>45310.90594907408</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3276,17 +3276,14 @@
       <c r="D17" t="s">
         <v>195</v>
       </c>
-      <c r="E17" t="s">
-        <v>235</v>
-      </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2">
-        <v>44148.98756944444</v>
+        <v>44403.84967592593</v>
       </c>
       <c r="I17" t="s">
         <v>275</v>
@@ -3307,13 +3304,13 @@
         <v>491</v>
       </c>
       <c r="P17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="R17" s="2">
-        <v>44192.72446759259</v>
+        <v>44406.67216435185</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3329,17 +3326,14 @@
       <c r="D18" t="s">
         <v>196</v>
       </c>
-      <c r="E18" t="s">
-        <v>237</v>
-      </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H18" s="2">
-        <v>44808.68305555556</v>
+        <v>44151.10179398148</v>
       </c>
       <c r="I18" t="s">
         <v>276</v>
@@ -3359,17 +3353,14 @@
       <c r="N18" t="s">
         <v>492</v>
       </c>
-      <c r="O18" t="s">
-        <v>235</v>
-      </c>
       <c r="P18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>44891.83980324074</v>
+        <v>44271.14511574074</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3382,20 +3373,20 @@
       <c r="C19" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>44236.32122685185</v>
+        <v>44256.90020833333</v>
       </c>
       <c r="I19" t="s">
         <v>277</v>
@@ -3416,13 +3407,13 @@
         <v>493</v>
       </c>
       <c r="P19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R19" s="2">
-        <v>44238.20126157408</v>
+        <v>44348.67297453704</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3438,17 +3429,14 @@
       <c r="D20" t="s">
         <v>198</v>
       </c>
-      <c r="E20" t="s">
-        <v>235</v>
-      </c>
       <c r="F20" t="s">
         <v>254</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2">
-        <v>44193.18734953704</v>
+        <v>45009.64496527778</v>
       </c>
       <c r="I20" t="s">
         <v>278</v>
@@ -3468,14 +3456,17 @@
       <c r="N20" t="s">
         <v>494</v>
       </c>
+      <c r="O20" t="s">
+        <v>532</v>
+      </c>
       <c r="P20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Q20">
         <v>4</v>
       </c>
       <c r="R20" s="2">
-        <v>44283.7765162037</v>
+        <v>45010.70489583333</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3491,14 +3482,17 @@
       <c r="D21" t="s">
         <v>199</v>
       </c>
+      <c r="E21" t="s">
+        <v>237</v>
+      </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>1282</v>
       </c>
       <c r="H21" s="2">
-        <v>44185.78650462963</v>
+        <v>45392.64616898148</v>
       </c>
       <c r="I21" t="s">
         <v>279</v>
@@ -3519,16 +3513,16 @@
         <v>495</v>
       </c>
       <c r="O21" t="s">
-        <v>245</v>
+        <v>533</v>
       </c>
       <c r="P21" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="R21" s="2">
-        <v>44227.26446759259</v>
+        <v>45426.36930555556</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3544,17 +3538,14 @@
       <c r="D22" t="s">
         <v>200</v>
       </c>
-      <c r="E22" t="s">
-        <v>239</v>
-      </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>44121.95792824074</v>
+        <v>43935.60289351852</v>
       </c>
       <c r="I22" t="s">
         <v>280</v>
@@ -3574,14 +3565,17 @@
       <c r="N22" t="s">
         <v>496</v>
       </c>
+      <c r="O22" t="s">
+        <v>534</v>
+      </c>
       <c r="P22" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R22" s="2">
-        <v>44190.95019675926</v>
+        <v>43990.06349537037</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3597,14 +3591,17 @@
       <c r="D23" t="s">
         <v>201</v>
       </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>43996.88853009259</v>
+        <v>44556.02092592593</v>
       </c>
       <c r="I23" t="s">
         <v>281</v>
@@ -3625,16 +3622,16 @@
         <v>497</v>
       </c>
       <c r="O23" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="P23" t="s">
         <v>542</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
-        <v>44043.76524305555</v>
+        <v>44722.69481481481</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3654,13 +3651,13 @@
         <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="H24" s="2">
-        <v>43667.28362268519</v>
+        <v>44739.56863425926</v>
       </c>
       <c r="I24" t="s">
         <v>282</v>
@@ -3680,14 +3677,17 @@
       <c r="N24" t="s">
         <v>498</v>
       </c>
+      <c r="O24" t="s">
+        <v>235</v>
+      </c>
       <c r="P24" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="R24" s="2">
-        <v>43763.10706018518</v>
+        <v>44856.55253472222</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3704,16 +3704,16 @@
         <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G25">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2">
-        <v>45241.65127314815</v>
+        <v>43685.30559027778</v>
       </c>
       <c r="I25" t="s">
         <v>283</v>
@@ -3733,17 +3733,14 @@
       <c r="N25" t="s">
         <v>499</v>
       </c>
-      <c r="O25" t="s">
-        <v>533</v>
-      </c>
       <c r="P25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q25">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
-        <v>45256.94327546296</v>
+        <v>43685.29597222222</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3759,17 +3756,14 @@
       <c r="D26" t="s">
         <v>204</v>
       </c>
-      <c r="E26" t="s">
-        <v>235</v>
-      </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H26" s="2">
-        <v>43399.36596064815</v>
+        <v>44883.98849537037</v>
       </c>
       <c r="I26" t="s">
         <v>284</v>
@@ -3790,13 +3784,13 @@
         <v>500</v>
       </c>
       <c r="P26" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R26" s="2">
-        <v>43424.97469907408</v>
+        <v>44884.01494212963</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3812,17 +3806,14 @@
       <c r="D27" t="s">
         <v>205</v>
       </c>
-      <c r="E27" t="s">
-        <v>241</v>
-      </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H27" s="2">
-        <v>45624.01952546297</v>
+        <v>45456.81170138889</v>
       </c>
       <c r="I27" t="s">
         <v>285</v>
@@ -3842,17 +3833,14 @@
       <c r="N27" t="s">
         <v>501</v>
       </c>
-      <c r="O27" t="s">
-        <v>534</v>
-      </c>
       <c r="P27" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q27">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="R27" s="2">
-        <v>45624.69743055556</v>
+        <v>45519.81149305555</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3869,13 +3857,13 @@
         <v>206</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2">
-        <v>43165.12895833333</v>
+        <v>43996.88853009259</v>
       </c>
       <c r="I28" t="s">
         <v>286</v>
@@ -3895,14 +3883,17 @@
       <c r="N28" t="s">
         <v>502</v>
       </c>
+      <c r="O28" t="s">
+        <v>236</v>
+      </c>
       <c r="P28" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R28" s="2">
-        <v>43191.08452546296</v>
+        <v>44043.76524305555</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3919,13 +3910,13 @@
         <v>207</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2">
-        <v>43529.58634259259</v>
+        <v>43598.74762731481</v>
       </c>
       <c r="I29" t="s">
         <v>287</v>
@@ -3945,17 +3936,14 @@
       <c r="N29" t="s">
         <v>503</v>
       </c>
-      <c r="O29" t="s">
-        <v>245</v>
-      </c>
       <c r="P29" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2">
-        <v>43571.70659722222</v>
+        <v>43673.89284722223</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3968,17 +3956,20 @@
       <c r="C30" t="s">
         <v>154</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>208</v>
+      </c>
+      <c r="E30" t="s">
+        <v>239</v>
       </c>
       <c r="F30" t="s">
         <v>248</v>
       </c>
       <c r="G30">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>45243.59322916667</v>
+        <v>44236.32122685185</v>
       </c>
       <c r="I30" t="s">
         <v>288</v>
@@ -3999,13 +3990,13 @@
         <v>504</v>
       </c>
       <c r="P30" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2">
-        <v>45245.79929398148</v>
+        <v>44238.20126157408</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4022,13 +4013,13 @@
         <v>209</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2">
-        <v>44078.57140046296</v>
+        <v>43529.58634259259</v>
       </c>
       <c r="I31" t="s">
         <v>289</v>
@@ -4048,14 +4039,17 @@
       <c r="N31" t="s">
         <v>505</v>
       </c>
+      <c r="O31" t="s">
+        <v>236</v>
+      </c>
       <c r="P31" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2">
-        <v>44101.6456712963</v>
+        <v>43571.70659722222</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4071,17 +4065,14 @@
       <c r="D32" t="s">
         <v>210</v>
       </c>
-      <c r="E32" t="s">
-        <v>242</v>
-      </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="H32" s="2">
-        <v>44556.02092592593</v>
+        <v>44886.01465277778</v>
       </c>
       <c r="I32" t="s">
         <v>290</v>
@@ -4101,17 +4092,14 @@
       <c r="N32" t="s">
         <v>506</v>
       </c>
-      <c r="O32" t="s">
-        <v>245</v>
-      </c>
       <c r="P32" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <v>44722.69481481481</v>
+        <v>44886.7625</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4128,16 +4116,16 @@
         <v>211</v>
       </c>
       <c r="E33" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="H33" s="2">
-        <v>43112.63719907407</v>
+        <v>45624.01952546297</v>
       </c>
       <c r="I33" t="s">
         <v>291</v>
@@ -4157,14 +4145,17 @@
       <c r="N33" t="s">
         <v>507</v>
       </c>
+      <c r="O33" t="s">
+        <v>535</v>
+      </c>
       <c r="P33" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="R33" s="2">
-        <v>43205.89011574074</v>
+        <v>45624.69743055556</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4181,13 +4172,13 @@
         <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34" s="2">
-        <v>45031.48873842593</v>
+        <v>44533.81570601852</v>
       </c>
       <c r="I34" t="s">
         <v>292</v>
@@ -4208,13 +4199,13 @@
         <v>508</v>
       </c>
       <c r="P34" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="R34" s="2">
-        <v>45131.6415162037</v>
+        <v>44534.90491898148</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4231,13 +4222,13 @@
         <v>213</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G35">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H35" s="2">
-        <v>45456.81170138889</v>
+        <v>45260.83104166666</v>
       </c>
       <c r="I35" t="s">
         <v>293</v>
@@ -4258,13 +4249,13 @@
         <v>509</v>
       </c>
       <c r="P35" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="R35" s="2">
-        <v>45519.81149305555</v>
+        <v>45261.71721064814</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4280,17 +4271,14 @@
       <c r="D36" t="s">
         <v>214</v>
       </c>
-      <c r="E36" t="s">
-        <v>235</v>
-      </c>
       <c r="F36" t="s">
         <v>254</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H36" s="2">
-        <v>43685.30559027778</v>
+        <v>44467.51112268519</v>
       </c>
       <c r="I36" t="s">
         <v>294</v>
@@ -4310,14 +4298,17 @@
       <c r="N36" t="s">
         <v>510</v>
       </c>
+      <c r="O36" t="s">
+        <v>236</v>
+      </c>
       <c r="P36" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R36" s="2">
-        <v>43685.29597222222</v>
+        <v>44567.52324074074</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4334,19 +4325,19 @@
         <v>215</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H37" s="2">
-        <v>43569.05975694444</v>
+        <v>45205.67783564814</v>
       </c>
       <c r="I37" t="s">
         <v>295</v>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>349</v>
@@ -4361,13 +4352,13 @@
         <v>511</v>
       </c>
       <c r="P37" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R37" s="2">
-        <v>43570.82856481482</v>
+        <v>45248.74260416667</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4384,13 +4375,13 @@
         <v>216</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="2">
-        <v>43598.74762731481</v>
+        <v>43210.50582175926</v>
       </c>
       <c r="I38" t="s">
         <v>296</v>
@@ -4411,13 +4402,13 @@
         <v>512</v>
       </c>
       <c r="P38" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R38" s="2">
-        <v>43673.89284722223</v>
+        <v>43276.08077546296</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4433,14 +4424,17 @@
       <c r="D39" t="s">
         <v>217</v>
       </c>
+      <c r="E39" t="s">
+        <v>235</v>
+      </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H39" s="2">
-        <v>44385.1825925926</v>
+        <v>43399.36596064815</v>
       </c>
       <c r="I39" t="s">
         <v>297</v>
@@ -4460,17 +4454,14 @@
       <c r="N39" t="s">
         <v>513</v>
       </c>
-      <c r="O39" t="s">
-        <v>245</v>
-      </c>
       <c r="P39" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R39" s="2">
-        <v>44435.14900462963</v>
+        <v>43424.97469907408</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4486,17 +4477,14 @@
       <c r="D40" t="s">
         <v>218</v>
       </c>
-      <c r="E40" t="s">
-        <v>243</v>
-      </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G40">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>44298.57693287037</v>
+        <v>44082.42541666667</v>
       </c>
       <c r="I40" t="s">
         <v>298</v>
@@ -4517,13 +4505,13 @@
         <v>514</v>
       </c>
       <c r="P40" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="Q40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R40" s="2">
-        <v>44300.87430555555</v>
+        <v>44156.20454861111</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4540,16 +4528,16 @@
         <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F41" t="s">
         <v>258</v>
       </c>
       <c r="G41">
-        <v>1282</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2">
-        <v>45392.64616898148</v>
+        <v>44121.95792824074</v>
       </c>
       <c r="I41" t="s">
         <v>299</v>
@@ -4569,17 +4557,14 @@
       <c r="N41" t="s">
         <v>515</v>
       </c>
-      <c r="O41" t="s">
-        <v>535</v>
-      </c>
       <c r="P41" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="Q41">
-        <v>1070</v>
+        <v>10</v>
       </c>
       <c r="R41" s="2">
-        <v>45426.36930555556</v>
+        <v>44190.95019675926</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4595,14 +4580,17 @@
       <c r="D42" t="s">
         <v>220</v>
       </c>
+      <c r="E42" t="s">
+        <v>235</v>
+      </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G42">
-        <v>2887</v>
+        <v>3</v>
       </c>
       <c r="H42" s="2">
-        <v>44202.95978009259</v>
+        <v>43667.28362268519</v>
       </c>
       <c r="I42" t="s">
         <v>300</v>
@@ -4623,13 +4611,13 @@
         <v>516</v>
       </c>
       <c r="P42" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="Q42">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="R42" s="2">
-        <v>44203.18368055556</v>
+        <v>43763.10706018518</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4645,20 +4633,23 @@
       <c r="D43" t="s">
         <v>221</v>
       </c>
+      <c r="E43" t="s">
+        <v>242</v>
+      </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G43">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H43" s="2">
-        <v>45205.67783564814</v>
+        <v>44808.68305555556</v>
       </c>
       <c r="I43" t="s">
         <v>301</v>
       </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>355</v>
@@ -4672,14 +4663,17 @@
       <c r="N43" t="s">
         <v>517</v>
       </c>
+      <c r="O43" t="s">
+        <v>235</v>
+      </c>
       <c r="P43" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R43" s="2">
-        <v>45248.74260416667</v>
+        <v>44891.83980324074</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4696,16 +4690,16 @@
         <v>222</v>
       </c>
       <c r="E44" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G44">
-        <v>1176</v>
+        <v>7</v>
       </c>
       <c r="H44" s="2">
-        <v>44427.74645833333</v>
+        <v>44567.76980324074</v>
       </c>
       <c r="I44" t="s">
         <v>302</v>
@@ -4726,13 +4720,13 @@
         <v>518</v>
       </c>
       <c r="P44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" s="2">
-        <v>44431.68815972222</v>
+        <v>44578.73054398148</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4748,14 +4742,17 @@
       <c r="D45" t="s">
         <v>223</v>
       </c>
+      <c r="E45" t="s">
+        <v>244</v>
+      </c>
       <c r="F45" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G45">
-        <v>136</v>
+        <v>378</v>
       </c>
       <c r="H45" s="2">
-        <v>43949.91488425926</v>
+        <v>44298.57693287037</v>
       </c>
       <c r="I45" t="s">
         <v>303</v>
@@ -4775,17 +4772,14 @@
       <c r="N45" t="s">
         <v>519</v>
       </c>
-      <c r="O45" t="s">
-        <v>245</v>
-      </c>
       <c r="P45" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R45" s="2">
-        <v>43965.1156712963</v>
+        <v>44300.87430555555</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4801,14 +4795,17 @@
       <c r="D46" t="s">
         <v>224</v>
       </c>
+      <c r="E46" t="s">
+        <v>235</v>
+      </c>
       <c r="F46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G46">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="H46" s="2">
-        <v>45165.53828703704</v>
+        <v>44682.42883101852</v>
       </c>
       <c r="I46" t="s">
         <v>304</v>
@@ -4828,14 +4825,17 @@
       <c r="N46" t="s">
         <v>520</v>
       </c>
+      <c r="O46" t="s">
+        <v>536</v>
+      </c>
       <c r="P46" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="R46" s="2">
-        <v>45310.90594907408</v>
+        <v>44711.76993055556</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4852,13 +4852,13 @@
         <v>225</v>
       </c>
       <c r="F47" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H47" s="2">
-        <v>43950.88461805556</v>
+        <v>43266.14358796296</v>
       </c>
       <c r="I47" t="s">
         <v>305</v>
@@ -4878,17 +4878,14 @@
       <c r="N47" t="s">
         <v>521</v>
       </c>
-      <c r="O47" t="s">
-        <v>245</v>
-      </c>
       <c r="P47" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Q47">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R47" s="2">
-        <v>43959.73515046296</v>
+        <v>43270.09670138889</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4905,16 +4902,16 @@
         <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>44256.90020833333</v>
+        <v>44193.18734953704</v>
       </c>
       <c r="I48" t="s">
         <v>306</v>
@@ -4935,13 +4932,13 @@
         <v>522</v>
       </c>
       <c r="P48" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="Q48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R48" s="2">
-        <v>44348.67297453704</v>
+        <v>44283.7765162037</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4958,13 +4955,13 @@
         <v>227</v>
       </c>
       <c r="F49" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>45009.64496527778</v>
+        <v>45485.30944444444</v>
       </c>
       <c r="I49" t="s">
         <v>307</v>
@@ -4984,17 +4981,14 @@
       <c r="N49" t="s">
         <v>523</v>
       </c>
-      <c r="O49" t="s">
-        <v>536</v>
-      </c>
       <c r="P49" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R49" s="2">
-        <v>45010.70489583333</v>
+        <v>45486.43081018519</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5010,14 +5004,17 @@
       <c r="D50" t="s">
         <v>228</v>
       </c>
+      <c r="E50" t="s">
+        <v>235</v>
+      </c>
       <c r="F50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G50">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
-        <v>45260.83104166666</v>
+        <v>43609.11046296296</v>
       </c>
       <c r="I50" t="s">
         <v>308</v>
@@ -5038,13 +5035,13 @@
         <v>524</v>
       </c>
       <c r="P50" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="R50" s="2">
-        <v>45261.71721064814</v>
+        <v>43679.05184027777</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5060,14 +5057,17 @@
       <c r="D51" t="s">
         <v>229</v>
       </c>
+      <c r="E51" t="s">
+        <v>235</v>
+      </c>
       <c r="F51" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G51">
-        <v>226</v>
+        <v>1176</v>
       </c>
       <c r="H51" s="2">
-        <v>45341.64465277778</v>
+        <v>44427.74645833333</v>
       </c>
       <c r="I51" t="s">
         <v>309</v>
@@ -5087,17 +5087,14 @@
       <c r="N51" t="s">
         <v>525</v>
       </c>
-      <c r="O51" t="s">
-        <v>537</v>
-      </c>
       <c r="P51" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="Q51">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="R51" s="2">
-        <v>45373.0049537037</v>
+        <v>44431.68815972222</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5114,13 +5111,13 @@
         <v>230</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52" s="2">
-        <v>44533.81570601852</v>
+        <v>43165.12895833333</v>
       </c>
       <c r="I52" t="s">
         <v>310</v>
@@ -5141,13 +5138,13 @@
         <v>526</v>
       </c>
       <c r="P52" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="Q52">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2">
-        <v>44534.90491898148</v>
+        <v>43191.08452546296</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5163,17 +5160,14 @@
       <c r="D53" t="s">
         <v>231</v>
       </c>
-      <c r="E53" t="s">
-        <v>235</v>
-      </c>
       <c r="F53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G53">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="H53" s="2">
-        <v>44739.56863425926</v>
+        <v>43569.05975694444</v>
       </c>
       <c r="I53" t="s">
         <v>311</v>
@@ -5193,17 +5187,14 @@
       <c r="N53" t="s">
         <v>527</v>
       </c>
-      <c r="O53" t="s">
-        <v>235</v>
-      </c>
       <c r="P53" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="Q53">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R53" s="2">
-        <v>44856.55253472222</v>
+        <v>43570.82856481482</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5219,14 +5210,17 @@
       <c r="D54" t="s">
         <v>232</v>
       </c>
+      <c r="E54" t="s">
+        <v>245</v>
+      </c>
       <c r="F54" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="H54" s="2">
-        <v>43266.14358796296</v>
+        <v>45241.65127314815</v>
       </c>
       <c r="I54" t="s">
         <v>312</v>
@@ -5246,14 +5240,17 @@
       <c r="N54" t="s">
         <v>528</v>
       </c>
+      <c r="O54" t="s">
+        <v>537</v>
+      </c>
       <c r="P54" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="R54" s="2">
-        <v>43270.09670138889</v>
+        <v>45256.94327546296</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5269,14 +5266,17 @@
       <c r="D55" t="s">
         <v>233</v>
       </c>
+      <c r="E55" t="s">
+        <v>235</v>
+      </c>
       <c r="F55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G55">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="H55" s="2">
-        <v>44886.01465277778</v>
+        <v>44148.98756944444</v>
       </c>
       <c r="I55" t="s">
         <v>313</v>
@@ -5297,13 +5297,13 @@
         <v>529</v>
       </c>
       <c r="P55" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R55" s="2">
-        <v>44886.7625</v>
+        <v>44192.72446759259</v>
       </c>
     </row>
   </sheetData>
@@ -5325,18 +5325,18 @@
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
     <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="K19" r:id="rId19"/>
-    <hyperlink ref="K20" r:id="rId20"/>
-    <hyperlink ref="K21" r:id="rId21"/>
-    <hyperlink ref="K22" r:id="rId22"/>
-    <hyperlink ref="K23" r:id="rId23"/>
-    <hyperlink ref="K24" r:id="rId24"/>
-    <hyperlink ref="K25" r:id="rId25"/>
-    <hyperlink ref="K26" r:id="rId26"/>
-    <hyperlink ref="K27" r:id="rId27"/>
-    <hyperlink ref="K28" r:id="rId28"/>
-    <hyperlink ref="K29" r:id="rId29"/>
+    <hyperlink ref="K19" r:id="rId18"/>
+    <hyperlink ref="K20" r:id="rId19"/>
+    <hyperlink ref="K21" r:id="rId20"/>
+    <hyperlink ref="K22" r:id="rId21"/>
+    <hyperlink ref="K23" r:id="rId22"/>
+    <hyperlink ref="K24" r:id="rId23"/>
+    <hyperlink ref="K25" r:id="rId24"/>
+    <hyperlink ref="K26" r:id="rId25"/>
+    <hyperlink ref="K27" r:id="rId26"/>
+    <hyperlink ref="K28" r:id="rId27"/>
+    <hyperlink ref="K29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
     <hyperlink ref="K30" r:id="rId30"/>
     <hyperlink ref="K31" r:id="rId31"/>
     <hyperlink ref="K32" r:id="rId32"/>
